--- a/TEST CASE - FLIPKART.xlsx
+++ b/TEST CASE - FLIPKART.xlsx
@@ -1,26 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Desktop\Dhruvin\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5038DC-E187-4E66-9C30-1236BCDC69C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIGN UP" sheetId="2" r:id="rId1"/>
     <sheet name="LOG IN" sheetId="1" r:id="rId2"/>
+    <sheet name="HOME PAGE" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="103">
   <si>
     <t>Test Scenario Description</t>
   </si>
@@ -234,12 +250,108 @@
   <si>
     <t>To check enter invalid OTP in OTP field</t>
   </si>
+  <si>
+    <t>To check see the redirected homepage after successful login</t>
+  </si>
+  <si>
+    <t>Login should successful</t>
+  </si>
+  <si>
+    <t>Verify that Homepage shows the all fields like search, add to cart, user profile, product lists, wish list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It shows fields Add to cart, search product, user profile, wish list, all products list  </t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Verify that the all products listing page get displayed in proper format with the product name and price</t>
+  </si>
+  <si>
+    <t>To check the product list see the Homepage of the Site</t>
+  </si>
+  <si>
+    <t>Product lists should present at page</t>
+  </si>
+  <si>
+    <t>It shows all products list with its Proper Name and Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To check the proper format of the product list </t>
+  </si>
+  <si>
+    <t>Product lists should present at page as Predefined format</t>
+  </si>
+  <si>
+    <t>It shows all product list in proper format</t>
+  </si>
+  <si>
+    <t>It shows all product list in Improper format</t>
+  </si>
+  <si>
+    <t>Verify that the displayed product picture matches with the product itself with its price</t>
+  </si>
+  <si>
+    <t>To check the Product matches with actual Product Picture</t>
+  </si>
+  <si>
+    <t>Image for the Product should be Predefined</t>
+  </si>
+  <si>
+    <t>It displaying the Matching product image with Product itself</t>
+  </si>
+  <si>
+    <t>To check the mismatching image of the product from product list</t>
+  </si>
+  <si>
+    <t>Product with mismatching image should present at product list</t>
+  </si>
+  <si>
+    <t>It displaying some Product with Mismatching image</t>
+  </si>
+  <si>
+    <t>To check the Name &amp; Price of the product is in proper format as visible</t>
+  </si>
+  <si>
+    <t>Product should displaying the Name and Price as Predefined</t>
+  </si>
+  <si>
+    <t>It displaying the Product with its Name and Price as Easily Readable</t>
+  </si>
+  <si>
+    <t>Product with less visible or Improper format should present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It displaying the some Products name and price is less visible and Improper font </t>
+  </si>
+  <si>
+    <t>To check the Name &amp; Price of the product is improper format</t>
+  </si>
+  <si>
+    <t>Verify that the products link redirects to their desired product description page with Appropriate Details</t>
+  </si>
+  <si>
+    <t>To check the product link redirects to their desired detail page</t>
+  </si>
+  <si>
+    <t>Product link should present at page</t>
+  </si>
+  <si>
+    <t>Click on Link</t>
+  </si>
+  <si>
+    <t>It redirects to the appropriate product detail page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It shows error "Page not found" </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,6 +411,13 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -320,7 +439,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -454,12 +573,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -545,7 +690,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -569,6 +714,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -842,33 +1018,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.26953125" customWidth="1"/>
+    <col min="2" max="2" width="40.54296875" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.1796875" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" customWidth="1"/>
-    <col min="7" max="7" width="41.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.1796875" customWidth="1"/>
+    <col min="7" max="7" width="41.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:7" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:7" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="20" t="s">
         <v>6</v>
       </c>
@@ -891,7 +1067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -914,7 +1090,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="14"/>
       <c r="C5" s="25" t="s">
@@ -933,7 +1109,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="23"/>
       <c r="B6" s="28"/>
       <c r="C6" s="26" t="s">
@@ -952,7 +1128,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="32" t="s">
         <v>18</v>
       </c>
@@ -975,7 +1151,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="33" t="s">
         <v>19</v>
       </c>
@@ -998,7 +1174,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="34"/>
       <c r="B9" s="36"/>
       <c r="C9" s="26" t="s">
@@ -1017,7 +1193,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="33" t="s">
         <v>20</v>
       </c>
@@ -1040,7 +1216,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="33" t="s">
         <v>57</v>
       </c>
@@ -1063,7 +1239,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="22"/>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
@@ -1072,7 +1248,7 @@
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -1081,7 +1257,7 @@
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -1090,7 +1266,7 @@
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
@@ -1099,7 +1275,7 @@
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -1114,26 +1290,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.5703125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7265625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.54296875" style="8" customWidth="1"/>
     <col min="5" max="5" width="26" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32" style="8" customWidth="1"/>
-    <col min="7" max="7" width="42.5703125" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="12.5703125" style="8"/>
+    <col min="7" max="7" width="42.54296875" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="12.54296875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1158,7 +1334,7 @@
       <c r="V1" s="7"/>
       <c r="W1" s="7"/>
     </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1183,7 +1359,7 @@
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
     </row>
-    <row r="3" spans="1:23" s="11" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" s="11" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="20" t="s">
         <v>6</v>
       </c>
@@ -1222,7 +1398,7 @@
       <c r="V3" s="10"/>
       <c r="W3" s="10"/>
     </row>
-    <row r="4" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1261,7 +1437,7 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="3" t="s">
@@ -1296,7 +1472,7 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" s="9"/>
       <c r="C6" s="3" t="s">
@@ -1331,7 +1507,7 @@
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
     </row>
-    <row r="7" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
       <c r="B7" s="9"/>
       <c r="C7" s="3" t="s">
@@ -1366,7 +1542,7 @@
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
     </row>
-    <row r="8" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="9"/>
       <c r="C8" s="3" t="s">
@@ -1401,7 +1577,7 @@
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
     </row>
-    <row r="9" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="9"/>
       <c r="C9" s="3" t="s">
@@ -1436,7 +1612,7 @@
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
     </row>
-    <row r="10" spans="1:23" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
@@ -1475,7 +1651,7 @@
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
     </row>
-    <row r="11" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="3" t="s">
@@ -1510,7 +1686,7 @@
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
     </row>
-    <row r="12" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="19" t="s">
         <v>19</v>
       </c>
@@ -1549,7 +1725,7 @@
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
     </row>
-    <row r="13" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="19" t="s">
         <v>20</v>
       </c>
@@ -1588,7 +1764,7 @@
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
     </row>
-    <row r="14" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="19" t="s">
         <v>57</v>
       </c>
@@ -1627,7 +1803,7 @@
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1645,7 +1821,7 @@
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1663,7 +1839,7 @@
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1681,7 +1857,7 @@
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1699,7 +1875,7 @@
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1717,7 +1893,7 @@
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1742,7 +1918,7 @@
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1767,7 +1943,7 @@
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1792,7 +1968,7 @@
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1817,7 +1993,7 @@
       <c r="V23" s="7"/>
       <c r="W23" s="7"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1842,7 +2018,7 @@
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1867,7 +2043,7 @@
       <c r="V25" s="7"/>
       <c r="W25" s="7"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1892,7 +2068,7 @@
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1917,7 +2093,7 @@
       <c r="V27" s="7"/>
       <c r="W27" s="7"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1942,7 +2118,7 @@
       <c r="V28" s="7"/>
       <c r="W28" s="7"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1967,7 +2143,7 @@
       <c r="V29" s="7"/>
       <c r="W29" s="7"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1992,7 +2168,7 @@
       <c r="V30" s="7"/>
       <c r="W30" s="7"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -2017,7 +2193,7 @@
       <c r="V31" s="7"/>
       <c r="W31" s="7"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -2042,7 +2218,7 @@
       <c r="V32" s="7"/>
       <c r="W32" s="7"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -2067,7 +2243,7 @@
       <c r="V33" s="7"/>
       <c r="W33" s="7"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -2092,7 +2268,7 @@
       <c r="V34" s="7"/>
       <c r="W34" s="7"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -2117,7 +2293,7 @@
       <c r="V35" s="7"/>
       <c r="W35" s="7"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -2142,7 +2318,7 @@
       <c r="V36" s="7"/>
       <c r="W36" s="7"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -2167,7 +2343,7 @@
       <c r="V37" s="7"/>
       <c r="W37" s="7"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -2192,7 +2368,7 @@
       <c r="V38" s="7"/>
       <c r="W38" s="7"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -2217,7 +2393,7 @@
       <c r="V39" s="7"/>
       <c r="W39" s="7"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -2242,7 +2418,7 @@
       <c r="V40" s="7"/>
       <c r="W40" s="7"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -2267,7 +2443,7 @@
       <c r="V41" s="7"/>
       <c r="W41" s="7"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -2292,7 +2468,7 @@
       <c r="V42" s="7"/>
       <c r="W42" s="7"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -2317,7 +2493,7 @@
       <c r="V43" s="7"/>
       <c r="W43" s="7"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -2342,7 +2518,7 @@
       <c r="V44" s="7"/>
       <c r="W44" s="7"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -2367,7 +2543,7 @@
       <c r="V45" s="7"/>
       <c r="W45" s="7"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -2392,7 +2568,7 @@
       <c r="V46" s="7"/>
       <c r="W46" s="7"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -2417,7 +2593,7 @@
       <c r="V47" s="7"/>
       <c r="W47" s="7"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -2442,7 +2618,7 @@
       <c r="V48" s="7"/>
       <c r="W48" s="7"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -2467,7 +2643,7 @@
       <c r="V49" s="7"/>
       <c r="W49" s="7"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -2492,7 +2668,7 @@
       <c r="V50" s="7"/>
       <c r="W50" s="7"/>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -2517,7 +2693,7 @@
       <c r="V51" s="7"/>
       <c r="W51" s="7"/>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -2542,7 +2718,7 @@
       <c r="V52" s="7"/>
       <c r="W52" s="7"/>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -2567,7 +2743,7 @@
       <c r="V53" s="7"/>
       <c r="W53" s="7"/>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -2592,7 +2768,7 @@
       <c r="V54" s="7"/>
       <c r="W54" s="7"/>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -2617,7 +2793,7 @@
       <c r="V55" s="7"/>
       <c r="W55" s="7"/>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -2642,7 +2818,7 @@
       <c r="V56" s="7"/>
       <c r="W56" s="7"/>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -2667,7 +2843,7 @@
       <c r="V57" s="7"/>
       <c r="W57" s="7"/>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -2692,7 +2868,7 @@
       <c r="V58" s="7"/>
       <c r="W58" s="7"/>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -2717,7 +2893,7 @@
       <c r="V59" s="7"/>
       <c r="W59" s="7"/>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -2742,7 +2918,7 @@
       <c r="V60" s="7"/>
       <c r="W60" s="7"/>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -2767,7 +2943,7 @@
       <c r="V61" s="7"/>
       <c r="W61" s="7"/>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -2792,7 +2968,7 @@
       <c r="V62" s="7"/>
       <c r="W62" s="7"/>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -2817,7 +2993,7 @@
       <c r="V63" s="7"/>
       <c r="W63" s="7"/>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -2842,7 +3018,7 @@
       <c r="V64" s="7"/>
       <c r="W64" s="7"/>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -2867,7 +3043,7 @@
       <c r="V65" s="7"/>
       <c r="W65" s="7"/>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -2892,7 +3068,7 @@
       <c r="V66" s="7"/>
       <c r="W66" s="7"/>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -2917,7 +3093,7 @@
       <c r="V67" s="7"/>
       <c r="W67" s="7"/>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -2942,7 +3118,7 @@
       <c r="V68" s="7"/>
       <c r="W68" s="7"/>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -2967,7 +3143,7 @@
       <c r="V69" s="7"/>
       <c r="W69" s="7"/>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -2992,7 +3168,7 @@
       <c r="V70" s="7"/>
       <c r="W70" s="7"/>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -3017,7 +3193,7 @@
       <c r="V71" s="7"/>
       <c r="W71" s="7"/>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -3042,7 +3218,7 @@
       <c r="V72" s="7"/>
       <c r="W72" s="7"/>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -3067,7 +3243,7 @@
       <c r="V73" s="7"/>
       <c r="W73" s="7"/>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -3092,7 +3268,7 @@
       <c r="V74" s="7"/>
       <c r="W74" s="7"/>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -3117,7 +3293,7 @@
       <c r="V75" s="7"/>
       <c r="W75" s="7"/>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -3142,7 +3318,7 @@
       <c r="V76" s="7"/>
       <c r="W76" s="7"/>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -3167,7 +3343,7 @@
       <c r="V77" s="7"/>
       <c r="W77" s="7"/>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -3192,7 +3368,7 @@
       <c r="V78" s="7"/>
       <c r="W78" s="7"/>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -3217,7 +3393,7 @@
       <c r="V79" s="7"/>
       <c r="W79" s="7"/>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -3242,7 +3418,7 @@
       <c r="V80" s="7"/>
       <c r="W80" s="7"/>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -3267,7 +3443,7 @@
       <c r="V81" s="7"/>
       <c r="W81" s="7"/>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -3292,7 +3468,7 @@
       <c r="V82" s="7"/>
       <c r="W82" s="7"/>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -3317,7 +3493,7 @@
       <c r="V83" s="7"/>
       <c r="W83" s="7"/>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -3342,7 +3518,7 @@
       <c r="V84" s="7"/>
       <c r="W84" s="7"/>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -3367,7 +3543,7 @@
       <c r="V85" s="7"/>
       <c r="W85" s="7"/>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -3392,7 +3568,7 @@
       <c r="V86" s="7"/>
       <c r="W86" s="7"/>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -3417,7 +3593,7 @@
       <c r="V87" s="7"/>
       <c r="W87" s="7"/>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -3442,7 +3618,7 @@
       <c r="V88" s="7"/>
       <c r="W88" s="7"/>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -3467,7 +3643,7 @@
       <c r="V89" s="7"/>
       <c r="W89" s="7"/>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -3492,7 +3668,7 @@
       <c r="V90" s="7"/>
       <c r="W90" s="7"/>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A91" s="1"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -3517,7 +3693,7 @@
       <c r="V91" s="7"/>
       <c r="W91" s="7"/>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -3542,7 +3718,7 @@
       <c r="V92" s="7"/>
       <c r="W92" s="7"/>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A93" s="1"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -3567,7 +3743,7 @@
       <c r="V93" s="7"/>
       <c r="W93" s="7"/>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A94" s="1"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -3592,7 +3768,7 @@
       <c r="V94" s="7"/>
       <c r="W94" s="7"/>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -3617,7 +3793,7 @@
       <c r="V95" s="7"/>
       <c r="W95" s="7"/>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A96" s="1"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -3642,7 +3818,7 @@
       <c r="V96" s="7"/>
       <c r="W96" s="7"/>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A97" s="1"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -3667,7 +3843,7 @@
       <c r="V97" s="7"/>
       <c r="W97" s="7"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A98" s="1"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -3692,7 +3868,7 @@
       <c r="V98" s="7"/>
       <c r="W98" s="7"/>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A99" s="1"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
@@ -3717,7 +3893,7 @@
       <c r="V99" s="7"/>
       <c r="W99" s="7"/>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A100" s="1"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -3742,7 +3918,7 @@
       <c r="V100" s="7"/>
       <c r="W100" s="7"/>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -3767,7 +3943,7 @@
       <c r="V101" s="7"/>
       <c r="W101" s="7"/>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A102" s="1"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -3792,7 +3968,7 @@
       <c r="V102" s="7"/>
       <c r="W102" s="7"/>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A103" s="1"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -3817,7 +3993,7 @@
       <c r="V103" s="7"/>
       <c r="W103" s="7"/>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A104" s="1"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -3842,7 +4018,7 @@
       <c r="V104" s="7"/>
       <c r="W104" s="7"/>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A105" s="1"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
@@ -3867,7 +4043,7 @@
       <c r="V105" s="7"/>
       <c r="W105" s="7"/>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
@@ -3892,7 +4068,7 @@
       <c r="V106" s="7"/>
       <c r="W106" s="7"/>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A107" s="1"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -3917,7 +4093,7 @@
       <c r="V107" s="7"/>
       <c r="W107" s="7"/>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A108" s="1"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -3942,7 +4118,7 @@
       <c r="V108" s="7"/>
       <c r="W108" s="7"/>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A109" s="1"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -3967,7 +4143,7 @@
       <c r="V109" s="7"/>
       <c r="W109" s="7"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A110" s="1"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -3992,7 +4168,7 @@
       <c r="V110" s="7"/>
       <c r="W110" s="7"/>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A111" s="1"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -4017,7 +4193,7 @@
       <c r="V111" s="7"/>
       <c r="W111" s="7"/>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A112" s="1"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -4042,7 +4218,7 @@
       <c r="V112" s="7"/>
       <c r="W112" s="7"/>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A113" s="1"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -4067,7 +4243,7 @@
       <c r="V113" s="7"/>
       <c r="W113" s="7"/>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A114" s="1"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -4092,7 +4268,7 @@
       <c r="V114" s="7"/>
       <c r="W114" s="7"/>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A115" s="1"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -4117,7 +4293,7 @@
       <c r="V115" s="7"/>
       <c r="W115" s="7"/>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A116" s="1"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -4142,7 +4318,7 @@
       <c r="V116" s="7"/>
       <c r="W116" s="7"/>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A117" s="1"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -4167,7 +4343,7 @@
       <c r="V117" s="7"/>
       <c r="W117" s="7"/>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A118" s="1"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -4192,7 +4368,7 @@
       <c r="V118" s="7"/>
       <c r="W118" s="7"/>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A119" s="1"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -4217,7 +4393,7 @@
       <c r="V119" s="7"/>
       <c r="W119" s="7"/>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A120" s="1"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -4242,7 +4418,7 @@
       <c r="V120" s="7"/>
       <c r="W120" s="7"/>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A121" s="1"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -4267,7 +4443,7 @@
       <c r="V121" s="7"/>
       <c r="W121" s="7"/>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A122" s="1"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -4292,7 +4468,7 @@
       <c r="V122" s="7"/>
       <c r="W122" s="7"/>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A123" s="1"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -4317,7 +4493,7 @@
       <c r="V123" s="7"/>
       <c r="W123" s="7"/>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A124" s="1"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -4342,7 +4518,7 @@
       <c r="V124" s="7"/>
       <c r="W124" s="7"/>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A125" s="1"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
@@ -4367,7 +4543,7 @@
       <c r="V125" s="7"/>
       <c r="W125" s="7"/>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A126" s="1"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
@@ -4392,7 +4568,7 @@
       <c r="V126" s="7"/>
       <c r="W126" s="7"/>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A127" s="1"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
@@ -4417,7 +4593,7 @@
       <c r="V127" s="7"/>
       <c r="W127" s="7"/>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A128" s="1"/>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
@@ -4442,7 +4618,7 @@
       <c r="V128" s="7"/>
       <c r="W128" s="7"/>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A129" s="1"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
@@ -4467,7 +4643,7 @@
       <c r="V129" s="7"/>
       <c r="W129" s="7"/>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A130" s="1"/>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
@@ -4492,7 +4668,7 @@
       <c r="V130" s="7"/>
       <c r="W130" s="7"/>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A131" s="1"/>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
@@ -4517,7 +4693,7 @@
       <c r="V131" s="7"/>
       <c r="W131" s="7"/>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A132" s="1"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
@@ -4542,7 +4718,7 @@
       <c r="V132" s="7"/>
       <c r="W132" s="7"/>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A133" s="1"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
@@ -4567,7 +4743,7 @@
       <c r="V133" s="7"/>
       <c r="W133" s="7"/>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A134" s="1"/>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
@@ -4592,7 +4768,7 @@
       <c r="V134" s="7"/>
       <c r="W134" s="7"/>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A135" s="1"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
@@ -4617,7 +4793,7 @@
       <c r="V135" s="7"/>
       <c r="W135" s="7"/>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A136" s="1"/>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
@@ -4642,7 +4818,7 @@
       <c r="V136" s="7"/>
       <c r="W136" s="7"/>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A137" s="1"/>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
@@ -4667,7 +4843,7 @@
       <c r="V137" s="7"/>
       <c r="W137" s="7"/>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A138" s="1"/>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
@@ -4692,7 +4868,7 @@
       <c r="V138" s="7"/>
       <c r="W138" s="7"/>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A139" s="1"/>
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
@@ -4717,7 +4893,7 @@
       <c r="V139" s="7"/>
       <c r="W139" s="7"/>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A140" s="1"/>
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
@@ -4742,7 +4918,7 @@
       <c r="V140" s="7"/>
       <c r="W140" s="7"/>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A141" s="1"/>
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
@@ -4767,7 +4943,7 @@
       <c r="V141" s="7"/>
       <c r="W141" s="7"/>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A142" s="1"/>
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
@@ -4792,7 +4968,7 @@
       <c r="V142" s="7"/>
       <c r="W142" s="7"/>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A143" s="1"/>
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
@@ -4817,7 +4993,7 @@
       <c r="V143" s="7"/>
       <c r="W143" s="7"/>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A144" s="1"/>
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
@@ -4842,7 +5018,7 @@
       <c r="V144" s="7"/>
       <c r="W144" s="7"/>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A145" s="1"/>
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
@@ -4867,7 +5043,7 @@
       <c r="V145" s="7"/>
       <c r="W145" s="7"/>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A146" s="1"/>
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
@@ -4892,7 +5068,7 @@
       <c r="V146" s="7"/>
       <c r="W146" s="7"/>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A147" s="1"/>
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
@@ -4917,7 +5093,7 @@
       <c r="V147" s="7"/>
       <c r="W147" s="7"/>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A148" s="1"/>
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
@@ -4942,7 +5118,7 @@
       <c r="V148" s="7"/>
       <c r="W148" s="7"/>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A149" s="1"/>
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
@@ -4967,7 +5143,7 @@
       <c r="V149" s="7"/>
       <c r="W149" s="7"/>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A150" s="1"/>
       <c r="B150" s="7"/>
       <c r="C150" s="7"/>
@@ -4992,7 +5168,7 @@
       <c r="V150" s="7"/>
       <c r="W150" s="7"/>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A151" s="1"/>
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
@@ -5017,7 +5193,7 @@
       <c r="V151" s="7"/>
       <c r="W151" s="7"/>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A152" s="1"/>
       <c r="B152" s="7"/>
       <c r="C152" s="7"/>
@@ -5042,7 +5218,7 @@
       <c r="V152" s="7"/>
       <c r="W152" s="7"/>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A153" s="1"/>
       <c r="B153" s="7"/>
       <c r="C153" s="7"/>
@@ -5067,7 +5243,7 @@
       <c r="V153" s="7"/>
       <c r="W153" s="7"/>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A154" s="1"/>
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
@@ -5092,7 +5268,7 @@
       <c r="V154" s="7"/>
       <c r="W154" s="7"/>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A155" s="1"/>
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
@@ -5117,7 +5293,7 @@
       <c r="V155" s="7"/>
       <c r="W155" s="7"/>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A156" s="1"/>
       <c r="B156" s="7"/>
       <c r="C156" s="7"/>
@@ -5142,7 +5318,7 @@
       <c r="V156" s="7"/>
       <c r="W156" s="7"/>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A157" s="1"/>
       <c r="B157" s="7"/>
       <c r="C157" s="7"/>
@@ -5167,7 +5343,7 @@
       <c r="V157" s="7"/>
       <c r="W157" s="7"/>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A158" s="1"/>
       <c r="B158" s="7"/>
       <c r="C158" s="7"/>
@@ -5192,7 +5368,7 @@
       <c r="V158" s="7"/>
       <c r="W158" s="7"/>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A159" s="1"/>
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
@@ -5217,7 +5393,7 @@
       <c r="V159" s="7"/>
       <c r="W159" s="7"/>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A160" s="1"/>
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
@@ -5242,7 +5418,7 @@
       <c r="V160" s="7"/>
       <c r="W160" s="7"/>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A161" s="1"/>
       <c r="B161" s="7"/>
       <c r="C161" s="7"/>
@@ -5267,7 +5443,7 @@
       <c r="V161" s="7"/>
       <c r="W161" s="7"/>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A162" s="1"/>
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
@@ -5292,7 +5468,7 @@
       <c r="V162" s="7"/>
       <c r="W162" s="7"/>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A163" s="1"/>
       <c r="B163" s="7"/>
       <c r="C163" s="7"/>
@@ -5317,7 +5493,7 @@
       <c r="V163" s="7"/>
       <c r="W163" s="7"/>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A164" s="1"/>
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
@@ -5342,7 +5518,7 @@
       <c r="V164" s="7"/>
       <c r="W164" s="7"/>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A165" s="1"/>
       <c r="B165" s="7"/>
       <c r="C165" s="7"/>
@@ -5367,7 +5543,7 @@
       <c r="V165" s="7"/>
       <c r="W165" s="7"/>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A166" s="1"/>
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
@@ -5392,7 +5568,7 @@
       <c r="V166" s="7"/>
       <c r="W166" s="7"/>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A167" s="1"/>
       <c r="B167" s="7"/>
       <c r="C167" s="7"/>
@@ -5417,7 +5593,7 @@
       <c r="V167" s="7"/>
       <c r="W167" s="7"/>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A168" s="1"/>
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
@@ -5442,7 +5618,7 @@
       <c r="V168" s="7"/>
       <c r="W168" s="7"/>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A169" s="1"/>
       <c r="B169" s="7"/>
       <c r="C169" s="7"/>
@@ -5467,7 +5643,7 @@
       <c r="V169" s="7"/>
       <c r="W169" s="7"/>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A170" s="1"/>
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
@@ -5492,7 +5668,7 @@
       <c r="V170" s="7"/>
       <c r="W170" s="7"/>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A171" s="1"/>
       <c r="B171" s="7"/>
       <c r="C171" s="7"/>
@@ -5517,7 +5693,7 @@
       <c r="V171" s="7"/>
       <c r="W171" s="7"/>
     </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A172" s="1"/>
       <c r="B172" s="7"/>
       <c r="C172" s="7"/>
@@ -5542,7 +5718,7 @@
       <c r="V172" s="7"/>
       <c r="W172" s="7"/>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A173" s="1"/>
       <c r="B173" s="7"/>
       <c r="C173" s="7"/>
@@ -5567,7 +5743,7 @@
       <c r="V173" s="7"/>
       <c r="W173" s="7"/>
     </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A174" s="1"/>
       <c r="B174" s="7"/>
       <c r="C174" s="7"/>
@@ -5592,7 +5768,7 @@
       <c r="V174" s="7"/>
       <c r="W174" s="7"/>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A175" s="1"/>
       <c r="B175" s="7"/>
       <c r="C175" s="7"/>
@@ -5617,7 +5793,7 @@
       <c r="V175" s="7"/>
       <c r="W175" s="7"/>
     </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A176" s="1"/>
       <c r="B176" s="7"/>
       <c r="C176" s="7"/>
@@ -5642,7 +5818,7 @@
       <c r="V176" s="7"/>
       <c r="W176" s="7"/>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A177" s="1"/>
       <c r="B177" s="7"/>
       <c r="C177" s="7"/>
@@ -5667,7 +5843,7 @@
       <c r="V177" s="7"/>
       <c r="W177" s="7"/>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A178" s="1"/>
       <c r="B178" s="7"/>
       <c r="C178" s="7"/>
@@ -5692,7 +5868,7 @@
       <c r="V178" s="7"/>
       <c r="W178" s="7"/>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A179" s="1"/>
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
@@ -5717,7 +5893,7 @@
       <c r="V179" s="7"/>
       <c r="W179" s="7"/>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A180" s="1"/>
       <c r="B180" s="7"/>
       <c r="C180" s="7"/>
@@ -5742,7 +5918,7 @@
       <c r="V180" s="7"/>
       <c r="W180" s="7"/>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A181" s="1"/>
       <c r="B181" s="7"/>
       <c r="C181" s="7"/>
@@ -5767,7 +5943,7 @@
       <c r="V181" s="7"/>
       <c r="W181" s="7"/>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A182" s="1"/>
       <c r="B182" s="7"/>
       <c r="C182" s="7"/>
@@ -5792,7 +5968,7 @@
       <c r="V182" s="7"/>
       <c r="W182" s="7"/>
     </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A183" s="1"/>
       <c r="B183" s="7"/>
       <c r="C183" s="7"/>
@@ -5817,7 +5993,7 @@
       <c r="V183" s="7"/>
       <c r="W183" s="7"/>
     </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A184" s="1"/>
       <c r="B184" s="7"/>
       <c r="C184" s="7"/>
@@ -5842,7 +6018,7 @@
       <c r="V184" s="7"/>
       <c r="W184" s="7"/>
     </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A185" s="1"/>
       <c r="B185" s="7"/>
       <c r="C185" s="7"/>
@@ -5867,7 +6043,7 @@
       <c r="V185" s="7"/>
       <c r="W185" s="7"/>
     </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A186" s="1"/>
       <c r="B186" s="7"/>
       <c r="C186" s="7"/>
@@ -5892,7 +6068,7 @@
       <c r="V186" s="7"/>
       <c r="W186" s="7"/>
     </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A187" s="1"/>
       <c r="B187" s="7"/>
       <c r="C187" s="7"/>
@@ -5917,7 +6093,7 @@
       <c r="V187" s="7"/>
       <c r="W187" s="7"/>
     </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A188" s="1"/>
       <c r="B188" s="7"/>
       <c r="C188" s="7"/>
@@ -5942,7 +6118,7 @@
       <c r="V188" s="7"/>
       <c r="W188" s="7"/>
     </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A189" s="1"/>
       <c r="B189" s="7"/>
       <c r="C189" s="7"/>
@@ -5967,7 +6143,7 @@
       <c r="V189" s="7"/>
       <c r="W189" s="7"/>
     </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A190" s="1"/>
       <c r="B190" s="7"/>
       <c r="C190" s="7"/>
@@ -5992,7 +6168,7 @@
       <c r="V190" s="7"/>
       <c r="W190" s="7"/>
     </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A191" s="1"/>
       <c r="B191" s="7"/>
       <c r="C191" s="7"/>
@@ -6017,7 +6193,7 @@
       <c r="V191" s="7"/>
       <c r="W191" s="7"/>
     </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A192" s="1"/>
       <c r="B192" s="7"/>
       <c r="C192" s="7"/>
@@ -6042,7 +6218,7 @@
       <c r="V192" s="7"/>
       <c r="W192" s="7"/>
     </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A193" s="1"/>
       <c r="B193" s="7"/>
       <c r="C193" s="7"/>
@@ -6067,7 +6243,7 @@
       <c r="V193" s="7"/>
       <c r="W193" s="7"/>
     </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A194" s="1"/>
       <c r="B194" s="7"/>
       <c r="C194" s="7"/>
@@ -6092,7 +6268,7 @@
       <c r="V194" s="7"/>
       <c r="W194" s="7"/>
     </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A195" s="1"/>
       <c r="B195" s="7"/>
       <c r="C195" s="7"/>
@@ -6117,7 +6293,7 @@
       <c r="V195" s="7"/>
       <c r="W195" s="7"/>
     </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A196" s="1"/>
       <c r="B196" s="7"/>
       <c r="C196" s="7"/>
@@ -6142,7 +6318,7 @@
       <c r="V196" s="7"/>
       <c r="W196" s="7"/>
     </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A197" s="1"/>
       <c r="B197" s="7"/>
       <c r="C197" s="7"/>
@@ -6167,7 +6343,7 @@
       <c r="V197" s="7"/>
       <c r="W197" s="7"/>
     </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A198" s="1"/>
       <c r="B198" s="7"/>
       <c r="C198" s="7"/>
@@ -6192,7 +6368,7 @@
       <c r="V198" s="7"/>
       <c r="W198" s="7"/>
     </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A199" s="1"/>
       <c r="B199" s="7"/>
       <c r="C199" s="7"/>
@@ -6217,7 +6393,7 @@
       <c r="V199" s="7"/>
       <c r="W199" s="7"/>
     </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A200" s="1"/>
       <c r="B200" s="7"/>
       <c r="C200" s="7"/>
@@ -6242,7 +6418,7 @@
       <c r="V200" s="7"/>
       <c r="W200" s="7"/>
     </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A201" s="1"/>
       <c r="B201" s="7"/>
       <c r="C201" s="7"/>
@@ -6267,7 +6443,7 @@
       <c r="V201" s="7"/>
       <c r="W201" s="7"/>
     </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A202" s="1"/>
       <c r="B202" s="7"/>
       <c r="C202" s="7"/>
@@ -6292,7 +6468,7 @@
       <c r="V202" s="7"/>
       <c r="W202" s="7"/>
     </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A203" s="1"/>
       <c r="B203" s="7"/>
       <c r="C203" s="7"/>
@@ -6317,7 +6493,7 @@
       <c r="V203" s="7"/>
       <c r="W203" s="7"/>
     </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A204" s="1"/>
       <c r="B204" s="7"/>
       <c r="C204" s="7"/>
@@ -6342,7 +6518,7 @@
       <c r="V204" s="7"/>
       <c r="W204" s="7"/>
     </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A205" s="1"/>
       <c r="B205" s="7"/>
       <c r="C205" s="7"/>
@@ -6367,7 +6543,7 @@
       <c r="V205" s="7"/>
       <c r="W205" s="7"/>
     </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A206" s="1"/>
       <c r="B206" s="7"/>
       <c r="C206" s="7"/>
@@ -6392,7 +6568,7 @@
       <c r="V206" s="7"/>
       <c r="W206" s="7"/>
     </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A207" s="1"/>
       <c r="B207" s="7"/>
       <c r="C207" s="7"/>
@@ -6417,7 +6593,7 @@
       <c r="V207" s="7"/>
       <c r="W207" s="7"/>
     </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A208" s="1"/>
       <c r="B208" s="7"/>
       <c r="C208" s="7"/>
@@ -6442,7 +6618,7 @@
       <c r="V208" s="7"/>
       <c r="W208" s="7"/>
     </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A209" s="1"/>
       <c r="B209" s="7"/>
       <c r="C209" s="7"/>
@@ -6467,7 +6643,7 @@
       <c r="V209" s="7"/>
       <c r="W209" s="7"/>
     </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A210" s="1"/>
       <c r="B210" s="7"/>
       <c r="C210" s="7"/>
@@ -6492,7 +6668,7 @@
       <c r="V210" s="7"/>
       <c r="W210" s="7"/>
     </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A211" s="1"/>
       <c r="B211" s="7"/>
       <c r="C211" s="7"/>
@@ -6517,7 +6693,7 @@
       <c r="V211" s="7"/>
       <c r="W211" s="7"/>
     </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A212" s="1"/>
       <c r="B212" s="7"/>
       <c r="C212" s="7"/>
@@ -6542,7 +6718,7 @@
       <c r="V212" s="7"/>
       <c r="W212" s="7"/>
     </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A213" s="1"/>
       <c r="B213" s="7"/>
       <c r="C213" s="7"/>
@@ -6567,7 +6743,7 @@
       <c r="V213" s="7"/>
       <c r="W213" s="7"/>
     </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A214" s="1"/>
       <c r="B214" s="7"/>
       <c r="C214" s="7"/>
@@ -6592,7 +6768,7 @@
       <c r="V214" s="7"/>
       <c r="W214" s="7"/>
     </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A215" s="1"/>
       <c r="B215" s="7"/>
       <c r="C215" s="7"/>
@@ -6617,7 +6793,7 @@
       <c r="V215" s="7"/>
       <c r="W215" s="7"/>
     </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A216" s="1"/>
       <c r="B216" s="7"/>
       <c r="C216" s="7"/>
@@ -6642,7 +6818,7 @@
       <c r="V216" s="7"/>
       <c r="W216" s="7"/>
     </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A217" s="1"/>
       <c r="B217" s="7"/>
       <c r="C217" s="7"/>
@@ -6667,7 +6843,7 @@
       <c r="V217" s="7"/>
       <c r="W217" s="7"/>
     </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A218" s="1"/>
       <c r="B218" s="7"/>
       <c r="C218" s="7"/>
@@ -6692,7 +6868,7 @@
       <c r="V218" s="7"/>
       <c r="W218" s="7"/>
     </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A219" s="1"/>
       <c r="B219" s="7"/>
       <c r="C219" s="7"/>
@@ -6717,7 +6893,7 @@
       <c r="V219" s="7"/>
       <c r="W219" s="7"/>
     </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A220" s="1"/>
       <c r="B220" s="7"/>
       <c r="C220" s="7"/>
@@ -6742,7 +6918,7 @@
       <c r="V220" s="7"/>
       <c r="W220" s="7"/>
     </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A221" s="1"/>
       <c r="B221" s="7"/>
       <c r="C221" s="7"/>
@@ -6767,7 +6943,7 @@
       <c r="V221" s="7"/>
       <c r="W221" s="7"/>
     </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A222" s="1"/>
       <c r="B222" s="7"/>
       <c r="C222" s="7"/>
@@ -6792,7 +6968,7 @@
       <c r="V222" s="7"/>
       <c r="W222" s="7"/>
     </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A223" s="1"/>
       <c r="B223" s="7"/>
       <c r="C223" s="7"/>
@@ -6817,7 +6993,7 @@
       <c r="V223" s="7"/>
       <c r="W223" s="7"/>
     </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A224" s="1"/>
       <c r="B224" s="7"/>
       <c r="C224" s="7"/>
@@ -6842,7 +7018,7 @@
       <c r="V224" s="7"/>
       <c r="W224" s="7"/>
     </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A225" s="1"/>
       <c r="B225" s="7"/>
       <c r="C225" s="7"/>
@@ -6867,7 +7043,7 @@
       <c r="V225" s="7"/>
       <c r="W225" s="7"/>
     </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A226" s="1"/>
       <c r="B226" s="7"/>
       <c r="C226" s="7"/>
@@ -6892,7 +7068,7 @@
       <c r="V226" s="7"/>
       <c r="W226" s="7"/>
     </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A227" s="1"/>
       <c r="B227" s="7"/>
       <c r="C227" s="7"/>
@@ -6917,7 +7093,7 @@
       <c r="V227" s="7"/>
       <c r="W227" s="7"/>
     </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A228" s="1"/>
       <c r="B228" s="7"/>
       <c r="C228" s="7"/>
@@ -6942,7 +7118,7 @@
       <c r="V228" s="7"/>
       <c r="W228" s="7"/>
     </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A229" s="1"/>
       <c r="B229" s="7"/>
       <c r="C229" s="7"/>
@@ -6967,7 +7143,7 @@
       <c r="V229" s="7"/>
       <c r="W229" s="7"/>
     </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A230" s="1"/>
       <c r="B230" s="7"/>
       <c r="C230" s="7"/>
@@ -6992,7 +7168,7 @@
       <c r="V230" s="7"/>
       <c r="W230" s="7"/>
     </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A231" s="1"/>
       <c r="B231" s="7"/>
       <c r="C231" s="7"/>
@@ -7017,7 +7193,7 @@
       <c r="V231" s="7"/>
       <c r="W231" s="7"/>
     </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A232" s="1"/>
       <c r="B232" s="7"/>
       <c r="C232" s="7"/>
@@ -7042,7 +7218,7 @@
       <c r="V232" s="7"/>
       <c r="W232" s="7"/>
     </row>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A233" s="1"/>
       <c r="B233" s="7"/>
       <c r="C233" s="7"/>
@@ -7067,7 +7243,7 @@
       <c r="V233" s="7"/>
       <c r="W233" s="7"/>
     </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A234" s="1"/>
       <c r="B234" s="7"/>
       <c r="C234" s="7"/>
@@ -7092,7 +7268,7 @@
       <c r="V234" s="7"/>
       <c r="W234" s="7"/>
     </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A235" s="1"/>
       <c r="B235" s="7"/>
       <c r="C235" s="7"/>
@@ -7117,7 +7293,7 @@
       <c r="V235" s="7"/>
       <c r="W235" s="7"/>
     </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A236" s="1"/>
       <c r="B236" s="7"/>
       <c r="C236" s="7"/>
@@ -7142,7 +7318,7 @@
       <c r="V236" s="7"/>
       <c r="W236" s="7"/>
     </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A237" s="1"/>
       <c r="B237" s="7"/>
       <c r="C237" s="7"/>
@@ -7167,7 +7343,7 @@
       <c r="V237" s="7"/>
       <c r="W237" s="7"/>
     </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A238" s="1"/>
       <c r="B238" s="7"/>
       <c r="C238" s="7"/>
@@ -7192,7 +7368,7 @@
       <c r="V238" s="7"/>
       <c r="W238" s="7"/>
     </row>
-    <row r="239" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A239" s="1"/>
       <c r="B239" s="7"/>
       <c r="C239" s="7"/>
@@ -7217,7 +7393,7 @@
       <c r="V239" s="7"/>
       <c r="W239" s="7"/>
     </row>
-    <row r="240" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A240" s="1"/>
       <c r="B240" s="7"/>
       <c r="C240" s="7"/>
@@ -7242,7 +7418,7 @@
       <c r="V240" s="7"/>
       <c r="W240" s="7"/>
     </row>
-    <row r="241" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A241" s="1"/>
       <c r="B241" s="7"/>
       <c r="C241" s="7"/>
@@ -7267,7 +7443,7 @@
       <c r="V241" s="7"/>
       <c r="W241" s="7"/>
     </row>
-    <row r="242" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A242" s="1"/>
       <c r="B242" s="7"/>
       <c r="C242" s="7"/>
@@ -7292,7 +7468,7 @@
       <c r="V242" s="7"/>
       <c r="W242" s="7"/>
     </row>
-    <row r="243" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A243" s="1"/>
       <c r="B243" s="7"/>
       <c r="C243" s="7"/>
@@ -7317,7 +7493,7 @@
       <c r="V243" s="7"/>
       <c r="W243" s="7"/>
     </row>
-    <row r="244" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A244" s="1"/>
       <c r="B244" s="7"/>
       <c r="C244" s="7"/>
@@ -7342,7 +7518,7 @@
       <c r="V244" s="7"/>
       <c r="W244" s="7"/>
     </row>
-    <row r="245" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A245" s="1"/>
       <c r="B245" s="7"/>
       <c r="C245" s="7"/>
@@ -7367,7 +7543,7 @@
       <c r="V245" s="7"/>
       <c r="W245" s="7"/>
     </row>
-    <row r="246" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A246" s="1"/>
       <c r="B246" s="7"/>
       <c r="C246" s="7"/>
@@ -7392,7 +7568,7 @@
       <c r="V246" s="7"/>
       <c r="W246" s="7"/>
     </row>
-    <row r="247" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A247" s="1"/>
       <c r="B247" s="7"/>
       <c r="C247" s="7"/>
@@ -7417,7 +7593,7 @@
       <c r="V247" s="7"/>
       <c r="W247" s="7"/>
     </row>
-    <row r="248" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A248" s="1"/>
       <c r="B248" s="7"/>
       <c r="C248" s="7"/>
@@ -7442,7 +7618,7 @@
       <c r="V248" s="7"/>
       <c r="W248" s="7"/>
     </row>
-    <row r="249" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A249" s="1"/>
       <c r="B249" s="7"/>
       <c r="C249" s="7"/>
@@ -7467,7 +7643,7 @@
       <c r="V249" s="7"/>
       <c r="W249" s="7"/>
     </row>
-    <row r="250" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A250" s="1"/>
       <c r="B250" s="7"/>
       <c r="C250" s="7"/>
@@ -7492,7 +7668,7 @@
       <c r="V250" s="7"/>
       <c r="W250" s="7"/>
     </row>
-    <row r="251" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A251" s="1"/>
       <c r="B251" s="7"/>
       <c r="C251" s="7"/>
@@ -7517,7 +7693,7 @@
       <c r="V251" s="7"/>
       <c r="W251" s="7"/>
     </row>
-    <row r="252" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A252" s="1"/>
       <c r="B252" s="7"/>
       <c r="C252" s="7"/>
@@ -7542,7 +7718,7 @@
       <c r="V252" s="7"/>
       <c r="W252" s="7"/>
     </row>
-    <row r="253" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A253" s="1"/>
       <c r="B253" s="7"/>
       <c r="C253" s="7"/>
@@ -7567,7 +7743,7 @@
       <c r="V253" s="7"/>
       <c r="W253" s="7"/>
     </row>
-    <row r="254" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A254" s="1"/>
       <c r="B254" s="7"/>
       <c r="C254" s="7"/>
@@ -7592,7 +7768,7 @@
       <c r="V254" s="7"/>
       <c r="W254" s="7"/>
     </row>
-    <row r="255" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A255" s="1"/>
       <c r="B255" s="7"/>
       <c r="C255" s="7"/>
@@ -7617,7 +7793,7 @@
       <c r="V255" s="7"/>
       <c r="W255" s="7"/>
     </row>
-    <row r="256" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A256" s="1"/>
       <c r="B256" s="7"/>
       <c r="C256" s="7"/>
@@ -7642,7 +7818,7 @@
       <c r="V256" s="7"/>
       <c r="W256" s="7"/>
     </row>
-    <row r="257" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A257" s="1"/>
       <c r="B257" s="7"/>
       <c r="C257" s="7"/>
@@ -7667,7 +7843,7 @@
       <c r="V257" s="7"/>
       <c r="W257" s="7"/>
     </row>
-    <row r="258" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A258" s="1"/>
       <c r="B258" s="7"/>
       <c r="C258" s="7"/>
@@ -7692,7 +7868,7 @@
       <c r="V258" s="7"/>
       <c r="W258" s="7"/>
     </row>
-    <row r="259" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A259" s="1"/>
       <c r="B259" s="7"/>
       <c r="C259" s="7"/>
@@ -7717,7 +7893,7 @@
       <c r="V259" s="7"/>
       <c r="W259" s="7"/>
     </row>
-    <row r="260" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A260" s="1"/>
       <c r="B260" s="7"/>
       <c r="C260" s="7"/>
@@ -7742,7 +7918,7 @@
       <c r="V260" s="7"/>
       <c r="W260" s="7"/>
     </row>
-    <row r="261" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A261" s="1"/>
       <c r="B261" s="7"/>
       <c r="C261" s="7"/>
@@ -7767,7 +7943,7 @@
       <c r="V261" s="7"/>
       <c r="W261" s="7"/>
     </row>
-    <row r="262" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A262" s="1"/>
       <c r="B262" s="7"/>
       <c r="C262" s="7"/>
@@ -7792,7 +7968,7 @@
       <c r="V262" s="7"/>
       <c r="W262" s="7"/>
     </row>
-    <row r="263" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A263" s="1"/>
       <c r="B263" s="7"/>
       <c r="C263" s="7"/>
@@ -7817,7 +7993,7 @@
       <c r="V263" s="7"/>
       <c r="W263" s="7"/>
     </row>
-    <row r="264" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A264" s="1"/>
       <c r="B264" s="7"/>
       <c r="C264" s="7"/>
@@ -7842,7 +8018,7 @@
       <c r="V264" s="7"/>
       <c r="W264" s="7"/>
     </row>
-    <row r="265" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A265" s="1"/>
       <c r="B265" s="7"/>
       <c r="C265" s="7"/>
@@ -7867,7 +8043,7 @@
       <c r="V265" s="7"/>
       <c r="W265" s="7"/>
     </row>
-    <row r="266" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A266" s="1"/>
       <c r="B266" s="7"/>
       <c r="C266" s="7"/>
@@ -7892,7 +8068,7 @@
       <c r="V266" s="7"/>
       <c r="W266" s="7"/>
     </row>
-    <row r="267" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A267" s="1"/>
       <c r="B267" s="7"/>
       <c r="C267" s="7"/>
@@ -7917,7 +8093,7 @@
       <c r="V267" s="7"/>
       <c r="W267" s="7"/>
     </row>
-    <row r="268" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A268" s="1"/>
       <c r="B268" s="7"/>
       <c r="C268" s="7"/>
@@ -7942,7 +8118,7 @@
       <c r="V268" s="7"/>
       <c r="W268" s="7"/>
     </row>
-    <row r="269" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A269" s="1"/>
       <c r="B269" s="7"/>
       <c r="C269" s="7"/>
@@ -7967,7 +8143,7 @@
       <c r="V269" s="7"/>
       <c r="W269" s="7"/>
     </row>
-    <row r="270" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A270" s="1"/>
       <c r="B270" s="7"/>
       <c r="C270" s="7"/>
@@ -7992,7 +8168,7 @@
       <c r="V270" s="7"/>
       <c r="W270" s="7"/>
     </row>
-    <row r="271" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A271" s="1"/>
       <c r="B271" s="7"/>
       <c r="C271" s="7"/>
@@ -8017,7 +8193,7 @@
       <c r="V271" s="7"/>
       <c r="W271" s="7"/>
     </row>
-    <row r="272" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A272" s="1"/>
       <c r="B272" s="7"/>
       <c r="C272" s="7"/>
@@ -8042,7 +8218,7 @@
       <c r="V272" s="7"/>
       <c r="W272" s="7"/>
     </row>
-    <row r="273" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A273" s="1"/>
       <c r="B273" s="7"/>
       <c r="C273" s="7"/>
@@ -8067,7 +8243,7 @@
       <c r="V273" s="7"/>
       <c r="W273" s="7"/>
     </row>
-    <row r="274" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A274" s="1"/>
       <c r="B274" s="7"/>
       <c r="C274" s="7"/>
@@ -8092,7 +8268,7 @@
       <c r="V274" s="7"/>
       <c r="W274" s="7"/>
     </row>
-    <row r="275" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A275" s="1"/>
       <c r="B275" s="7"/>
       <c r="C275" s="7"/>
@@ -8117,7 +8293,7 @@
       <c r="V275" s="7"/>
       <c r="W275" s="7"/>
     </row>
-    <row r="276" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A276" s="1"/>
       <c r="B276" s="7"/>
       <c r="C276" s="7"/>
@@ -8142,7 +8318,7 @@
       <c r="V276" s="7"/>
       <c r="W276" s="7"/>
     </row>
-    <row r="277" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A277" s="1"/>
       <c r="B277" s="7"/>
       <c r="C277" s="7"/>
@@ -8167,7 +8343,7 @@
       <c r="V277" s="7"/>
       <c r="W277" s="7"/>
     </row>
-    <row r="278" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A278" s="1"/>
       <c r="B278" s="7"/>
       <c r="C278" s="7"/>
@@ -8192,7 +8368,7 @@
       <c r="V278" s="7"/>
       <c r="W278" s="7"/>
     </row>
-    <row r="279" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A279" s="1"/>
       <c r="B279" s="7"/>
       <c r="C279" s="7"/>
@@ -8217,7 +8393,7 @@
       <c r="V279" s="7"/>
       <c r="W279" s="7"/>
     </row>
-    <row r="280" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A280" s="1"/>
       <c r="B280" s="7"/>
       <c r="C280" s="7"/>
@@ -8242,7 +8418,7 @@
       <c r="V280" s="7"/>
       <c r="W280" s="7"/>
     </row>
-    <row r="281" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A281" s="1"/>
       <c r="B281" s="7"/>
       <c r="C281" s="7"/>
@@ -8267,7 +8443,7 @@
       <c r="V281" s="7"/>
       <c r="W281" s="7"/>
     </row>
-    <row r="282" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A282" s="1"/>
       <c r="B282" s="7"/>
       <c r="C282" s="7"/>
@@ -8292,7 +8468,7 @@
       <c r="V282" s="7"/>
       <c r="W282" s="7"/>
     </row>
-    <row r="283" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A283" s="1"/>
       <c r="B283" s="7"/>
       <c r="C283" s="7"/>
@@ -8317,7 +8493,7 @@
       <c r="V283" s="7"/>
       <c r="W283" s="7"/>
     </row>
-    <row r="284" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A284" s="1"/>
       <c r="B284" s="7"/>
       <c r="C284" s="7"/>
@@ -8342,7 +8518,7 @@
       <c r="V284" s="7"/>
       <c r="W284" s="7"/>
     </row>
-    <row r="285" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A285" s="1"/>
       <c r="B285" s="7"/>
       <c r="C285" s="7"/>
@@ -8367,7 +8543,7 @@
       <c r="V285" s="7"/>
       <c r="W285" s="7"/>
     </row>
-    <row r="286" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A286" s="1"/>
       <c r="B286" s="7"/>
       <c r="C286" s="7"/>
@@ -8392,7 +8568,7 @@
       <c r="V286" s="7"/>
       <c r="W286" s="7"/>
     </row>
-    <row r="287" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A287" s="1"/>
       <c r="B287" s="7"/>
       <c r="C287" s="7"/>
@@ -8417,7 +8593,7 @@
       <c r="V287" s="7"/>
       <c r="W287" s="7"/>
     </row>
-    <row r="288" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A288" s="1"/>
       <c r="B288" s="7"/>
       <c r="C288" s="7"/>
@@ -8442,7 +8618,7 @@
       <c r="V288" s="7"/>
       <c r="W288" s="7"/>
     </row>
-    <row r="289" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A289" s="1"/>
       <c r="B289" s="7"/>
       <c r="C289" s="7"/>
@@ -8467,7 +8643,7 @@
       <c r="V289" s="7"/>
       <c r="W289" s="7"/>
     </row>
-    <row r="290" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A290" s="1"/>
       <c r="B290" s="7"/>
       <c r="C290" s="7"/>
@@ -8492,7 +8668,7 @@
       <c r="V290" s="7"/>
       <c r="W290" s="7"/>
     </row>
-    <row r="291" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A291" s="1"/>
       <c r="B291" s="7"/>
       <c r="C291" s="7"/>
@@ -8517,7 +8693,7 @@
       <c r="V291" s="7"/>
       <c r="W291" s="7"/>
     </row>
-    <row r="292" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A292" s="1"/>
       <c r="B292" s="7"/>
       <c r="C292" s="7"/>
@@ -8542,7 +8718,7 @@
       <c r="V292" s="7"/>
       <c r="W292" s="7"/>
     </row>
-    <row r="293" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A293" s="1"/>
       <c r="B293" s="7"/>
       <c r="C293" s="7"/>
@@ -8567,7 +8743,7 @@
       <c r="V293" s="7"/>
       <c r="W293" s="7"/>
     </row>
-    <row r="294" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A294" s="1"/>
       <c r="B294" s="7"/>
       <c r="C294" s="7"/>
@@ -8592,7 +8768,7 @@
       <c r="V294" s="7"/>
       <c r="W294" s="7"/>
     </row>
-    <row r="295" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A295" s="1"/>
       <c r="B295" s="7"/>
       <c r="C295" s="7"/>
@@ -8617,7 +8793,7 @@
       <c r="V295" s="7"/>
       <c r="W295" s="7"/>
     </row>
-    <row r="296" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A296" s="1"/>
       <c r="B296" s="7"/>
       <c r="C296" s="7"/>
@@ -8642,7 +8818,7 @@
       <c r="V296" s="7"/>
       <c r="W296" s="7"/>
     </row>
-    <row r="297" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A297" s="1"/>
       <c r="B297" s="7"/>
       <c r="C297" s="7"/>
@@ -8667,7 +8843,7 @@
       <c r="V297" s="7"/>
       <c r="W297" s="7"/>
     </row>
-    <row r="298" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A298" s="1"/>
       <c r="B298" s="7"/>
       <c r="C298" s="7"/>
@@ -8692,7 +8868,7 @@
       <c r="V298" s="7"/>
       <c r="W298" s="7"/>
     </row>
-    <row r="299" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A299" s="1"/>
       <c r="B299" s="7"/>
       <c r="C299" s="7"/>
@@ -8717,7 +8893,7 @@
       <c r="V299" s="7"/>
       <c r="W299" s="7"/>
     </row>
-    <row r="300" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A300" s="1"/>
       <c r="B300" s="7"/>
       <c r="C300" s="7"/>
@@ -8742,7 +8918,7 @@
       <c r="V300" s="7"/>
       <c r="W300" s="7"/>
     </row>
-    <row r="301" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A301" s="1"/>
       <c r="B301" s="7"/>
       <c r="C301" s="7"/>
@@ -8767,7 +8943,7 @@
       <c r="V301" s="7"/>
       <c r="W301" s="7"/>
     </row>
-    <row r="302" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A302" s="1"/>
       <c r="B302" s="7"/>
       <c r="C302" s="7"/>
@@ -8792,7 +8968,7 @@
       <c r="V302" s="7"/>
       <c r="W302" s="7"/>
     </row>
-    <row r="303" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A303" s="1"/>
       <c r="B303" s="7"/>
       <c r="C303" s="7"/>
@@ -8817,7 +8993,7 @@
       <c r="V303" s="7"/>
       <c r="W303" s="7"/>
     </row>
-    <row r="304" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A304" s="1"/>
       <c r="B304" s="7"/>
       <c r="C304" s="7"/>
@@ -8842,7 +9018,7 @@
       <c r="V304" s="7"/>
       <c r="W304" s="7"/>
     </row>
-    <row r="305" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A305" s="1"/>
       <c r="B305" s="7"/>
       <c r="C305" s="7"/>
@@ -8867,7 +9043,7 @@
       <c r="V305" s="7"/>
       <c r="W305" s="7"/>
     </row>
-    <row r="306" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A306" s="1"/>
       <c r="B306" s="7"/>
       <c r="C306" s="7"/>
@@ -8892,7 +9068,7 @@
       <c r="V306" s="7"/>
       <c r="W306" s="7"/>
     </row>
-    <row r="307" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A307" s="1"/>
       <c r="B307" s="7"/>
       <c r="C307" s="7"/>
@@ -8917,7 +9093,7 @@
       <c r="V307" s="7"/>
       <c r="W307" s="7"/>
     </row>
-    <row r="308" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A308" s="1"/>
       <c r="B308" s="7"/>
       <c r="C308" s="7"/>
@@ -8942,7 +9118,7 @@
       <c r="V308" s="7"/>
       <c r="W308" s="7"/>
     </row>
-    <row r="309" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A309" s="1"/>
       <c r="B309" s="7"/>
       <c r="C309" s="7"/>
@@ -8967,7 +9143,7 @@
       <c r="V309" s="7"/>
       <c r="W309" s="7"/>
     </row>
-    <row r="310" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A310" s="1"/>
       <c r="B310" s="7"/>
       <c r="C310" s="7"/>
@@ -8992,7 +9168,7 @@
       <c r="V310" s="7"/>
       <c r="W310" s="7"/>
     </row>
-    <row r="311" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A311" s="1"/>
       <c r="B311" s="7"/>
       <c r="C311" s="7"/>
@@ -9017,7 +9193,7 @@
       <c r="V311" s="7"/>
       <c r="W311" s="7"/>
     </row>
-    <row r="312" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A312" s="1"/>
       <c r="B312" s="7"/>
       <c r="C312" s="7"/>
@@ -9042,7 +9218,7 @@
       <c r="V312" s="7"/>
       <c r="W312" s="7"/>
     </row>
-    <row r="313" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A313" s="1"/>
       <c r="B313" s="7"/>
       <c r="C313" s="7"/>
@@ -9067,7 +9243,7 @@
       <c r="V313" s="7"/>
       <c r="W313" s="7"/>
     </row>
-    <row r="314" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A314" s="1"/>
       <c r="B314" s="7"/>
       <c r="C314" s="7"/>
@@ -9092,7 +9268,7 @@
       <c r="V314" s="7"/>
       <c r="W314" s="7"/>
     </row>
-    <row r="315" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A315" s="1"/>
       <c r="B315" s="7"/>
       <c r="C315" s="7"/>
@@ -9117,7 +9293,7 @@
       <c r="V315" s="7"/>
       <c r="W315" s="7"/>
     </row>
-    <row r="316" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A316" s="1"/>
       <c r="B316" s="7"/>
       <c r="C316" s="7"/>
@@ -9142,7 +9318,7 @@
       <c r="V316" s="7"/>
       <c r="W316" s="7"/>
     </row>
-    <row r="317" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A317" s="1"/>
       <c r="B317" s="7"/>
       <c r="C317" s="7"/>
@@ -9167,7 +9343,7 @@
       <c r="V317" s="7"/>
       <c r="W317" s="7"/>
     </row>
-    <row r="318" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A318" s="1"/>
       <c r="B318" s="7"/>
       <c r="C318" s="7"/>
@@ -9192,7 +9368,7 @@
       <c r="V318" s="7"/>
       <c r="W318" s="7"/>
     </row>
-    <row r="319" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A319" s="1"/>
       <c r="B319" s="7"/>
       <c r="C319" s="7"/>
@@ -9217,7 +9393,7 @@
       <c r="V319" s="7"/>
       <c r="W319" s="7"/>
     </row>
-    <row r="320" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A320" s="1"/>
       <c r="B320" s="7"/>
       <c r="C320" s="7"/>
@@ -9242,7 +9418,7 @@
       <c r="V320" s="7"/>
       <c r="W320" s="7"/>
     </row>
-    <row r="321" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A321" s="1"/>
       <c r="B321" s="7"/>
       <c r="C321" s="7"/>
@@ -9267,7 +9443,7 @@
       <c r="V321" s="7"/>
       <c r="W321" s="7"/>
     </row>
-    <row r="322" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A322" s="1"/>
       <c r="B322" s="7"/>
       <c r="C322" s="7"/>
@@ -9292,7 +9468,7 @@
       <c r="V322" s="7"/>
       <c r="W322" s="7"/>
     </row>
-    <row r="323" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A323" s="1"/>
       <c r="B323" s="7"/>
       <c r="C323" s="7"/>
@@ -9317,7 +9493,7 @@
       <c r="V323" s="7"/>
       <c r="W323" s="7"/>
     </row>
-    <row r="324" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A324" s="1"/>
       <c r="B324" s="7"/>
       <c r="C324" s="7"/>
@@ -9342,7 +9518,7 @@
       <c r="V324" s="7"/>
       <c r="W324" s="7"/>
     </row>
-    <row r="325" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A325" s="1"/>
       <c r="B325" s="7"/>
       <c r="C325" s="7"/>
@@ -9367,7 +9543,7 @@
       <c r="V325" s="7"/>
       <c r="W325" s="7"/>
     </row>
-    <row r="326" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A326" s="1"/>
       <c r="B326" s="7"/>
       <c r="C326" s="7"/>
@@ -9392,7 +9568,7 @@
       <c r="V326" s="7"/>
       <c r="W326" s="7"/>
     </row>
-    <row r="327" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A327" s="1"/>
       <c r="B327" s="7"/>
       <c r="C327" s="7"/>
@@ -9417,7 +9593,7 @@
       <c r="V327" s="7"/>
       <c r="W327" s="7"/>
     </row>
-    <row r="328" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A328" s="1"/>
       <c r="B328" s="7"/>
       <c r="C328" s="7"/>
@@ -9442,7 +9618,7 @@
       <c r="V328" s="7"/>
       <c r="W328" s="7"/>
     </row>
-    <row r="329" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A329" s="1"/>
       <c r="B329" s="7"/>
       <c r="C329" s="7"/>
@@ -9467,7 +9643,7 @@
       <c r="V329" s="7"/>
       <c r="W329" s="7"/>
     </row>
-    <row r="330" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A330" s="1"/>
       <c r="B330" s="7"/>
       <c r="C330" s="7"/>
@@ -9492,7 +9668,7 @@
       <c r="V330" s="7"/>
       <c r="W330" s="7"/>
     </row>
-    <row r="331" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A331" s="1"/>
       <c r="B331" s="7"/>
       <c r="C331" s="7"/>
@@ -9517,7 +9693,7 @@
       <c r="V331" s="7"/>
       <c r="W331" s="7"/>
     </row>
-    <row r="332" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A332" s="1"/>
       <c r="B332" s="7"/>
       <c r="C332" s="7"/>
@@ -9542,7 +9718,7 @@
       <c r="V332" s="7"/>
       <c r="W332" s="7"/>
     </row>
-    <row r="333" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A333" s="1"/>
       <c r="B333" s="7"/>
       <c r="C333" s="7"/>
@@ -9567,7 +9743,7 @@
       <c r="V333" s="7"/>
       <c r="W333" s="7"/>
     </row>
-    <row r="334" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A334" s="1"/>
       <c r="B334" s="7"/>
       <c r="C334" s="7"/>
@@ -9592,7 +9768,7 @@
       <c r="V334" s="7"/>
       <c r="W334" s="7"/>
     </row>
-    <row r="335" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A335" s="1"/>
       <c r="B335" s="7"/>
       <c r="C335" s="7"/>
@@ -9617,7 +9793,7 @@
       <c r="V335" s="7"/>
       <c r="W335" s="7"/>
     </row>
-    <row r="336" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A336" s="1"/>
       <c r="B336" s="7"/>
       <c r="C336" s="7"/>
@@ -9642,7 +9818,7 @@
       <c r="V336" s="7"/>
       <c r="W336" s="7"/>
     </row>
-    <row r="337" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A337" s="1"/>
       <c r="B337" s="7"/>
       <c r="C337" s="7"/>
@@ -9667,7 +9843,7 @@
       <c r="V337" s="7"/>
       <c r="W337" s="7"/>
     </row>
-    <row r="338" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A338" s="1"/>
       <c r="B338" s="7"/>
       <c r="C338" s="7"/>
@@ -9692,7 +9868,7 @@
       <c r="V338" s="7"/>
       <c r="W338" s="7"/>
     </row>
-    <row r="339" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A339" s="1"/>
       <c r="B339" s="7"/>
       <c r="C339" s="7"/>
@@ -9717,7 +9893,7 @@
       <c r="V339" s="7"/>
       <c r="W339" s="7"/>
     </row>
-    <row r="340" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A340" s="1"/>
       <c r="B340" s="7"/>
       <c r="C340" s="7"/>
@@ -9742,7 +9918,7 @@
       <c r="V340" s="7"/>
       <c r="W340" s="7"/>
     </row>
-    <row r="341" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A341" s="1"/>
       <c r="B341" s="7"/>
       <c r="C341" s="7"/>
@@ -9767,7 +9943,7 @@
       <c r="V341" s="7"/>
       <c r="W341" s="7"/>
     </row>
-    <row r="342" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A342" s="1"/>
       <c r="B342" s="7"/>
       <c r="C342" s="7"/>
@@ -9792,7 +9968,7 @@
       <c r="V342" s="7"/>
       <c r="W342" s="7"/>
     </row>
-    <row r="343" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A343" s="1"/>
       <c r="B343" s="7"/>
       <c r="C343" s="7"/>
@@ -9817,7 +9993,7 @@
       <c r="V343" s="7"/>
       <c r="W343" s="7"/>
     </row>
-    <row r="344" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A344" s="1"/>
       <c r="B344" s="7"/>
       <c r="C344" s="7"/>
@@ -9842,7 +10018,7 @@
       <c r="V344" s="7"/>
       <c r="W344" s="7"/>
     </row>
-    <row r="345" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A345" s="1"/>
       <c r="B345" s="7"/>
       <c r="C345" s="7"/>
@@ -9867,7 +10043,7 @@
       <c r="V345" s="7"/>
       <c r="W345" s="7"/>
     </row>
-    <row r="346" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A346" s="1"/>
       <c r="B346" s="7"/>
       <c r="C346" s="7"/>
@@ -9892,7 +10068,7 @@
       <c r="V346" s="7"/>
       <c r="W346" s="7"/>
     </row>
-    <row r="347" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A347" s="1"/>
       <c r="B347" s="7"/>
       <c r="C347" s="7"/>
@@ -9917,7 +10093,7 @@
       <c r="V347" s="7"/>
       <c r="W347" s="7"/>
     </row>
-    <row r="348" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A348" s="1"/>
       <c r="B348" s="7"/>
       <c r="C348" s="7"/>
@@ -9942,7 +10118,7 @@
       <c r="V348" s="7"/>
       <c r="W348" s="7"/>
     </row>
-    <row r="349" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A349" s="1"/>
       <c r="B349" s="7"/>
       <c r="C349" s="7"/>
@@ -9967,7 +10143,7 @@
       <c r="V349" s="7"/>
       <c r="W349" s="7"/>
     </row>
-    <row r="350" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A350" s="1"/>
       <c r="B350" s="7"/>
       <c r="C350" s="7"/>
@@ -9992,7 +10168,7 @@
       <c r="V350" s="7"/>
       <c r="W350" s="7"/>
     </row>
-    <row r="351" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A351" s="1"/>
       <c r="B351" s="7"/>
       <c r="C351" s="7"/>
@@ -10017,7 +10193,7 @@
       <c r="V351" s="7"/>
       <c r="W351" s="7"/>
     </row>
-    <row r="352" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A352" s="1"/>
       <c r="B352" s="7"/>
       <c r="C352" s="7"/>
@@ -10042,7 +10218,7 @@
       <c r="V352" s="7"/>
       <c r="W352" s="7"/>
     </row>
-    <row r="353" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A353" s="1"/>
       <c r="B353" s="7"/>
       <c r="C353" s="7"/>
@@ -10067,7 +10243,7 @@
       <c r="V353" s="7"/>
       <c r="W353" s="7"/>
     </row>
-    <row r="354" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A354" s="1"/>
       <c r="B354" s="7"/>
       <c r="C354" s="7"/>
@@ -10092,7 +10268,7 @@
       <c r="V354" s="7"/>
       <c r="W354" s="7"/>
     </row>
-    <row r="355" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A355" s="1"/>
       <c r="B355" s="7"/>
       <c r="C355" s="7"/>
@@ -10117,7 +10293,7 @@
       <c r="V355" s="7"/>
       <c r="W355" s="7"/>
     </row>
-    <row r="356" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A356" s="1"/>
       <c r="B356" s="7"/>
       <c r="C356" s="7"/>
@@ -10142,7 +10318,7 @@
       <c r="V356" s="7"/>
       <c r="W356" s="7"/>
     </row>
-    <row r="357" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A357" s="1"/>
       <c r="B357" s="7"/>
       <c r="C357" s="7"/>
@@ -10167,7 +10343,7 @@
       <c r="V357" s="7"/>
       <c r="W357" s="7"/>
     </row>
-    <row r="358" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A358" s="1"/>
       <c r="B358" s="7"/>
       <c r="C358" s="7"/>
@@ -10192,7 +10368,7 @@
       <c r="V358" s="7"/>
       <c r="W358" s="7"/>
     </row>
-    <row r="359" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A359" s="1"/>
       <c r="B359" s="7"/>
       <c r="C359" s="7"/>
@@ -10217,7 +10393,7 @@
       <c r="V359" s="7"/>
       <c r="W359" s="7"/>
     </row>
-    <row r="360" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A360" s="1"/>
       <c r="B360" s="7"/>
       <c r="C360" s="7"/>
@@ -10242,7 +10418,7 @@
       <c r="V360" s="7"/>
       <c r="W360" s="7"/>
     </row>
-    <row r="361" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A361" s="1"/>
       <c r="B361" s="7"/>
       <c r="C361" s="7"/>
@@ -10267,7 +10443,7 @@
       <c r="V361" s="7"/>
       <c r="W361" s="7"/>
     </row>
-    <row r="362" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A362" s="1"/>
       <c r="B362" s="7"/>
       <c r="C362" s="7"/>
@@ -10292,7 +10468,7 @@
       <c r="V362" s="7"/>
       <c r="W362" s="7"/>
     </row>
-    <row r="363" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A363" s="1"/>
       <c r="B363" s="7"/>
       <c r="C363" s="7"/>
@@ -10317,7 +10493,7 @@
       <c r="V363" s="7"/>
       <c r="W363" s="7"/>
     </row>
-    <row r="364" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A364" s="1"/>
       <c r="B364" s="7"/>
       <c r="C364" s="7"/>
@@ -10342,7 +10518,7 @@
       <c r="V364" s="7"/>
       <c r="W364" s="7"/>
     </row>
-    <row r="365" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A365" s="1"/>
       <c r="B365" s="7"/>
       <c r="C365" s="7"/>
@@ -10367,7 +10543,7 @@
       <c r="V365" s="7"/>
       <c r="W365" s="7"/>
     </row>
-    <row r="366" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A366" s="1"/>
       <c r="B366" s="7"/>
       <c r="C366" s="7"/>
@@ -10392,7 +10568,7 @@
       <c r="V366" s="7"/>
       <c r="W366" s="7"/>
     </row>
-    <row r="367" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A367" s="1"/>
       <c r="B367" s="7"/>
       <c r="C367" s="7"/>
@@ -10417,7 +10593,7 @@
       <c r="V367" s="7"/>
       <c r="W367" s="7"/>
     </row>
-    <row r="368" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A368" s="1"/>
       <c r="B368" s="7"/>
       <c r="C368" s="7"/>
@@ -10442,7 +10618,7 @@
       <c r="V368" s="7"/>
       <c r="W368" s="7"/>
     </row>
-    <row r="369" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A369" s="1"/>
       <c r="B369" s="7"/>
       <c r="C369" s="7"/>
@@ -10467,7 +10643,7 @@
       <c r="V369" s="7"/>
       <c r="W369" s="7"/>
     </row>
-    <row r="370" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A370" s="1"/>
       <c r="B370" s="7"/>
       <c r="C370" s="7"/>
@@ -10492,7 +10668,7 @@
       <c r="V370" s="7"/>
       <c r="W370" s="7"/>
     </row>
-    <row r="371" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A371" s="1"/>
       <c r="B371" s="7"/>
       <c r="C371" s="7"/>
@@ -10517,7 +10693,7 @@
       <c r="V371" s="7"/>
       <c r="W371" s="7"/>
     </row>
-    <row r="372" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A372" s="1"/>
       <c r="B372" s="7"/>
       <c r="C372" s="7"/>
@@ -10542,7 +10718,7 @@
       <c r="V372" s="7"/>
       <c r="W372" s="7"/>
     </row>
-    <row r="373" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A373" s="1"/>
       <c r="B373" s="7"/>
       <c r="C373" s="7"/>
@@ -10567,7 +10743,7 @@
       <c r="V373" s="7"/>
       <c r="W373" s="7"/>
     </row>
-    <row r="374" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A374" s="1"/>
       <c r="B374" s="7"/>
       <c r="C374" s="7"/>
@@ -10592,7 +10768,7 @@
       <c r="V374" s="7"/>
       <c r="W374" s="7"/>
     </row>
-    <row r="375" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A375" s="1"/>
       <c r="B375" s="7"/>
       <c r="C375" s="7"/>
@@ -10617,7 +10793,7 @@
       <c r="V375" s="7"/>
       <c r="W375" s="7"/>
     </row>
-    <row r="376" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A376" s="1"/>
       <c r="B376" s="7"/>
       <c r="C376" s="7"/>
@@ -10642,7 +10818,7 @@
       <c r="V376" s="7"/>
       <c r="W376" s="7"/>
     </row>
-    <row r="377" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A377" s="1"/>
       <c r="B377" s="7"/>
       <c r="C377" s="7"/>
@@ -10667,7 +10843,7 @@
       <c r="V377" s="7"/>
       <c r="W377" s="7"/>
     </row>
-    <row r="378" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A378" s="1"/>
       <c r="B378" s="7"/>
       <c r="C378" s="7"/>
@@ -10692,7 +10868,7 @@
       <c r="V378" s="7"/>
       <c r="W378" s="7"/>
     </row>
-    <row r="379" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A379" s="1"/>
       <c r="B379" s="7"/>
       <c r="C379" s="7"/>
@@ -10717,7 +10893,7 @@
       <c r="V379" s="7"/>
       <c r="W379" s="7"/>
     </row>
-    <row r="380" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A380" s="1"/>
       <c r="B380" s="7"/>
       <c r="C380" s="7"/>
@@ -10742,7 +10918,7 @@
       <c r="V380" s="7"/>
       <c r="W380" s="7"/>
     </row>
-    <row r="381" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A381" s="1"/>
       <c r="B381" s="7"/>
       <c r="C381" s="7"/>
@@ -10767,7 +10943,7 @@
       <c r="V381" s="7"/>
       <c r="W381" s="7"/>
     </row>
-    <row r="382" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A382" s="1"/>
       <c r="B382" s="7"/>
       <c r="C382" s="7"/>
@@ -10792,7 +10968,7 @@
       <c r="V382" s="7"/>
       <c r="W382" s="7"/>
     </row>
-    <row r="383" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A383" s="1"/>
       <c r="B383" s="7"/>
       <c r="C383" s="7"/>
@@ -10817,7 +10993,7 @@
       <c r="V383" s="7"/>
       <c r="W383" s="7"/>
     </row>
-    <row r="384" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A384" s="1"/>
       <c r="B384" s="7"/>
       <c r="C384" s="7"/>
@@ -10842,7 +11018,7 @@
       <c r="V384" s="7"/>
       <c r="W384" s="7"/>
     </row>
-    <row r="385" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A385" s="1"/>
       <c r="B385" s="7"/>
       <c r="C385" s="7"/>
@@ -10867,7 +11043,7 @@
       <c r="V385" s="7"/>
       <c r="W385" s="7"/>
     </row>
-    <row r="386" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A386" s="1"/>
       <c r="B386" s="7"/>
       <c r="C386" s="7"/>
@@ -10892,7 +11068,7 @@
       <c r="V386" s="7"/>
       <c r="W386" s="7"/>
     </row>
-    <row r="387" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A387" s="1"/>
       <c r="B387" s="7"/>
       <c r="C387" s="7"/>
@@ -10917,7 +11093,7 @@
       <c r="V387" s="7"/>
       <c r="W387" s="7"/>
     </row>
-    <row r="388" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A388" s="1"/>
       <c r="B388" s="7"/>
       <c r="C388" s="7"/>
@@ -10942,7 +11118,7 @@
       <c r="V388" s="7"/>
       <c r="W388" s="7"/>
     </row>
-    <row r="389" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A389" s="1"/>
       <c r="B389" s="7"/>
       <c r="C389" s="7"/>
@@ -10967,7 +11143,7 @@
       <c r="V389" s="7"/>
       <c r="W389" s="7"/>
     </row>
-    <row r="390" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A390" s="1"/>
       <c r="B390" s="7"/>
       <c r="C390" s="7"/>
@@ -10992,7 +11168,7 @@
       <c r="V390" s="7"/>
       <c r="W390" s="7"/>
     </row>
-    <row r="391" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A391" s="1"/>
       <c r="B391" s="7"/>
       <c r="C391" s="7"/>
@@ -11017,7 +11193,7 @@
       <c r="V391" s="7"/>
       <c r="W391" s="7"/>
     </row>
-    <row r="392" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A392" s="1"/>
       <c r="B392" s="7"/>
       <c r="C392" s="7"/>
@@ -11042,7 +11218,7 @@
       <c r="V392" s="7"/>
       <c r="W392" s="7"/>
     </row>
-    <row r="393" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A393" s="1"/>
       <c r="B393" s="7"/>
       <c r="C393" s="7"/>
@@ -11067,7 +11243,7 @@
       <c r="V393" s="7"/>
       <c r="W393" s="7"/>
     </row>
-    <row r="394" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A394" s="1"/>
       <c r="B394" s="7"/>
       <c r="C394" s="7"/>
@@ -11092,7 +11268,7 @@
       <c r="V394" s="7"/>
       <c r="W394" s="7"/>
     </row>
-    <row r="395" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A395" s="1"/>
       <c r="B395" s="7"/>
       <c r="C395" s="7"/>
@@ -11117,7 +11293,7 @@
       <c r="V395" s="7"/>
       <c r="W395" s="7"/>
     </row>
-    <row r="396" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A396" s="1"/>
       <c r="B396" s="7"/>
       <c r="C396" s="7"/>
@@ -11142,7 +11318,7 @@
       <c r="V396" s="7"/>
       <c r="W396" s="7"/>
     </row>
-    <row r="397" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A397" s="1"/>
       <c r="B397" s="7"/>
       <c r="C397" s="7"/>
@@ -11167,7 +11343,7 @@
       <c r="V397" s="7"/>
       <c r="W397" s="7"/>
     </row>
-    <row r="398" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A398" s="1"/>
       <c r="B398" s="7"/>
       <c r="C398" s="7"/>
@@ -11192,7 +11368,7 @@
       <c r="V398" s="7"/>
       <c r="W398" s="7"/>
     </row>
-    <row r="399" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A399" s="1"/>
       <c r="B399" s="7"/>
       <c r="C399" s="7"/>
@@ -11217,7 +11393,7 @@
       <c r="V399" s="7"/>
       <c r="W399" s="7"/>
     </row>
-    <row r="400" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A400" s="1"/>
       <c r="B400" s="7"/>
       <c r="C400" s="7"/>
@@ -11242,7 +11418,7 @@
       <c r="V400" s="7"/>
       <c r="W400" s="7"/>
     </row>
-    <row r="401" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A401" s="1"/>
       <c r="B401" s="7"/>
       <c r="C401" s="7"/>
@@ -11267,7 +11443,7 @@
       <c r="V401" s="7"/>
       <c r="W401" s="7"/>
     </row>
-    <row r="402" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A402" s="1"/>
       <c r="B402" s="7"/>
       <c r="C402" s="7"/>
@@ -11292,7 +11468,7 @@
       <c r="V402" s="7"/>
       <c r="W402" s="7"/>
     </row>
-    <row r="403" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A403" s="1"/>
       <c r="B403" s="7"/>
       <c r="C403" s="7"/>
@@ -11317,7 +11493,7 @@
       <c r="V403" s="7"/>
       <c r="W403" s="7"/>
     </row>
-    <row r="404" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A404" s="1"/>
       <c r="B404" s="7"/>
       <c r="C404" s="7"/>
@@ -11342,7 +11518,7 @@
       <c r="V404" s="7"/>
       <c r="W404" s="7"/>
     </row>
-    <row r="405" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A405" s="1"/>
       <c r="B405" s="7"/>
       <c r="C405" s="7"/>
@@ -11367,7 +11543,7 @@
       <c r="V405" s="7"/>
       <c r="W405" s="7"/>
     </row>
-    <row r="406" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A406" s="1"/>
       <c r="B406" s="7"/>
       <c r="C406" s="7"/>
@@ -11392,7 +11568,7 @@
       <c r="V406" s="7"/>
       <c r="W406" s="7"/>
     </row>
-    <row r="407" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A407" s="1"/>
       <c r="B407" s="7"/>
       <c r="C407" s="7"/>
@@ -11417,7 +11593,7 @@
       <c r="V407" s="7"/>
       <c r="W407" s="7"/>
     </row>
-    <row r="408" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A408" s="1"/>
       <c r="B408" s="7"/>
       <c r="C408" s="7"/>
@@ -11442,7 +11618,7 @@
       <c r="V408" s="7"/>
       <c r="W408" s="7"/>
     </row>
-    <row r="409" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A409" s="1"/>
       <c r="B409" s="7"/>
       <c r="C409" s="7"/>
@@ -11467,7 +11643,7 @@
       <c r="V409" s="7"/>
       <c r="W409" s="7"/>
     </row>
-    <row r="410" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A410" s="1"/>
       <c r="B410" s="7"/>
       <c r="C410" s="7"/>
@@ -11492,7 +11668,7 @@
       <c r="V410" s="7"/>
       <c r="W410" s="7"/>
     </row>
-    <row r="411" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A411" s="1"/>
       <c r="B411" s="7"/>
       <c r="C411" s="7"/>
@@ -11517,7 +11693,7 @@
       <c r="V411" s="7"/>
       <c r="W411" s="7"/>
     </row>
-    <row r="412" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A412" s="1"/>
       <c r="B412" s="7"/>
       <c r="C412" s="7"/>
@@ -11542,7 +11718,7 @@
       <c r="V412" s="7"/>
       <c r="W412" s="7"/>
     </row>
-    <row r="413" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A413" s="1"/>
       <c r="B413" s="7"/>
       <c r="C413" s="7"/>
@@ -11567,7 +11743,7 @@
       <c r="V413" s="7"/>
       <c r="W413" s="7"/>
     </row>
-    <row r="414" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A414" s="1"/>
       <c r="B414" s="7"/>
       <c r="C414" s="7"/>
@@ -11592,7 +11768,7 @@
       <c r="V414" s="7"/>
       <c r="W414" s="7"/>
     </row>
-    <row r="415" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A415" s="1"/>
       <c r="B415" s="7"/>
       <c r="C415" s="7"/>
@@ -11617,7 +11793,7 @@
       <c r="V415" s="7"/>
       <c r="W415" s="7"/>
     </row>
-    <row r="416" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A416" s="1"/>
       <c r="B416" s="7"/>
       <c r="C416" s="7"/>
@@ -11642,7 +11818,7 @@
       <c r="V416" s="7"/>
       <c r="W416" s="7"/>
     </row>
-    <row r="417" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A417" s="1"/>
       <c r="B417" s="7"/>
       <c r="C417" s="7"/>
@@ -11667,7 +11843,7 @@
       <c r="V417" s="7"/>
       <c r="W417" s="7"/>
     </row>
-    <row r="418" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A418" s="1"/>
       <c r="B418" s="7"/>
       <c r="C418" s="7"/>
@@ -11692,7 +11868,7 @@
       <c r="V418" s="7"/>
       <c r="W418" s="7"/>
     </row>
-    <row r="419" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A419" s="1"/>
       <c r="B419" s="7"/>
       <c r="C419" s="7"/>
@@ -11717,7 +11893,7 @@
       <c r="V419" s="7"/>
       <c r="W419" s="7"/>
     </row>
-    <row r="420" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A420" s="1"/>
       <c r="B420" s="7"/>
       <c r="C420" s="7"/>
@@ -11742,7 +11918,7 @@
       <c r="V420" s="7"/>
       <c r="W420" s="7"/>
     </row>
-    <row r="421" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A421" s="1"/>
       <c r="B421" s="7"/>
       <c r="C421" s="7"/>
@@ -11767,7 +11943,7 @@
       <c r="V421" s="7"/>
       <c r="W421" s="7"/>
     </row>
-    <row r="422" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A422" s="1"/>
       <c r="B422" s="7"/>
       <c r="C422" s="7"/>
@@ -11792,7 +11968,7 @@
       <c r="V422" s="7"/>
       <c r="W422" s="7"/>
     </row>
-    <row r="423" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A423" s="1"/>
       <c r="B423" s="7"/>
       <c r="C423" s="7"/>
@@ -11817,7 +11993,7 @@
       <c r="V423" s="7"/>
       <c r="W423" s="7"/>
     </row>
-    <row r="424" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A424" s="1"/>
       <c r="B424" s="7"/>
       <c r="C424" s="7"/>
@@ -11842,7 +12018,7 @@
       <c r="V424" s="7"/>
       <c r="W424" s="7"/>
     </row>
-    <row r="425" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A425" s="1"/>
       <c r="B425" s="7"/>
       <c r="C425" s="7"/>
@@ -11867,7 +12043,7 @@
       <c r="V425" s="7"/>
       <c r="W425" s="7"/>
     </row>
-    <row r="426" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A426" s="1"/>
       <c r="B426" s="7"/>
       <c r="C426" s="7"/>
@@ -11892,7 +12068,7 @@
       <c r="V426" s="7"/>
       <c r="W426" s="7"/>
     </row>
-    <row r="427" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A427" s="1"/>
       <c r="B427" s="7"/>
       <c r="C427" s="7"/>
@@ -11917,7 +12093,7 @@
       <c r="V427" s="7"/>
       <c r="W427" s="7"/>
     </row>
-    <row r="428" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A428" s="1"/>
       <c r="B428" s="7"/>
       <c r="C428" s="7"/>
@@ -11942,7 +12118,7 @@
       <c r="V428" s="7"/>
       <c r="W428" s="7"/>
     </row>
-    <row r="429" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A429" s="1"/>
       <c r="B429" s="7"/>
       <c r="C429" s="7"/>
@@ -11967,7 +12143,7 @@
       <c r="V429" s="7"/>
       <c r="W429" s="7"/>
     </row>
-    <row r="430" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A430" s="1"/>
       <c r="B430" s="7"/>
       <c r="C430" s="7"/>
@@ -11992,7 +12168,7 @@
       <c r="V430" s="7"/>
       <c r="W430" s="7"/>
     </row>
-    <row r="431" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A431" s="1"/>
       <c r="B431" s="7"/>
       <c r="C431" s="7"/>
@@ -12017,7 +12193,7 @@
       <c r="V431" s="7"/>
       <c r="W431" s="7"/>
     </row>
-    <row r="432" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A432" s="1"/>
       <c r="B432" s="7"/>
       <c r="C432" s="7"/>
@@ -12042,7 +12218,7 @@
       <c r="V432" s="7"/>
       <c r="W432" s="7"/>
     </row>
-    <row r="433" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A433" s="1"/>
       <c r="B433" s="7"/>
       <c r="C433" s="7"/>
@@ -12067,7 +12243,7 @@
       <c r="V433" s="7"/>
       <c r="W433" s="7"/>
     </row>
-    <row r="434" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A434" s="1"/>
       <c r="B434" s="7"/>
       <c r="C434" s="7"/>
@@ -12092,7 +12268,7 @@
       <c r="V434" s="7"/>
       <c r="W434" s="7"/>
     </row>
-    <row r="435" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A435" s="1"/>
       <c r="B435" s="7"/>
       <c r="C435" s="7"/>
@@ -12117,7 +12293,7 @@
       <c r="V435" s="7"/>
       <c r="W435" s="7"/>
     </row>
-    <row r="436" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A436" s="1"/>
       <c r="B436" s="7"/>
       <c r="C436" s="7"/>
@@ -12142,7 +12318,7 @@
       <c r="V436" s="7"/>
       <c r="W436" s="7"/>
     </row>
-    <row r="437" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A437" s="1"/>
       <c r="B437" s="7"/>
       <c r="C437" s="7"/>
@@ -12167,7 +12343,7 @@
       <c r="V437" s="7"/>
       <c r="W437" s="7"/>
     </row>
-    <row r="438" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A438" s="1"/>
       <c r="B438" s="7"/>
       <c r="C438" s="7"/>
@@ -12192,7 +12368,7 @@
       <c r="V438" s="7"/>
       <c r="W438" s="7"/>
     </row>
-    <row r="439" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A439" s="1"/>
       <c r="B439" s="7"/>
       <c r="C439" s="7"/>
@@ -12217,7 +12393,7 @@
       <c r="V439" s="7"/>
       <c r="W439" s="7"/>
     </row>
-    <row r="440" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A440" s="1"/>
       <c r="B440" s="7"/>
       <c r="C440" s="7"/>
@@ -12242,7 +12418,7 @@
       <c r="V440" s="7"/>
       <c r="W440" s="7"/>
     </row>
-    <row r="441" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A441" s="1"/>
       <c r="B441" s="7"/>
       <c r="C441" s="7"/>
@@ -12267,7 +12443,7 @@
       <c r="V441" s="7"/>
       <c r="W441" s="7"/>
     </row>
-    <row r="442" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A442" s="1"/>
       <c r="B442" s="7"/>
       <c r="C442" s="7"/>
@@ -12292,7 +12468,7 @@
       <c r="V442" s="7"/>
       <c r="W442" s="7"/>
     </row>
-    <row r="443" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A443" s="1"/>
       <c r="B443" s="7"/>
       <c r="C443" s="7"/>
@@ -12317,7 +12493,7 @@
       <c r="V443" s="7"/>
       <c r="W443" s="7"/>
     </row>
-    <row r="444" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A444" s="1"/>
       <c r="B444" s="7"/>
       <c r="C444" s="7"/>
@@ -12342,7 +12518,7 @@
       <c r="V444" s="7"/>
       <c r="W444" s="7"/>
     </row>
-    <row r="445" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A445" s="1"/>
       <c r="B445" s="7"/>
       <c r="C445" s="7"/>
@@ -12367,7 +12543,7 @@
       <c r="V445" s="7"/>
       <c r="W445" s="7"/>
     </row>
-    <row r="446" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A446" s="1"/>
       <c r="B446" s="7"/>
       <c r="C446" s="7"/>
@@ -12392,7 +12568,7 @@
       <c r="V446" s="7"/>
       <c r="W446" s="7"/>
     </row>
-    <row r="447" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A447" s="1"/>
       <c r="B447" s="7"/>
       <c r="C447" s="7"/>
@@ -12417,7 +12593,7 @@
       <c r="V447" s="7"/>
       <c r="W447" s="7"/>
     </row>
-    <row r="448" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A448" s="1"/>
       <c r="B448" s="7"/>
       <c r="C448" s="7"/>
@@ -12442,7 +12618,7 @@
       <c r="V448" s="7"/>
       <c r="W448" s="7"/>
     </row>
-    <row r="449" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A449" s="1"/>
       <c r="B449" s="7"/>
       <c r="C449" s="7"/>
@@ -12467,7 +12643,7 @@
       <c r="V449" s="7"/>
       <c r="W449" s="7"/>
     </row>
-    <row r="450" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A450" s="1"/>
       <c r="B450" s="7"/>
       <c r="C450" s="7"/>
@@ -12492,7 +12668,7 @@
       <c r="V450" s="7"/>
       <c r="W450" s="7"/>
     </row>
-    <row r="451" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A451" s="1"/>
       <c r="B451" s="7"/>
       <c r="C451" s="7"/>
@@ -12517,7 +12693,7 @@
       <c r="V451" s="7"/>
       <c r="W451" s="7"/>
     </row>
-    <row r="452" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A452" s="1"/>
       <c r="B452" s="7"/>
       <c r="C452" s="7"/>
@@ -12542,7 +12718,7 @@
       <c r="V452" s="7"/>
       <c r="W452" s="7"/>
     </row>
-    <row r="453" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A453" s="1"/>
       <c r="B453" s="7"/>
       <c r="C453" s="7"/>
@@ -12567,7 +12743,7 @@
       <c r="V453" s="7"/>
       <c r="W453" s="7"/>
     </row>
-    <row r="454" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A454" s="1"/>
       <c r="B454" s="7"/>
       <c r="C454" s="7"/>
@@ -12592,7 +12768,7 @@
       <c r="V454" s="7"/>
       <c r="W454" s="7"/>
     </row>
-    <row r="455" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A455" s="1"/>
       <c r="B455" s="7"/>
       <c r="C455" s="7"/>
@@ -12617,7 +12793,7 @@
       <c r="V455" s="7"/>
       <c r="W455" s="7"/>
     </row>
-    <row r="456" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A456" s="1"/>
       <c r="B456" s="7"/>
       <c r="C456" s="7"/>
@@ -12642,7 +12818,7 @@
       <c r="V456" s="7"/>
       <c r="W456" s="7"/>
     </row>
-    <row r="457" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A457" s="1"/>
       <c r="B457" s="7"/>
       <c r="C457" s="7"/>
@@ -12667,7 +12843,7 @@
       <c r="V457" s="7"/>
       <c r="W457" s="7"/>
     </row>
-    <row r="458" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A458" s="1"/>
       <c r="B458" s="7"/>
       <c r="C458" s="7"/>
@@ -12692,7 +12868,7 @@
       <c r="V458" s="7"/>
       <c r="W458" s="7"/>
     </row>
-    <row r="459" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A459" s="1"/>
       <c r="B459" s="7"/>
       <c r="C459" s="7"/>
@@ -12717,7 +12893,7 @@
       <c r="V459" s="7"/>
       <c r="W459" s="7"/>
     </row>
-    <row r="460" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A460" s="1"/>
       <c r="B460" s="7"/>
       <c r="C460" s="7"/>
@@ -12742,7 +12918,7 @@
       <c r="V460" s="7"/>
       <c r="W460" s="7"/>
     </row>
-    <row r="461" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A461" s="1"/>
       <c r="B461" s="7"/>
       <c r="C461" s="7"/>
@@ -12767,7 +12943,7 @@
       <c r="V461" s="7"/>
       <c r="W461" s="7"/>
     </row>
-    <row r="462" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A462" s="1"/>
       <c r="B462" s="7"/>
       <c r="C462" s="7"/>
@@ -12792,7 +12968,7 @@
       <c r="V462" s="7"/>
       <c r="W462" s="7"/>
     </row>
-    <row r="463" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A463" s="1"/>
       <c r="B463" s="7"/>
       <c r="C463" s="7"/>
@@ -12817,7 +12993,7 @@
       <c r="V463" s="7"/>
       <c r="W463" s="7"/>
     </row>
-    <row r="464" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A464" s="1"/>
       <c r="B464" s="7"/>
       <c r="C464" s="7"/>
@@ -12842,7 +13018,7 @@
       <c r="V464" s="7"/>
       <c r="W464" s="7"/>
     </row>
-    <row r="465" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A465" s="1"/>
       <c r="B465" s="7"/>
       <c r="C465" s="7"/>
@@ -12867,7 +13043,7 @@
       <c r="V465" s="7"/>
       <c r="W465" s="7"/>
     </row>
-    <row r="466" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A466" s="1"/>
       <c r="B466" s="7"/>
       <c r="C466" s="7"/>
@@ -12892,7 +13068,7 @@
       <c r="V466" s="7"/>
       <c r="W466" s="7"/>
     </row>
-    <row r="467" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A467" s="1"/>
       <c r="B467" s="7"/>
       <c r="C467" s="7"/>
@@ -12917,7 +13093,7 @@
       <c r="V467" s="7"/>
       <c r="W467" s="7"/>
     </row>
-    <row r="468" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A468" s="1"/>
       <c r="B468" s="7"/>
       <c r="C468" s="7"/>
@@ -12942,7 +13118,7 @@
       <c r="V468" s="7"/>
       <c r="W468" s="7"/>
     </row>
-    <row r="469" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A469" s="1"/>
       <c r="B469" s="7"/>
       <c r="C469" s="7"/>
@@ -12967,7 +13143,7 @@
       <c r="V469" s="7"/>
       <c r="W469" s="7"/>
     </row>
-    <row r="470" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A470" s="1"/>
       <c r="B470" s="7"/>
       <c r="C470" s="7"/>
@@ -12992,7 +13168,7 @@
       <c r="V470" s="7"/>
       <c r="W470" s="7"/>
     </row>
-    <row r="471" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A471" s="1"/>
       <c r="B471" s="7"/>
       <c r="C471" s="7"/>
@@ -13017,7 +13193,7 @@
       <c r="V471" s="7"/>
       <c r="W471" s="7"/>
     </row>
-    <row r="472" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A472" s="1"/>
       <c r="B472" s="7"/>
       <c r="C472" s="7"/>
@@ -13042,7 +13218,7 @@
       <c r="V472" s="7"/>
       <c r="W472" s="7"/>
     </row>
-    <row r="473" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A473" s="1"/>
       <c r="B473" s="7"/>
       <c r="C473" s="7"/>
@@ -13067,7 +13243,7 @@
       <c r="V473" s="7"/>
       <c r="W473" s="7"/>
     </row>
-    <row r="474" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A474" s="1"/>
       <c r="B474" s="7"/>
       <c r="C474" s="7"/>
@@ -13092,7 +13268,7 @@
       <c r="V474" s="7"/>
       <c r="W474" s="7"/>
     </row>
-    <row r="475" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A475" s="1"/>
       <c r="B475" s="7"/>
       <c r="C475" s="7"/>
@@ -13117,7 +13293,7 @@
       <c r="V475" s="7"/>
       <c r="W475" s="7"/>
     </row>
-    <row r="476" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A476" s="1"/>
       <c r="B476" s="7"/>
       <c r="C476" s="7"/>
@@ -13142,7 +13318,7 @@
       <c r="V476" s="7"/>
       <c r="W476" s="7"/>
     </row>
-    <row r="477" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A477" s="1"/>
       <c r="B477" s="7"/>
       <c r="C477" s="7"/>
@@ -13167,7 +13343,7 @@
       <c r="V477" s="7"/>
       <c r="W477" s="7"/>
     </row>
-    <row r="478" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A478" s="1"/>
       <c r="B478" s="7"/>
       <c r="C478" s="7"/>
@@ -13192,7 +13368,7 @@
       <c r="V478" s="7"/>
       <c r="W478" s="7"/>
     </row>
-    <row r="479" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A479" s="1"/>
       <c r="B479" s="7"/>
       <c r="C479" s="7"/>
@@ -13217,7 +13393,7 @@
       <c r="V479" s="7"/>
       <c r="W479" s="7"/>
     </row>
-    <row r="480" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A480" s="1"/>
       <c r="B480" s="7"/>
       <c r="C480" s="7"/>
@@ -13242,7 +13418,7 @@
       <c r="V480" s="7"/>
       <c r="W480" s="7"/>
     </row>
-    <row r="481" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A481" s="1"/>
       <c r="B481" s="7"/>
       <c r="C481" s="7"/>
@@ -13267,7 +13443,7 @@
       <c r="V481" s="7"/>
       <c r="W481" s="7"/>
     </row>
-    <row r="482" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A482" s="1"/>
       <c r="B482" s="7"/>
       <c r="C482" s="7"/>
@@ -13292,7 +13468,7 @@
       <c r="V482" s="7"/>
       <c r="W482" s="7"/>
     </row>
-    <row r="483" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A483" s="1"/>
       <c r="B483" s="7"/>
       <c r="C483" s="7"/>
@@ -13317,7 +13493,7 @@
       <c r="V483" s="7"/>
       <c r="W483" s="7"/>
     </row>
-    <row r="484" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A484" s="1"/>
       <c r="B484" s="7"/>
       <c r="C484" s="7"/>
@@ -13342,7 +13518,7 @@
       <c r="V484" s="7"/>
       <c r="W484" s="7"/>
     </row>
-    <row r="485" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A485" s="1"/>
       <c r="B485" s="7"/>
       <c r="C485" s="7"/>
@@ -13367,7 +13543,7 @@
       <c r="V485" s="7"/>
       <c r="W485" s="7"/>
     </row>
-    <row r="486" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A486" s="1"/>
       <c r="B486" s="7"/>
       <c r="C486" s="7"/>
@@ -13392,7 +13568,7 @@
       <c r="V486" s="7"/>
       <c r="W486" s="7"/>
     </row>
-    <row r="487" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A487" s="1"/>
       <c r="B487" s="7"/>
       <c r="C487" s="7"/>
@@ -13417,7 +13593,7 @@
       <c r="V487" s="7"/>
       <c r="W487" s="7"/>
     </row>
-    <row r="488" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A488" s="1"/>
       <c r="B488" s="7"/>
       <c r="C488" s="7"/>
@@ -13442,7 +13618,7 @@
       <c r="V488" s="7"/>
       <c r="W488" s="7"/>
     </row>
-    <row r="489" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A489" s="1"/>
       <c r="B489" s="7"/>
       <c r="C489" s="7"/>
@@ -13467,7 +13643,7 @@
       <c r="V489" s="7"/>
       <c r="W489" s="7"/>
     </row>
-    <row r="490" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A490" s="1"/>
       <c r="B490" s="7"/>
       <c r="C490" s="7"/>
@@ -13492,7 +13668,7 @@
       <c r="V490" s="7"/>
       <c r="W490" s="7"/>
     </row>
-    <row r="491" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A491" s="1"/>
       <c r="B491" s="7"/>
       <c r="C491" s="7"/>
@@ -13517,7 +13693,7 @@
       <c r="V491" s="7"/>
       <c r="W491" s="7"/>
     </row>
-    <row r="492" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A492" s="1"/>
       <c r="B492" s="7"/>
       <c r="C492" s="7"/>
@@ -13542,7 +13718,7 @@
       <c r="V492" s="7"/>
       <c r="W492" s="7"/>
     </row>
-    <row r="493" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A493" s="1"/>
       <c r="B493" s="7"/>
       <c r="C493" s="7"/>
@@ -13567,7 +13743,7 @@
       <c r="V493" s="7"/>
       <c r="W493" s="7"/>
     </row>
-    <row r="494" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A494" s="1"/>
       <c r="B494" s="7"/>
       <c r="C494" s="7"/>
@@ -13592,7 +13768,7 @@
       <c r="V494" s="7"/>
       <c r="W494" s="7"/>
     </row>
-    <row r="495" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A495" s="1"/>
       <c r="B495" s="7"/>
       <c r="C495" s="7"/>
@@ -13617,7 +13793,7 @@
       <c r="V495" s="7"/>
       <c r="W495" s="7"/>
     </row>
-    <row r="496" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A496" s="1"/>
       <c r="B496" s="7"/>
       <c r="C496" s="7"/>
@@ -13642,7 +13818,7 @@
       <c r="V496" s="7"/>
       <c r="W496" s="7"/>
     </row>
-    <row r="497" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A497" s="1"/>
       <c r="B497" s="7"/>
       <c r="C497" s="7"/>
@@ -13667,7 +13843,7 @@
       <c r="V497" s="7"/>
       <c r="W497" s="7"/>
     </row>
-    <row r="498" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A498" s="1"/>
       <c r="B498" s="7"/>
       <c r="C498" s="7"/>
@@ -13692,7 +13868,7 @@
       <c r="V498" s="7"/>
       <c r="W498" s="7"/>
     </row>
-    <row r="499" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A499" s="1"/>
       <c r="B499" s="7"/>
       <c r="C499" s="7"/>
@@ -13717,7 +13893,7 @@
       <c r="V499" s="7"/>
       <c r="W499" s="7"/>
     </row>
-    <row r="500" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A500" s="1"/>
       <c r="B500" s="7"/>
       <c r="C500" s="7"/>
@@ -13742,7 +13918,7 @@
       <c r="V500" s="7"/>
       <c r="W500" s="7"/>
     </row>
-    <row r="501" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A501" s="1"/>
       <c r="B501" s="7"/>
       <c r="C501" s="7"/>
@@ -13767,7 +13943,7 @@
       <c r="V501" s="7"/>
       <c r="W501" s="7"/>
     </row>
-    <row r="502" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A502" s="1"/>
       <c r="B502" s="7"/>
       <c r="C502" s="7"/>
@@ -13792,7 +13968,7 @@
       <c r="V502" s="7"/>
       <c r="W502" s="7"/>
     </row>
-    <row r="503" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A503" s="1"/>
       <c r="B503" s="7"/>
       <c r="C503" s="7"/>
@@ -13817,7 +13993,7 @@
       <c r="V503" s="7"/>
       <c r="W503" s="7"/>
     </row>
-    <row r="504" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A504" s="1"/>
       <c r="B504" s="7"/>
       <c r="C504" s="7"/>
@@ -13842,7 +14018,7 @@
       <c r="V504" s="7"/>
       <c r="W504" s="7"/>
     </row>
-    <row r="505" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A505" s="1"/>
       <c r="B505" s="7"/>
       <c r="C505" s="7"/>
@@ -13867,7 +14043,7 @@
       <c r="V505" s="7"/>
       <c r="W505" s="7"/>
     </row>
-    <row r="506" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A506" s="1"/>
       <c r="B506" s="7"/>
       <c r="C506" s="7"/>
@@ -13892,7 +14068,7 @@
       <c r="V506" s="7"/>
       <c r="W506" s="7"/>
     </row>
-    <row r="507" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A507" s="1"/>
       <c r="B507" s="7"/>
       <c r="C507" s="7"/>
@@ -13917,7 +14093,7 @@
       <c r="V507" s="7"/>
       <c r="W507" s="7"/>
     </row>
-    <row r="508" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A508" s="1"/>
       <c r="B508" s="7"/>
       <c r="C508" s="7"/>
@@ -13942,7 +14118,7 @@
       <c r="V508" s="7"/>
       <c r="W508" s="7"/>
     </row>
-    <row r="509" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A509" s="1"/>
       <c r="B509" s="7"/>
       <c r="C509" s="7"/>
@@ -13967,7 +14143,7 @@
       <c r="V509" s="7"/>
       <c r="W509" s="7"/>
     </row>
-    <row r="510" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A510" s="1"/>
       <c r="B510" s="7"/>
       <c r="C510" s="7"/>
@@ -13992,7 +14168,7 @@
       <c r="V510" s="7"/>
       <c r="W510" s="7"/>
     </row>
-    <row r="511" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A511" s="1"/>
       <c r="B511" s="7"/>
       <c r="C511" s="7"/>
@@ -14017,7 +14193,7 @@
       <c r="V511" s="7"/>
       <c r="W511" s="7"/>
     </row>
-    <row r="512" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A512" s="1"/>
       <c r="B512" s="7"/>
       <c r="C512" s="7"/>
@@ -14042,7 +14218,7 @@
       <c r="V512" s="7"/>
       <c r="W512" s="7"/>
     </row>
-    <row r="513" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A513" s="1"/>
       <c r="B513" s="7"/>
       <c r="C513" s="7"/>
@@ -14067,7 +14243,7 @@
       <c r="V513" s="7"/>
       <c r="W513" s="7"/>
     </row>
-    <row r="514" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A514" s="1"/>
       <c r="B514" s="7"/>
       <c r="C514" s="7"/>
@@ -14092,7 +14268,7 @@
       <c r="V514" s="7"/>
       <c r="W514" s="7"/>
     </row>
-    <row r="515" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A515" s="1"/>
       <c r="B515" s="7"/>
       <c r="C515" s="7"/>
@@ -14117,7 +14293,7 @@
       <c r="V515" s="7"/>
       <c r="W515" s="7"/>
     </row>
-    <row r="516" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A516" s="1"/>
       <c r="B516" s="7"/>
       <c r="C516" s="7"/>
@@ -14142,7 +14318,7 @@
       <c r="V516" s="7"/>
       <c r="W516" s="7"/>
     </row>
-    <row r="517" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A517" s="1"/>
       <c r="B517" s="7"/>
       <c r="C517" s="7"/>
@@ -14167,7 +14343,7 @@
       <c r="V517" s="7"/>
       <c r="W517" s="7"/>
     </row>
-    <row r="518" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A518" s="1"/>
       <c r="B518" s="7"/>
       <c r="C518" s="7"/>
@@ -14192,7 +14368,7 @@
       <c r="V518" s="7"/>
       <c r="W518" s="7"/>
     </row>
-    <row r="519" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A519" s="1"/>
       <c r="B519" s="7"/>
       <c r="C519" s="7"/>
@@ -14217,7 +14393,7 @@
       <c r="V519" s="7"/>
       <c r="W519" s="7"/>
     </row>
-    <row r="520" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A520" s="1"/>
       <c r="B520" s="7"/>
       <c r="C520" s="7"/>
@@ -14242,7 +14418,7 @@
       <c r="V520" s="7"/>
       <c r="W520" s="7"/>
     </row>
-    <row r="521" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A521" s="1"/>
       <c r="B521" s="7"/>
       <c r="C521" s="7"/>
@@ -14267,7 +14443,7 @@
       <c r="V521" s="7"/>
       <c r="W521" s="7"/>
     </row>
-    <row r="522" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A522" s="1"/>
       <c r="B522" s="7"/>
       <c r="C522" s="7"/>
@@ -14292,7 +14468,7 @@
       <c r="V522" s="7"/>
       <c r="W522" s="7"/>
     </row>
-    <row r="523" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A523" s="1"/>
       <c r="B523" s="7"/>
       <c r="C523" s="7"/>
@@ -14317,7 +14493,7 @@
       <c r="V523" s="7"/>
       <c r="W523" s="7"/>
     </row>
-    <row r="524" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A524" s="1"/>
       <c r="B524" s="7"/>
       <c r="C524" s="7"/>
@@ -14342,7 +14518,7 @@
       <c r="V524" s="7"/>
       <c r="W524" s="7"/>
     </row>
-    <row r="525" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A525" s="1"/>
       <c r="B525" s="7"/>
       <c r="C525" s="7"/>
@@ -14367,7 +14543,7 @@
       <c r="V525" s="7"/>
       <c r="W525" s="7"/>
     </row>
-    <row r="526" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A526" s="1"/>
       <c r="B526" s="7"/>
       <c r="C526" s="7"/>
@@ -14392,7 +14568,7 @@
       <c r="V526" s="7"/>
       <c r="W526" s="7"/>
     </row>
-    <row r="527" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A527" s="1"/>
       <c r="B527" s="7"/>
       <c r="C527" s="7"/>
@@ -14417,7 +14593,7 @@
       <c r="V527" s="7"/>
       <c r="W527" s="7"/>
     </row>
-    <row r="528" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A528" s="1"/>
       <c r="B528" s="7"/>
       <c r="C528" s="7"/>
@@ -14442,7 +14618,7 @@
       <c r="V528" s="7"/>
       <c r="W528" s="7"/>
     </row>
-    <row r="529" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A529" s="1"/>
       <c r="B529" s="7"/>
       <c r="C529" s="7"/>
@@ -14467,7 +14643,7 @@
       <c r="V529" s="7"/>
       <c r="W529" s="7"/>
     </row>
-    <row r="530" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A530" s="1"/>
       <c r="B530" s="7"/>
       <c r="C530" s="7"/>
@@ -14492,7 +14668,7 @@
       <c r="V530" s="7"/>
       <c r="W530" s="7"/>
     </row>
-    <row r="531" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A531" s="1"/>
       <c r="B531" s="7"/>
       <c r="C531" s="7"/>
@@ -14517,7 +14693,7 @@
       <c r="V531" s="7"/>
       <c r="W531" s="7"/>
     </row>
-    <row r="532" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A532" s="1"/>
       <c r="B532" s="7"/>
       <c r="C532" s="7"/>
@@ -14542,7 +14718,7 @@
       <c r="V532" s="7"/>
       <c r="W532" s="7"/>
     </row>
-    <row r="533" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A533" s="1"/>
       <c r="B533" s="7"/>
       <c r="C533" s="7"/>
@@ -14567,7 +14743,7 @@
       <c r="V533" s="7"/>
       <c r="W533" s="7"/>
     </row>
-    <row r="534" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A534" s="1"/>
       <c r="B534" s="7"/>
       <c r="C534" s="7"/>
@@ -14592,7 +14768,7 @@
       <c r="V534" s="7"/>
       <c r="W534" s="7"/>
     </row>
-    <row r="535" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A535" s="1"/>
       <c r="B535" s="7"/>
       <c r="C535" s="7"/>
@@ -14617,7 +14793,7 @@
       <c r="V535" s="7"/>
       <c r="W535" s="7"/>
     </row>
-    <row r="536" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A536" s="1"/>
       <c r="B536" s="7"/>
       <c r="C536" s="7"/>
@@ -14642,7 +14818,7 @@
       <c r="V536" s="7"/>
       <c r="W536" s="7"/>
     </row>
-    <row r="537" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A537" s="1"/>
       <c r="B537" s="7"/>
       <c r="C537" s="7"/>
@@ -14667,7 +14843,7 @@
       <c r="V537" s="7"/>
       <c r="W537" s="7"/>
     </row>
-    <row r="538" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A538" s="1"/>
       <c r="B538" s="7"/>
       <c r="C538" s="7"/>
@@ -14692,7 +14868,7 @@
       <c r="V538" s="7"/>
       <c r="W538" s="7"/>
     </row>
-    <row r="539" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A539" s="1"/>
       <c r="B539" s="7"/>
       <c r="C539" s="7"/>
@@ -14717,7 +14893,7 @@
       <c r="V539" s="7"/>
       <c r="W539" s="7"/>
     </row>
-    <row r="540" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A540" s="1"/>
       <c r="B540" s="7"/>
       <c r="C540" s="7"/>
@@ -14742,7 +14918,7 @@
       <c r="V540" s="7"/>
       <c r="W540" s="7"/>
     </row>
-    <row r="541" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A541" s="1"/>
       <c r="B541" s="7"/>
       <c r="C541" s="7"/>
@@ -14767,7 +14943,7 @@
       <c r="V541" s="7"/>
       <c r="W541" s="7"/>
     </row>
-    <row r="542" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A542" s="1"/>
       <c r="B542" s="7"/>
       <c r="C542" s="7"/>
@@ -14792,7 +14968,7 @@
       <c r="V542" s="7"/>
       <c r="W542" s="7"/>
     </row>
-    <row r="543" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A543" s="1"/>
       <c r="B543" s="7"/>
       <c r="C543" s="7"/>
@@ -14817,7 +14993,7 @@
       <c r="V543" s="7"/>
       <c r="W543" s="7"/>
     </row>
-    <row r="544" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A544" s="1"/>
       <c r="B544" s="7"/>
       <c r="C544" s="7"/>
@@ -14842,7 +15018,7 @@
       <c r="V544" s="7"/>
       <c r="W544" s="7"/>
     </row>
-    <row r="545" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A545" s="1"/>
       <c r="B545" s="7"/>
       <c r="C545" s="7"/>
@@ -14867,7 +15043,7 @@
       <c r="V545" s="7"/>
       <c r="W545" s="7"/>
     </row>
-    <row r="546" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A546" s="1"/>
       <c r="B546" s="7"/>
       <c r="C546" s="7"/>
@@ -14892,7 +15068,7 @@
       <c r="V546" s="7"/>
       <c r="W546" s="7"/>
     </row>
-    <row r="547" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A547" s="1"/>
       <c r="B547" s="7"/>
       <c r="C547" s="7"/>
@@ -14917,7 +15093,7 @@
       <c r="V547" s="7"/>
       <c r="W547" s="7"/>
     </row>
-    <row r="548" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A548" s="1"/>
       <c r="B548" s="7"/>
       <c r="C548" s="7"/>
@@ -14942,7 +15118,7 @@
       <c r="V548" s="7"/>
       <c r="W548" s="7"/>
     </row>
-    <row r="549" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A549" s="1"/>
       <c r="B549" s="7"/>
       <c r="C549" s="7"/>
@@ -14967,7 +15143,7 @@
       <c r="V549" s="7"/>
       <c r="W549" s="7"/>
     </row>
-    <row r="550" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A550" s="1"/>
       <c r="B550" s="7"/>
       <c r="C550" s="7"/>
@@ -14992,7 +15168,7 @@
       <c r="V550" s="7"/>
       <c r="W550" s="7"/>
     </row>
-    <row r="551" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A551" s="1"/>
       <c r="B551" s="7"/>
       <c r="C551" s="7"/>
@@ -15017,7 +15193,7 @@
       <c r="V551" s="7"/>
       <c r="W551" s="7"/>
     </row>
-    <row r="552" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A552" s="1"/>
       <c r="B552" s="7"/>
       <c r="C552" s="7"/>
@@ -15042,7 +15218,7 @@
       <c r="V552" s="7"/>
       <c r="W552" s="7"/>
     </row>
-    <row r="553" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A553" s="1"/>
       <c r="B553" s="7"/>
       <c r="C553" s="7"/>
@@ -15067,7 +15243,7 @@
       <c r="V553" s="7"/>
       <c r="W553" s="7"/>
     </row>
-    <row r="554" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A554" s="1"/>
       <c r="B554" s="7"/>
       <c r="C554" s="7"/>
@@ -15092,7 +15268,7 @@
       <c r="V554" s="7"/>
       <c r="W554" s="7"/>
     </row>
-    <row r="555" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A555" s="1"/>
       <c r="B555" s="7"/>
       <c r="C555" s="7"/>
@@ -15117,7 +15293,7 @@
       <c r="V555" s="7"/>
       <c r="W555" s="7"/>
     </row>
-    <row r="556" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A556" s="1"/>
       <c r="B556" s="7"/>
       <c r="C556" s="7"/>
@@ -15142,7 +15318,7 @@
       <c r="V556" s="7"/>
       <c r="W556" s="7"/>
     </row>
-    <row r="557" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A557" s="1"/>
       <c r="B557" s="7"/>
       <c r="C557" s="7"/>
@@ -15167,7 +15343,7 @@
       <c r="V557" s="7"/>
       <c r="W557" s="7"/>
     </row>
-    <row r="558" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A558" s="1"/>
       <c r="B558" s="7"/>
       <c r="C558" s="7"/>
@@ -15192,7 +15368,7 @@
       <c r="V558" s="7"/>
       <c r="W558" s="7"/>
     </row>
-    <row r="559" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A559" s="1"/>
       <c r="B559" s="7"/>
       <c r="C559" s="7"/>
@@ -15217,7 +15393,7 @@
       <c r="V559" s="7"/>
       <c r="W559" s="7"/>
     </row>
-    <row r="560" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A560" s="1"/>
       <c r="B560" s="7"/>
       <c r="C560" s="7"/>
@@ -15242,7 +15418,7 @@
       <c r="V560" s="7"/>
       <c r="W560" s="7"/>
     </row>
-    <row r="561" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A561" s="1"/>
       <c r="B561" s="7"/>
       <c r="C561" s="7"/>
@@ -15267,7 +15443,7 @@
       <c r="V561" s="7"/>
       <c r="W561" s="7"/>
     </row>
-    <row r="562" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A562" s="1"/>
       <c r="B562" s="7"/>
       <c r="C562" s="7"/>
@@ -15292,7 +15468,7 @@
       <c r="V562" s="7"/>
       <c r="W562" s="7"/>
     </row>
-    <row r="563" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A563" s="1"/>
       <c r="B563" s="7"/>
       <c r="C563" s="7"/>
@@ -15317,7 +15493,7 @@
       <c r="V563" s="7"/>
       <c r="W563" s="7"/>
     </row>
-    <row r="564" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A564" s="1"/>
       <c r="B564" s="7"/>
       <c r="C564" s="7"/>
@@ -15342,7 +15518,7 @@
       <c r="V564" s="7"/>
       <c r="W564" s="7"/>
     </row>
-    <row r="565" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A565" s="1"/>
       <c r="B565" s="7"/>
       <c r="C565" s="7"/>
@@ -15367,7 +15543,7 @@
       <c r="V565" s="7"/>
       <c r="W565" s="7"/>
     </row>
-    <row r="566" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A566" s="1"/>
       <c r="B566" s="7"/>
       <c r="C566" s="7"/>
@@ -15392,7 +15568,7 @@
       <c r="V566" s="7"/>
       <c r="W566" s="7"/>
     </row>
-    <row r="567" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A567" s="1"/>
       <c r="B567" s="7"/>
       <c r="C567" s="7"/>
@@ -15417,7 +15593,7 @@
       <c r="V567" s="7"/>
       <c r="W567" s="7"/>
     </row>
-    <row r="568" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A568" s="1"/>
       <c r="B568" s="7"/>
       <c r="C568" s="7"/>
@@ -15442,7 +15618,7 @@
       <c r="V568" s="7"/>
       <c r="W568" s="7"/>
     </row>
-    <row r="569" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A569" s="1"/>
       <c r="B569" s="7"/>
       <c r="C569" s="7"/>
@@ -15467,7 +15643,7 @@
       <c r="V569" s="7"/>
       <c r="W569" s="7"/>
     </row>
-    <row r="570" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A570" s="1"/>
       <c r="B570" s="7"/>
       <c r="C570" s="7"/>
@@ -15492,7 +15668,7 @@
       <c r="V570" s="7"/>
       <c r="W570" s="7"/>
     </row>
-    <row r="571" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A571" s="1"/>
       <c r="B571" s="7"/>
       <c r="C571" s="7"/>
@@ -15517,7 +15693,7 @@
       <c r="V571" s="7"/>
       <c r="W571" s="7"/>
     </row>
-    <row r="572" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A572" s="1"/>
       <c r="B572" s="7"/>
       <c r="C572" s="7"/>
@@ -15542,7 +15718,7 @@
       <c r="V572" s="7"/>
       <c r="W572" s="7"/>
     </row>
-    <row r="573" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A573" s="1"/>
       <c r="B573" s="7"/>
       <c r="C573" s="7"/>
@@ -15567,7 +15743,7 @@
       <c r="V573" s="7"/>
       <c r="W573" s="7"/>
     </row>
-    <row r="574" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A574" s="1"/>
       <c r="B574" s="7"/>
       <c r="C574" s="7"/>
@@ -15592,7 +15768,7 @@
       <c r="V574" s="7"/>
       <c r="W574" s="7"/>
     </row>
-    <row r="575" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A575" s="1"/>
       <c r="B575" s="7"/>
       <c r="C575" s="7"/>
@@ -15617,7 +15793,7 @@
       <c r="V575" s="7"/>
       <c r="W575" s="7"/>
     </row>
-    <row r="576" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A576" s="1"/>
       <c r="B576" s="7"/>
       <c r="C576" s="7"/>
@@ -15642,7 +15818,7 @@
       <c r="V576" s="7"/>
       <c r="W576" s="7"/>
     </row>
-    <row r="577" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A577" s="1"/>
       <c r="B577" s="7"/>
       <c r="C577" s="7"/>
@@ -15667,7 +15843,7 @@
       <c r="V577" s="7"/>
       <c r="W577" s="7"/>
     </row>
-    <row r="578" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A578" s="1"/>
       <c r="B578" s="7"/>
       <c r="C578" s="7"/>
@@ -15692,7 +15868,7 @@
       <c r="V578" s="7"/>
       <c r="W578" s="7"/>
     </row>
-    <row r="579" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A579" s="1"/>
       <c r="B579" s="7"/>
       <c r="C579" s="7"/>
@@ -15717,7 +15893,7 @@
       <c r="V579" s="7"/>
       <c r="W579" s="7"/>
     </row>
-    <row r="580" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A580" s="1"/>
       <c r="B580" s="7"/>
       <c r="C580" s="7"/>
@@ -15742,7 +15918,7 @@
       <c r="V580" s="7"/>
       <c r="W580" s="7"/>
     </row>
-    <row r="581" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A581" s="1"/>
       <c r="B581" s="7"/>
       <c r="C581" s="7"/>
@@ -15767,7 +15943,7 @@
       <c r="V581" s="7"/>
       <c r="W581" s="7"/>
     </row>
-    <row r="582" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A582" s="1"/>
       <c r="B582" s="7"/>
       <c r="C582" s="7"/>
@@ -15792,7 +15968,7 @@
       <c r="V582" s="7"/>
       <c r="W582" s="7"/>
     </row>
-    <row r="583" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A583" s="1"/>
       <c r="B583" s="7"/>
       <c r="C583" s="7"/>
@@ -15817,7 +15993,7 @@
       <c r="V583" s="7"/>
       <c r="W583" s="7"/>
     </row>
-    <row r="584" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A584" s="1"/>
       <c r="B584" s="7"/>
       <c r="C584" s="7"/>
@@ -15842,7 +16018,7 @@
       <c r="V584" s="7"/>
       <c r="W584" s="7"/>
     </row>
-    <row r="585" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A585" s="1"/>
       <c r="B585" s="7"/>
       <c r="C585" s="7"/>
@@ -15867,7 +16043,7 @@
       <c r="V585" s="7"/>
       <c r="W585" s="7"/>
     </row>
-    <row r="586" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A586" s="1"/>
       <c r="B586" s="7"/>
       <c r="C586" s="7"/>
@@ -15892,7 +16068,7 @@
       <c r="V586" s="7"/>
       <c r="W586" s="7"/>
     </row>
-    <row r="587" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A587" s="1"/>
       <c r="B587" s="7"/>
       <c r="C587" s="7"/>
@@ -15917,7 +16093,7 @@
       <c r="V587" s="7"/>
       <c r="W587" s="7"/>
     </row>
-    <row r="588" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A588" s="1"/>
       <c r="B588" s="7"/>
       <c r="C588" s="7"/>
@@ -15942,7 +16118,7 @@
       <c r="V588" s="7"/>
       <c r="W588" s="7"/>
     </row>
-    <row r="589" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A589" s="1"/>
       <c r="B589" s="7"/>
       <c r="C589" s="7"/>
@@ -15967,7 +16143,7 @@
       <c r="V589" s="7"/>
       <c r="W589" s="7"/>
     </row>
-    <row r="590" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A590" s="1"/>
       <c r="B590" s="7"/>
       <c r="C590" s="7"/>
@@ -15992,7 +16168,7 @@
       <c r="V590" s="7"/>
       <c r="W590" s="7"/>
     </row>
-    <row r="591" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A591" s="1"/>
       <c r="B591" s="7"/>
       <c r="C591" s="7"/>
@@ -16017,7 +16193,7 @@
       <c r="V591" s="7"/>
       <c r="W591" s="7"/>
     </row>
-    <row r="592" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A592" s="1"/>
       <c r="B592" s="7"/>
       <c r="C592" s="7"/>
@@ -16042,7 +16218,7 @@
       <c r="V592" s="7"/>
       <c r="W592" s="7"/>
     </row>
-    <row r="593" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A593" s="1"/>
       <c r="B593" s="7"/>
       <c r="C593" s="7"/>
@@ -16067,7 +16243,7 @@
       <c r="V593" s="7"/>
       <c r="W593" s="7"/>
     </row>
-    <row r="594" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A594" s="1"/>
       <c r="B594" s="7"/>
       <c r="C594" s="7"/>
@@ -16092,7 +16268,7 @@
       <c r="V594" s="7"/>
       <c r="W594" s="7"/>
     </row>
-    <row r="595" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A595" s="1"/>
       <c r="B595" s="7"/>
       <c r="C595" s="7"/>
@@ -16117,7 +16293,7 @@
       <c r="V595" s="7"/>
       <c r="W595" s="7"/>
     </row>
-    <row r="596" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A596" s="1"/>
       <c r="B596" s="7"/>
       <c r="C596" s="7"/>
@@ -16142,7 +16318,7 @@
       <c r="V596" s="7"/>
       <c r="W596" s="7"/>
     </row>
-    <row r="597" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A597" s="1"/>
       <c r="B597" s="7"/>
       <c r="C597" s="7"/>
@@ -16167,7 +16343,7 @@
       <c r="V597" s="7"/>
       <c r="W597" s="7"/>
     </row>
-    <row r="598" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A598" s="1"/>
       <c r="B598" s="7"/>
       <c r="C598" s="7"/>
@@ -16192,7 +16368,7 @@
       <c r="V598" s="7"/>
       <c r="W598" s="7"/>
     </row>
-    <row r="599" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A599" s="1"/>
       <c r="B599" s="7"/>
       <c r="C599" s="7"/>
@@ -16217,7 +16393,7 @@
       <c r="V599" s="7"/>
       <c r="W599" s="7"/>
     </row>
-    <row r="600" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A600" s="1"/>
       <c r="B600" s="7"/>
       <c r="C600" s="7"/>
@@ -16242,7 +16418,7 @@
       <c r="V600" s="7"/>
       <c r="W600" s="7"/>
     </row>
-    <row r="601" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A601" s="1"/>
       <c r="B601" s="7"/>
       <c r="C601" s="7"/>
@@ -16267,7 +16443,7 @@
       <c r="V601" s="7"/>
       <c r="W601" s="7"/>
     </row>
-    <row r="602" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A602" s="1"/>
       <c r="B602" s="7"/>
       <c r="C602" s="7"/>
@@ -16292,7 +16468,7 @@
       <c r="V602" s="7"/>
       <c r="W602" s="7"/>
     </row>
-    <row r="603" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A603" s="1"/>
       <c r="B603" s="7"/>
       <c r="C603" s="7"/>
@@ -16317,7 +16493,7 @@
       <c r="V603" s="7"/>
       <c r="W603" s="7"/>
     </row>
-    <row r="604" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A604" s="1"/>
       <c r="B604" s="7"/>
       <c r="C604" s="7"/>
@@ -16342,7 +16518,7 @@
       <c r="V604" s="7"/>
       <c r="W604" s="7"/>
     </row>
-    <row r="605" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A605" s="1"/>
       <c r="B605" s="7"/>
       <c r="C605" s="7"/>
@@ -16367,7 +16543,7 @@
       <c r="V605" s="7"/>
       <c r="W605" s="7"/>
     </row>
-    <row r="606" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A606" s="1"/>
       <c r="B606" s="7"/>
       <c r="C606" s="7"/>
@@ -16392,7 +16568,7 @@
       <c r="V606" s="7"/>
       <c r="W606" s="7"/>
     </row>
-    <row r="607" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A607" s="1"/>
       <c r="B607" s="7"/>
       <c r="C607" s="7"/>
@@ -16417,7 +16593,7 @@
       <c r="V607" s="7"/>
       <c r="W607" s="7"/>
     </row>
-    <row r="608" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A608" s="1"/>
       <c r="B608" s="7"/>
       <c r="C608" s="7"/>
@@ -16442,7 +16618,7 @@
       <c r="V608" s="7"/>
       <c r="W608" s="7"/>
     </row>
-    <row r="609" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A609" s="1"/>
       <c r="B609" s="7"/>
       <c r="C609" s="7"/>
@@ -16467,7 +16643,7 @@
       <c r="V609" s="7"/>
       <c r="W609" s="7"/>
     </row>
-    <row r="610" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A610" s="1"/>
       <c r="B610" s="7"/>
       <c r="C610" s="7"/>
@@ -16492,7 +16668,7 @@
       <c r="V610" s="7"/>
       <c r="W610" s="7"/>
     </row>
-    <row r="611" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A611" s="1"/>
       <c r="B611" s="7"/>
       <c r="C611" s="7"/>
@@ -16517,7 +16693,7 @@
       <c r="V611" s="7"/>
       <c r="W611" s="7"/>
     </row>
-    <row r="612" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A612" s="1"/>
       <c r="B612" s="7"/>
       <c r="C612" s="7"/>
@@ -16542,7 +16718,7 @@
       <c r="V612" s="7"/>
       <c r="W612" s="7"/>
     </row>
-    <row r="613" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A613" s="1"/>
       <c r="B613" s="7"/>
       <c r="C613" s="7"/>
@@ -16567,7 +16743,7 @@
       <c r="V613" s="7"/>
       <c r="W613" s="7"/>
     </row>
-    <row r="614" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A614" s="1"/>
       <c r="B614" s="7"/>
       <c r="C614" s="7"/>
@@ -16592,7 +16768,7 @@
       <c r="V614" s="7"/>
       <c r="W614" s="7"/>
     </row>
-    <row r="615" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A615" s="1"/>
       <c r="B615" s="7"/>
       <c r="C615" s="7"/>
@@ -16617,7 +16793,7 @@
       <c r="V615" s="7"/>
       <c r="W615" s="7"/>
     </row>
-    <row r="616" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A616" s="1"/>
       <c r="B616" s="7"/>
       <c r="C616" s="7"/>
@@ -16642,7 +16818,7 @@
       <c r="V616" s="7"/>
       <c r="W616" s="7"/>
     </row>
-    <row r="617" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A617" s="1"/>
       <c r="B617" s="7"/>
       <c r="C617" s="7"/>
@@ -16667,7 +16843,7 @@
       <c r="V617" s="7"/>
       <c r="W617" s="7"/>
     </row>
-    <row r="618" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A618" s="1"/>
       <c r="B618" s="7"/>
       <c r="C618" s="7"/>
@@ -16692,7 +16868,7 @@
       <c r="V618" s="7"/>
       <c r="W618" s="7"/>
     </row>
-    <row r="619" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A619" s="1"/>
       <c r="B619" s="7"/>
       <c r="C619" s="7"/>
@@ -16717,7 +16893,7 @@
       <c r="V619" s="7"/>
       <c r="W619" s="7"/>
     </row>
-    <row r="620" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A620" s="1"/>
       <c r="B620" s="7"/>
       <c r="C620" s="7"/>
@@ -16742,7 +16918,7 @@
       <c r="V620" s="7"/>
       <c r="W620" s="7"/>
     </row>
-    <row r="621" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A621" s="1"/>
       <c r="B621" s="7"/>
       <c r="C621" s="7"/>
@@ -16767,7 +16943,7 @@
       <c r="V621" s="7"/>
       <c r="W621" s="7"/>
     </row>
-    <row r="622" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A622" s="1"/>
       <c r="B622" s="7"/>
       <c r="C622" s="7"/>
@@ -16792,7 +16968,7 @@
       <c r="V622" s="7"/>
       <c r="W622" s="7"/>
     </row>
-    <row r="623" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A623" s="1"/>
       <c r="B623" s="7"/>
       <c r="C623" s="7"/>
@@ -16817,7 +16993,7 @@
       <c r="V623" s="7"/>
       <c r="W623" s="7"/>
     </row>
-    <row r="624" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A624" s="1"/>
       <c r="B624" s="7"/>
       <c r="C624" s="7"/>
@@ -16842,7 +17018,7 @@
       <c r="V624" s="7"/>
       <c r="W624" s="7"/>
     </row>
-    <row r="625" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A625" s="1"/>
       <c r="B625" s="7"/>
       <c r="C625" s="7"/>
@@ -16867,7 +17043,7 @@
       <c r="V625" s="7"/>
       <c r="W625" s="7"/>
     </row>
-    <row r="626" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A626" s="1"/>
       <c r="B626" s="7"/>
       <c r="C626" s="7"/>
@@ -16892,7 +17068,7 @@
       <c r="V626" s="7"/>
       <c r="W626" s="7"/>
     </row>
-    <row r="627" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A627" s="1"/>
       <c r="B627" s="7"/>
       <c r="C627" s="7"/>
@@ -16917,7 +17093,7 @@
       <c r="V627" s="7"/>
       <c r="W627" s="7"/>
     </row>
-    <row r="628" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A628" s="1"/>
       <c r="B628" s="7"/>
       <c r="C628" s="7"/>
@@ -16942,7 +17118,7 @@
       <c r="V628" s="7"/>
       <c r="W628" s="7"/>
     </row>
-    <row r="629" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A629" s="1"/>
       <c r="B629" s="7"/>
       <c r="C629" s="7"/>
@@ -16967,7 +17143,7 @@
       <c r="V629" s="7"/>
       <c r="W629" s="7"/>
     </row>
-    <row r="630" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A630" s="1"/>
       <c r="B630" s="7"/>
       <c r="C630" s="7"/>
@@ -16992,7 +17168,7 @@
       <c r="V630" s="7"/>
       <c r="W630" s="7"/>
     </row>
-    <row r="631" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A631" s="1"/>
       <c r="B631" s="7"/>
       <c r="C631" s="7"/>
@@ -17017,7 +17193,7 @@
       <c r="V631" s="7"/>
       <c r="W631" s="7"/>
     </row>
-    <row r="632" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A632" s="1"/>
       <c r="B632" s="7"/>
       <c r="C632" s="7"/>
@@ -17042,7 +17218,7 @@
       <c r="V632" s="7"/>
       <c r="W632" s="7"/>
     </row>
-    <row r="633" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A633" s="1"/>
       <c r="B633" s="7"/>
       <c r="C633" s="7"/>
@@ -17067,7 +17243,7 @@
       <c r="V633" s="7"/>
       <c r="W633" s="7"/>
     </row>
-    <row r="634" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A634" s="1"/>
       <c r="B634" s="7"/>
       <c r="C634" s="7"/>
@@ -17092,7 +17268,7 @@
       <c r="V634" s="7"/>
       <c r="W634" s="7"/>
     </row>
-    <row r="635" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A635" s="1"/>
       <c r="B635" s="7"/>
       <c r="C635" s="7"/>
@@ -17117,7 +17293,7 @@
       <c r="V635" s="7"/>
       <c r="W635" s="7"/>
     </row>
-    <row r="636" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A636" s="1"/>
       <c r="B636" s="7"/>
       <c r="C636" s="7"/>
@@ -17142,7 +17318,7 @@
       <c r="V636" s="7"/>
       <c r="W636" s="7"/>
     </row>
-    <row r="637" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A637" s="1"/>
       <c r="B637" s="7"/>
       <c r="C637" s="7"/>
@@ -17167,7 +17343,7 @@
       <c r="V637" s="7"/>
       <c r="W637" s="7"/>
     </row>
-    <row r="638" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A638" s="1"/>
       <c r="B638" s="7"/>
       <c r="C638" s="7"/>
@@ -17192,7 +17368,7 @@
       <c r="V638" s="7"/>
       <c r="W638" s="7"/>
     </row>
-    <row r="639" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A639" s="1"/>
       <c r="B639" s="7"/>
       <c r="C639" s="7"/>
@@ -17217,7 +17393,7 @@
       <c r="V639" s="7"/>
       <c r="W639" s="7"/>
     </row>
-    <row r="640" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A640" s="1"/>
       <c r="B640" s="7"/>
       <c r="C640" s="7"/>
@@ -17242,7 +17418,7 @@
       <c r="V640" s="7"/>
       <c r="W640" s="7"/>
     </row>
-    <row r="641" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A641" s="1"/>
       <c r="B641" s="7"/>
       <c r="C641" s="7"/>
@@ -17267,7 +17443,7 @@
       <c r="V641" s="7"/>
       <c r="W641" s="7"/>
     </row>
-    <row r="642" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A642" s="1"/>
       <c r="B642" s="7"/>
       <c r="C642" s="7"/>
@@ -17292,7 +17468,7 @@
       <c r="V642" s="7"/>
       <c r="W642" s="7"/>
     </row>
-    <row r="643" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A643" s="1"/>
       <c r="B643" s="7"/>
       <c r="C643" s="7"/>
@@ -17317,7 +17493,7 @@
       <c r="V643" s="7"/>
       <c r="W643" s="7"/>
     </row>
-    <row r="644" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A644" s="1"/>
       <c r="B644" s="7"/>
       <c r="C644" s="7"/>
@@ -17342,7 +17518,7 @@
       <c r="V644" s="7"/>
       <c r="W644" s="7"/>
     </row>
-    <row r="645" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A645" s="1"/>
       <c r="B645" s="7"/>
       <c r="C645" s="7"/>
@@ -17367,7 +17543,7 @@
       <c r="V645" s="7"/>
       <c r="W645" s="7"/>
     </row>
-    <row r="646" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A646" s="1"/>
       <c r="B646" s="7"/>
       <c r="C646" s="7"/>
@@ -17392,7 +17568,7 @@
       <c r="V646" s="7"/>
       <c r="W646" s="7"/>
     </row>
-    <row r="647" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A647" s="1"/>
       <c r="B647" s="7"/>
       <c r="C647" s="7"/>
@@ -17417,7 +17593,7 @@
       <c r="V647" s="7"/>
       <c r="W647" s="7"/>
     </row>
-    <row r="648" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A648" s="1"/>
       <c r="B648" s="7"/>
       <c r="C648" s="7"/>
@@ -17442,7 +17618,7 @@
       <c r="V648" s="7"/>
       <c r="W648" s="7"/>
     </row>
-    <row r="649" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A649" s="1"/>
       <c r="B649" s="7"/>
       <c r="C649" s="7"/>
@@ -17467,7 +17643,7 @@
       <c r="V649" s="7"/>
       <c r="W649" s="7"/>
     </row>
-    <row r="650" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A650" s="1"/>
       <c r="B650" s="7"/>
       <c r="C650" s="7"/>
@@ -17492,7 +17668,7 @@
       <c r="V650" s="7"/>
       <c r="W650" s="7"/>
     </row>
-    <row r="651" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A651" s="1"/>
       <c r="B651" s="7"/>
       <c r="C651" s="7"/>
@@ -17517,7 +17693,7 @@
       <c r="V651" s="7"/>
       <c r="W651" s="7"/>
     </row>
-    <row r="652" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A652" s="1"/>
       <c r="B652" s="7"/>
       <c r="C652" s="7"/>
@@ -17542,7 +17718,7 @@
       <c r="V652" s="7"/>
       <c r="W652" s="7"/>
     </row>
-    <row r="653" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A653" s="1"/>
       <c r="B653" s="7"/>
       <c r="C653" s="7"/>
@@ -17567,7 +17743,7 @@
       <c r="V653" s="7"/>
       <c r="W653" s="7"/>
     </row>
-    <row r="654" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A654" s="1"/>
       <c r="B654" s="7"/>
       <c r="C654" s="7"/>
@@ -17592,7 +17768,7 @@
       <c r="V654" s="7"/>
       <c r="W654" s="7"/>
     </row>
-    <row r="655" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A655" s="1"/>
       <c r="B655" s="7"/>
       <c r="C655" s="7"/>
@@ -17617,7 +17793,7 @@
       <c r="V655" s="7"/>
       <c r="W655" s="7"/>
     </row>
-    <row r="656" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A656" s="1"/>
       <c r="B656" s="7"/>
       <c r="C656" s="7"/>
@@ -17642,7 +17818,7 @@
       <c r="V656" s="7"/>
       <c r="W656" s="7"/>
     </row>
-    <row r="657" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A657" s="1"/>
       <c r="B657" s="7"/>
       <c r="C657" s="7"/>
@@ -17667,7 +17843,7 @@
       <c r="V657" s="7"/>
       <c r="W657" s="7"/>
     </row>
-    <row r="658" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A658" s="1"/>
       <c r="B658" s="7"/>
       <c r="C658" s="7"/>
@@ -17692,7 +17868,7 @@
       <c r="V658" s="7"/>
       <c r="W658" s="7"/>
     </row>
-    <row r="659" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A659" s="1"/>
       <c r="B659" s="7"/>
       <c r="C659" s="7"/>
@@ -17717,7 +17893,7 @@
       <c r="V659" s="7"/>
       <c r="W659" s="7"/>
     </row>
-    <row r="660" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A660" s="1"/>
       <c r="B660" s="7"/>
       <c r="C660" s="7"/>
@@ -17742,7 +17918,7 @@
       <c r="V660" s="7"/>
       <c r="W660" s="7"/>
     </row>
-    <row r="661" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A661" s="1"/>
       <c r="B661" s="7"/>
       <c r="C661" s="7"/>
@@ -17767,7 +17943,7 @@
       <c r="V661" s="7"/>
       <c r="W661" s="7"/>
     </row>
-    <row r="662" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A662" s="1"/>
       <c r="B662" s="7"/>
       <c r="C662" s="7"/>
@@ -17792,7 +17968,7 @@
       <c r="V662" s="7"/>
       <c r="W662" s="7"/>
     </row>
-    <row r="663" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A663" s="1"/>
       <c r="B663" s="7"/>
       <c r="C663" s="7"/>
@@ -17817,7 +17993,7 @@
       <c r="V663" s="7"/>
       <c r="W663" s="7"/>
     </row>
-    <row r="664" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A664" s="1"/>
       <c r="B664" s="7"/>
       <c r="C664" s="7"/>
@@ -17842,7 +18018,7 @@
       <c r="V664" s="7"/>
       <c r="W664" s="7"/>
     </row>
-    <row r="665" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A665" s="1"/>
       <c r="B665" s="7"/>
       <c r="C665" s="7"/>
@@ -17867,7 +18043,7 @@
       <c r="V665" s="7"/>
       <c r="W665" s="7"/>
     </row>
-    <row r="666" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A666" s="1"/>
       <c r="B666" s="7"/>
       <c r="C666" s="7"/>
@@ -17892,7 +18068,7 @@
       <c r="V666" s="7"/>
       <c r="W666" s="7"/>
     </row>
-    <row r="667" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A667" s="1"/>
       <c r="B667" s="7"/>
       <c r="C667" s="7"/>
@@ -17917,7 +18093,7 @@
       <c r="V667" s="7"/>
       <c r="W667" s="7"/>
     </row>
-    <row r="668" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A668" s="1"/>
       <c r="B668" s="7"/>
       <c r="C668" s="7"/>
@@ -17942,7 +18118,7 @@
       <c r="V668" s="7"/>
       <c r="W668" s="7"/>
     </row>
-    <row r="669" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A669" s="1"/>
       <c r="B669" s="7"/>
       <c r="C669" s="7"/>
@@ -17967,7 +18143,7 @@
       <c r="V669" s="7"/>
       <c r="W669" s="7"/>
     </row>
-    <row r="670" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A670" s="1"/>
       <c r="B670" s="7"/>
       <c r="C670" s="7"/>
@@ -17992,7 +18168,7 @@
       <c r="V670" s="7"/>
       <c r="W670" s="7"/>
     </row>
-    <row r="671" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A671" s="1"/>
       <c r="B671" s="7"/>
       <c r="C671" s="7"/>
@@ -18017,7 +18193,7 @@
       <c r="V671" s="7"/>
       <c r="W671" s="7"/>
     </row>
-    <row r="672" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A672" s="1"/>
       <c r="B672" s="7"/>
       <c r="C672" s="7"/>
@@ -18042,7 +18218,7 @@
       <c r="V672" s="7"/>
       <c r="W672" s="7"/>
     </row>
-    <row r="673" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A673" s="1"/>
       <c r="B673" s="7"/>
       <c r="C673" s="7"/>
@@ -18067,7 +18243,7 @@
       <c r="V673" s="7"/>
       <c r="W673" s="7"/>
     </row>
-    <row r="674" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A674" s="1"/>
       <c r="B674" s="7"/>
       <c r="C674" s="7"/>
@@ -18092,7 +18268,7 @@
       <c r="V674" s="7"/>
       <c r="W674" s="7"/>
     </row>
-    <row r="675" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A675" s="1"/>
       <c r="B675" s="7"/>
       <c r="C675" s="7"/>
@@ -18117,7 +18293,7 @@
       <c r="V675" s="7"/>
       <c r="W675" s="7"/>
     </row>
-    <row r="676" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A676" s="1"/>
       <c r="B676" s="7"/>
       <c r="C676" s="7"/>
@@ -18142,7 +18318,7 @@
       <c r="V676" s="7"/>
       <c r="W676" s="7"/>
     </row>
-    <row r="677" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A677" s="1"/>
       <c r="B677" s="7"/>
       <c r="C677" s="7"/>
@@ -18167,7 +18343,7 @@
       <c r="V677" s="7"/>
       <c r="W677" s="7"/>
     </row>
-    <row r="678" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A678" s="1"/>
       <c r="B678" s="7"/>
       <c r="C678" s="7"/>
@@ -18192,7 +18368,7 @@
       <c r="V678" s="7"/>
       <c r="W678" s="7"/>
     </row>
-    <row r="679" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A679" s="1"/>
       <c r="B679" s="7"/>
       <c r="C679" s="7"/>
@@ -18217,7 +18393,7 @@
       <c r="V679" s="7"/>
       <c r="W679" s="7"/>
     </row>
-    <row r="680" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A680" s="1"/>
       <c r="B680" s="7"/>
       <c r="C680" s="7"/>
@@ -18242,7 +18418,7 @@
       <c r="V680" s="7"/>
       <c r="W680" s="7"/>
     </row>
-    <row r="681" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A681" s="1"/>
       <c r="B681" s="7"/>
       <c r="C681" s="7"/>
@@ -18267,7 +18443,7 @@
       <c r="V681" s="7"/>
       <c r="W681" s="7"/>
     </row>
-    <row r="682" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A682" s="1"/>
       <c r="B682" s="7"/>
       <c r="C682" s="7"/>
@@ -18292,7 +18468,7 @@
       <c r="V682" s="7"/>
       <c r="W682" s="7"/>
     </row>
-    <row r="683" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A683" s="1"/>
       <c r="B683" s="7"/>
       <c r="C683" s="7"/>
@@ -18317,7 +18493,7 @@
       <c r="V683" s="7"/>
       <c r="W683" s="7"/>
     </row>
-    <row r="684" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A684" s="1"/>
       <c r="B684" s="7"/>
       <c r="C684" s="7"/>
@@ -18342,7 +18518,7 @@
       <c r="V684" s="7"/>
       <c r="W684" s="7"/>
     </row>
-    <row r="685" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A685" s="1"/>
       <c r="B685" s="7"/>
       <c r="C685" s="7"/>
@@ -18367,7 +18543,7 @@
       <c r="V685" s="7"/>
       <c r="W685" s="7"/>
     </row>
-    <row r="686" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A686" s="1"/>
       <c r="B686" s="7"/>
       <c r="C686" s="7"/>
@@ -18392,7 +18568,7 @@
       <c r="V686" s="7"/>
       <c r="W686" s="7"/>
     </row>
-    <row r="687" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A687" s="1"/>
       <c r="B687" s="7"/>
       <c r="C687" s="7"/>
@@ -18417,7 +18593,7 @@
       <c r="V687" s="7"/>
       <c r="W687" s="7"/>
     </row>
-    <row r="688" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A688" s="1"/>
       <c r="B688" s="7"/>
       <c r="C688" s="7"/>
@@ -18442,7 +18618,7 @@
       <c r="V688" s="7"/>
       <c r="W688" s="7"/>
     </row>
-    <row r="689" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A689" s="1"/>
       <c r="B689" s="7"/>
       <c r="C689" s="7"/>
@@ -18467,7 +18643,7 @@
       <c r="V689" s="7"/>
       <c r="W689" s="7"/>
     </row>
-    <row r="690" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A690" s="1"/>
       <c r="B690" s="7"/>
       <c r="C690" s="7"/>
@@ -18492,7 +18668,7 @@
       <c r="V690" s="7"/>
       <c r="W690" s="7"/>
     </row>
-    <row r="691" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A691" s="1"/>
       <c r="B691" s="7"/>
       <c r="C691" s="7"/>
@@ -18517,7 +18693,7 @@
       <c r="V691" s="7"/>
       <c r="W691" s="7"/>
     </row>
-    <row r="692" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A692" s="1"/>
       <c r="B692" s="7"/>
       <c r="C692" s="7"/>
@@ -18542,7 +18718,7 @@
       <c r="V692" s="7"/>
       <c r="W692" s="7"/>
     </row>
-    <row r="693" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A693" s="1"/>
       <c r="B693" s="7"/>
       <c r="C693" s="7"/>
@@ -18567,7 +18743,7 @@
       <c r="V693" s="7"/>
       <c r="W693" s="7"/>
     </row>
-    <row r="694" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A694" s="1"/>
       <c r="B694" s="7"/>
       <c r="C694" s="7"/>
@@ -18592,7 +18768,7 @@
       <c r="V694" s="7"/>
       <c r="W694" s="7"/>
     </row>
-    <row r="695" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A695" s="1"/>
       <c r="B695" s="7"/>
       <c r="C695" s="7"/>
@@ -18617,7 +18793,7 @@
       <c r="V695" s="7"/>
       <c r="W695" s="7"/>
     </row>
-    <row r="696" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A696" s="1"/>
       <c r="B696" s="7"/>
       <c r="C696" s="7"/>
@@ -18642,7 +18818,7 @@
       <c r="V696" s="7"/>
       <c r="W696" s="7"/>
     </row>
-    <row r="697" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A697" s="1"/>
       <c r="B697" s="7"/>
       <c r="C697" s="7"/>
@@ -18667,7 +18843,7 @@
       <c r="V697" s="7"/>
       <c r="W697" s="7"/>
     </row>
-    <row r="698" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A698" s="1"/>
       <c r="B698" s="7"/>
       <c r="C698" s="7"/>
@@ -18692,7 +18868,7 @@
       <c r="V698" s="7"/>
       <c r="W698" s="7"/>
     </row>
-    <row r="699" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A699" s="1"/>
       <c r="B699" s="7"/>
       <c r="C699" s="7"/>
@@ -18717,7 +18893,7 @@
       <c r="V699" s="7"/>
       <c r="W699" s="7"/>
     </row>
-    <row r="700" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A700" s="1"/>
       <c r="B700" s="7"/>
       <c r="C700" s="7"/>
@@ -18742,7 +18918,7 @@
       <c r="V700" s="7"/>
       <c r="W700" s="7"/>
     </row>
-    <row r="701" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A701" s="1"/>
       <c r="B701" s="7"/>
       <c r="C701" s="7"/>
@@ -18767,7 +18943,7 @@
       <c r="V701" s="7"/>
       <c r="W701" s="7"/>
     </row>
-    <row r="702" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A702" s="1"/>
       <c r="B702" s="7"/>
       <c r="C702" s="7"/>
@@ -18792,7 +18968,7 @@
       <c r="V702" s="7"/>
       <c r="W702" s="7"/>
     </row>
-    <row r="703" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A703" s="1"/>
       <c r="B703" s="7"/>
       <c r="C703" s="7"/>
@@ -18817,7 +18993,7 @@
       <c r="V703" s="7"/>
       <c r="W703" s="7"/>
     </row>
-    <row r="704" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A704" s="1"/>
       <c r="B704" s="7"/>
       <c r="C704" s="7"/>
@@ -18842,7 +19018,7 @@
       <c r="V704" s="7"/>
       <c r="W704" s="7"/>
     </row>
-    <row r="705" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A705" s="1"/>
       <c r="B705" s="7"/>
       <c r="C705" s="7"/>
@@ -18867,7 +19043,7 @@
       <c r="V705" s="7"/>
       <c r="W705" s="7"/>
     </row>
-    <row r="706" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A706" s="1"/>
       <c r="B706" s="7"/>
       <c r="C706" s="7"/>
@@ -18892,7 +19068,7 @@
       <c r="V706" s="7"/>
       <c r="W706" s="7"/>
     </row>
-    <row r="707" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A707" s="1"/>
       <c r="B707" s="7"/>
       <c r="C707" s="7"/>
@@ -18917,7 +19093,7 @@
       <c r="V707" s="7"/>
       <c r="W707" s="7"/>
     </row>
-    <row r="708" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A708" s="1"/>
       <c r="B708" s="7"/>
       <c r="C708" s="7"/>
@@ -18942,7 +19118,7 @@
       <c r="V708" s="7"/>
       <c r="W708" s="7"/>
     </row>
-    <row r="709" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A709" s="1"/>
       <c r="B709" s="7"/>
       <c r="C709" s="7"/>
@@ -18967,7 +19143,7 @@
       <c r="V709" s="7"/>
       <c r="W709" s="7"/>
     </row>
-    <row r="710" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A710" s="1"/>
       <c r="B710" s="7"/>
       <c r="C710" s="7"/>
@@ -18992,7 +19168,7 @@
       <c r="V710" s="7"/>
       <c r="W710" s="7"/>
     </row>
-    <row r="711" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A711" s="1"/>
       <c r="B711" s="7"/>
       <c r="C711" s="7"/>
@@ -19017,7 +19193,7 @@
       <c r="V711" s="7"/>
       <c r="W711" s="7"/>
     </row>
-    <row r="712" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A712" s="1"/>
       <c r="B712" s="7"/>
       <c r="C712" s="7"/>
@@ -19042,7 +19218,7 @@
       <c r="V712" s="7"/>
       <c r="W712" s="7"/>
     </row>
-    <row r="713" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A713" s="1"/>
       <c r="B713" s="7"/>
       <c r="C713" s="7"/>
@@ -19067,7 +19243,7 @@
       <c r="V713" s="7"/>
       <c r="W713" s="7"/>
     </row>
-    <row r="714" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A714" s="1"/>
       <c r="B714" s="7"/>
       <c r="C714" s="7"/>
@@ -19092,7 +19268,7 @@
       <c r="V714" s="7"/>
       <c r="W714" s="7"/>
     </row>
-    <row r="715" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A715" s="1"/>
       <c r="B715" s="7"/>
       <c r="C715" s="7"/>
@@ -19117,7 +19293,7 @@
       <c r="V715" s="7"/>
       <c r="W715" s="7"/>
     </row>
-    <row r="716" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A716" s="1"/>
       <c r="B716" s="7"/>
       <c r="C716" s="7"/>
@@ -19142,7 +19318,7 @@
       <c r="V716" s="7"/>
       <c r="W716" s="7"/>
     </row>
-    <row r="717" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A717" s="1"/>
       <c r="B717" s="7"/>
       <c r="C717" s="7"/>
@@ -19167,7 +19343,7 @@
       <c r="V717" s="7"/>
       <c r="W717" s="7"/>
     </row>
-    <row r="718" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A718" s="1"/>
       <c r="B718" s="7"/>
       <c r="C718" s="7"/>
@@ -19192,7 +19368,7 @@
       <c r="V718" s="7"/>
       <c r="W718" s="7"/>
     </row>
-    <row r="719" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A719" s="1"/>
       <c r="B719" s="7"/>
       <c r="C719" s="7"/>
@@ -19217,7 +19393,7 @@
       <c r="V719" s="7"/>
       <c r="W719" s="7"/>
     </row>
-    <row r="720" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A720" s="1"/>
       <c r="B720" s="7"/>
       <c r="C720" s="7"/>
@@ -19242,7 +19418,7 @@
       <c r="V720" s="7"/>
       <c r="W720" s="7"/>
     </row>
-    <row r="721" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A721" s="1"/>
       <c r="B721" s="7"/>
       <c r="C721" s="7"/>
@@ -19267,7 +19443,7 @@
       <c r="V721" s="7"/>
       <c r="W721" s="7"/>
     </row>
-    <row r="722" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A722" s="1"/>
       <c r="B722" s="7"/>
       <c r="C722" s="7"/>
@@ -19292,7 +19468,7 @@
       <c r="V722" s="7"/>
       <c r="W722" s="7"/>
     </row>
-    <row r="723" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A723" s="1"/>
       <c r="B723" s="7"/>
       <c r="C723" s="7"/>
@@ -19317,7 +19493,7 @@
       <c r="V723" s="7"/>
       <c r="W723" s="7"/>
     </row>
-    <row r="724" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A724" s="1"/>
       <c r="B724" s="7"/>
       <c r="C724" s="7"/>
@@ -19342,7 +19518,7 @@
       <c r="V724" s="7"/>
       <c r="W724" s="7"/>
     </row>
-    <row r="725" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A725" s="1"/>
       <c r="B725" s="7"/>
       <c r="C725" s="7"/>
@@ -19367,7 +19543,7 @@
       <c r="V725" s="7"/>
       <c r="W725" s="7"/>
     </row>
-    <row r="726" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A726" s="1"/>
       <c r="B726" s="7"/>
       <c r="C726" s="7"/>
@@ -19392,7 +19568,7 @@
       <c r="V726" s="7"/>
       <c r="W726" s="7"/>
     </row>
-    <row r="727" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A727" s="1"/>
       <c r="B727" s="7"/>
       <c r="C727" s="7"/>
@@ -19417,7 +19593,7 @@
       <c r="V727" s="7"/>
       <c r="W727" s="7"/>
     </row>
-    <row r="728" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A728" s="1"/>
       <c r="B728" s="7"/>
       <c r="C728" s="7"/>
@@ -19442,7 +19618,7 @@
       <c r="V728" s="7"/>
       <c r="W728" s="7"/>
     </row>
-    <row r="729" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A729" s="1"/>
       <c r="B729" s="7"/>
       <c r="C729" s="7"/>
@@ -19467,7 +19643,7 @@
       <c r="V729" s="7"/>
       <c r="W729" s="7"/>
     </row>
-    <row r="730" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A730" s="1"/>
       <c r="B730" s="7"/>
       <c r="C730" s="7"/>
@@ -19492,7 +19668,7 @@
       <c r="V730" s="7"/>
       <c r="W730" s="7"/>
     </row>
-    <row r="731" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A731" s="1"/>
       <c r="B731" s="7"/>
       <c r="C731" s="7"/>
@@ -19517,7 +19693,7 @@
       <c r="V731" s="7"/>
       <c r="W731" s="7"/>
     </row>
-    <row r="732" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A732" s="1"/>
       <c r="B732" s="7"/>
       <c r="C732" s="7"/>
@@ -19542,7 +19718,7 @@
       <c r="V732" s="7"/>
       <c r="W732" s="7"/>
     </row>
-    <row r="733" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A733" s="1"/>
       <c r="B733" s="7"/>
       <c r="C733" s="7"/>
@@ -19567,7 +19743,7 @@
       <c r="V733" s="7"/>
       <c r="W733" s="7"/>
     </row>
-    <row r="734" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A734" s="1"/>
       <c r="B734" s="7"/>
       <c r="C734" s="7"/>
@@ -19592,7 +19768,7 @@
       <c r="V734" s="7"/>
       <c r="W734" s="7"/>
     </row>
-    <row r="735" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A735" s="1"/>
       <c r="B735" s="7"/>
       <c r="C735" s="7"/>
@@ -19617,7 +19793,7 @@
       <c r="V735" s="7"/>
       <c r="W735" s="7"/>
     </row>
-    <row r="736" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A736" s="1"/>
       <c r="B736" s="7"/>
       <c r="C736" s="7"/>
@@ -19642,7 +19818,7 @@
       <c r="V736" s="7"/>
       <c r="W736" s="7"/>
     </row>
-    <row r="737" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A737" s="1"/>
       <c r="B737" s="7"/>
       <c r="C737" s="7"/>
@@ -19667,7 +19843,7 @@
       <c r="V737" s="7"/>
       <c r="W737" s="7"/>
     </row>
-    <row r="738" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A738" s="1"/>
       <c r="B738" s="7"/>
       <c r="C738" s="7"/>
@@ -19692,7 +19868,7 @@
       <c r="V738" s="7"/>
       <c r="W738" s="7"/>
     </row>
-    <row r="739" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A739" s="1"/>
       <c r="B739" s="7"/>
       <c r="C739" s="7"/>
@@ -19717,7 +19893,7 @@
       <c r="V739" s="7"/>
       <c r="W739" s="7"/>
     </row>
-    <row r="740" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A740" s="1"/>
       <c r="B740" s="7"/>
       <c r="C740" s="7"/>
@@ -19742,7 +19918,7 @@
       <c r="V740" s="7"/>
       <c r="W740" s="7"/>
     </row>
-    <row r="741" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A741" s="1"/>
       <c r="B741" s="7"/>
       <c r="C741" s="7"/>
@@ -19767,7 +19943,7 @@
       <c r="V741" s="7"/>
       <c r="W741" s="7"/>
     </row>
-    <row r="742" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A742" s="1"/>
       <c r="B742" s="7"/>
       <c r="C742" s="7"/>
@@ -19792,7 +19968,7 @@
       <c r="V742" s="7"/>
       <c r="W742" s="7"/>
     </row>
-    <row r="743" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A743" s="1"/>
       <c r="B743" s="7"/>
       <c r="C743" s="7"/>
@@ -19817,7 +19993,7 @@
       <c r="V743" s="7"/>
       <c r="W743" s="7"/>
     </row>
-    <row r="744" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A744" s="1"/>
       <c r="B744" s="7"/>
       <c r="C744" s="7"/>
@@ -19842,7 +20018,7 @@
       <c r="V744" s="7"/>
       <c r="W744" s="7"/>
     </row>
-    <row r="745" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A745" s="1"/>
       <c r="B745" s="7"/>
       <c r="C745" s="7"/>
@@ -19867,7 +20043,7 @@
       <c r="V745" s="7"/>
       <c r="W745" s="7"/>
     </row>
-    <row r="746" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A746" s="1"/>
       <c r="B746" s="7"/>
       <c r="C746" s="7"/>
@@ -19892,7 +20068,7 @@
       <c r="V746" s="7"/>
       <c r="W746" s="7"/>
     </row>
-    <row r="747" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A747" s="1"/>
       <c r="B747" s="7"/>
       <c r="C747" s="7"/>
@@ -19917,7 +20093,7 @@
       <c r="V747" s="7"/>
       <c r="W747" s="7"/>
     </row>
-    <row r="748" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A748" s="1"/>
       <c r="B748" s="7"/>
       <c r="C748" s="7"/>
@@ -19942,7 +20118,7 @@
       <c r="V748" s="7"/>
       <c r="W748" s="7"/>
     </row>
-    <row r="749" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A749" s="1"/>
       <c r="B749" s="7"/>
       <c r="C749" s="7"/>
@@ -19967,7 +20143,7 @@
       <c r="V749" s="7"/>
       <c r="W749" s="7"/>
     </row>
-    <row r="750" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A750" s="1"/>
       <c r="B750" s="7"/>
       <c r="C750" s="7"/>
@@ -19992,7 +20168,7 @@
       <c r="V750" s="7"/>
       <c r="W750" s="7"/>
     </row>
-    <row r="751" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A751" s="1"/>
       <c r="B751" s="7"/>
       <c r="C751" s="7"/>
@@ -20017,7 +20193,7 @@
       <c r="V751" s="7"/>
       <c r="W751" s="7"/>
     </row>
-    <row r="752" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A752" s="1"/>
       <c r="B752" s="7"/>
       <c r="C752" s="7"/>
@@ -20042,7 +20218,7 @@
       <c r="V752" s="7"/>
       <c r="W752" s="7"/>
     </row>
-    <row r="753" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A753" s="1"/>
       <c r="B753" s="7"/>
       <c r="C753" s="7"/>
@@ -20067,7 +20243,7 @@
       <c r="V753" s="7"/>
       <c r="W753" s="7"/>
     </row>
-    <row r="754" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A754" s="1"/>
       <c r="B754" s="7"/>
       <c r="C754" s="7"/>
@@ -20092,7 +20268,7 @@
       <c r="V754" s="7"/>
       <c r="W754" s="7"/>
     </row>
-    <row r="755" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A755" s="1"/>
       <c r="B755" s="7"/>
       <c r="C755" s="7"/>
@@ -20117,7 +20293,7 @@
       <c r="V755" s="7"/>
       <c r="W755" s="7"/>
     </row>
-    <row r="756" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A756" s="1"/>
       <c r="B756" s="7"/>
       <c r="C756" s="7"/>
@@ -20142,7 +20318,7 @@
       <c r="V756" s="7"/>
       <c r="W756" s="7"/>
     </row>
-    <row r="757" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A757" s="1"/>
       <c r="B757" s="7"/>
       <c r="C757" s="7"/>
@@ -20167,7 +20343,7 @@
       <c r="V757" s="7"/>
       <c r="W757" s="7"/>
     </row>
-    <row r="758" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A758" s="1"/>
       <c r="B758" s="7"/>
       <c r="C758" s="7"/>
@@ -20192,7 +20368,7 @@
       <c r="V758" s="7"/>
       <c r="W758" s="7"/>
     </row>
-    <row r="759" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A759" s="1"/>
       <c r="B759" s="7"/>
       <c r="C759" s="7"/>
@@ -20217,7 +20393,7 @@
       <c r="V759" s="7"/>
       <c r="W759" s="7"/>
     </row>
-    <row r="760" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A760" s="1"/>
       <c r="B760" s="7"/>
       <c r="C760" s="7"/>
@@ -20242,7 +20418,7 @@
       <c r="V760" s="7"/>
       <c r="W760" s="7"/>
     </row>
-    <row r="761" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A761" s="1"/>
       <c r="B761" s="7"/>
       <c r="C761" s="7"/>
@@ -20267,7 +20443,7 @@
       <c r="V761" s="7"/>
       <c r="W761" s="7"/>
     </row>
-    <row r="762" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A762" s="1"/>
       <c r="B762" s="7"/>
       <c r="C762" s="7"/>
@@ -20292,7 +20468,7 @@
       <c r="V762" s="7"/>
       <c r="W762" s="7"/>
     </row>
-    <row r="763" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A763" s="1"/>
       <c r="B763" s="7"/>
       <c r="C763" s="7"/>
@@ -20317,7 +20493,7 @@
       <c r="V763" s="7"/>
       <c r="W763" s="7"/>
     </row>
-    <row r="764" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A764" s="1"/>
       <c r="B764" s="7"/>
       <c r="C764" s="7"/>
@@ -20342,7 +20518,7 @@
       <c r="V764" s="7"/>
       <c r="W764" s="7"/>
     </row>
-    <row r="765" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A765" s="1"/>
       <c r="B765" s="7"/>
       <c r="C765" s="7"/>
@@ -20367,7 +20543,7 @@
       <c r="V765" s="7"/>
       <c r="W765" s="7"/>
     </row>
-    <row r="766" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A766" s="1"/>
       <c r="B766" s="7"/>
       <c r="C766" s="7"/>
@@ -20392,7 +20568,7 @@
       <c r="V766" s="7"/>
       <c r="W766" s="7"/>
     </row>
-    <row r="767" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A767" s="1"/>
       <c r="B767" s="7"/>
       <c r="C767" s="7"/>
@@ -20417,7 +20593,7 @@
       <c r="V767" s="7"/>
       <c r="W767" s="7"/>
     </row>
-    <row r="768" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A768" s="1"/>
       <c r="B768" s="7"/>
       <c r="C768" s="7"/>
@@ -20442,7 +20618,7 @@
       <c r="V768" s="7"/>
       <c r="W768" s="7"/>
     </row>
-    <row r="769" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A769" s="1"/>
       <c r="B769" s="7"/>
       <c r="C769" s="7"/>
@@ -20467,7 +20643,7 @@
       <c r="V769" s="7"/>
       <c r="W769" s="7"/>
     </row>
-    <row r="770" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A770" s="1"/>
       <c r="B770" s="7"/>
       <c r="C770" s="7"/>
@@ -20492,7 +20668,7 @@
       <c r="V770" s="7"/>
       <c r="W770" s="7"/>
     </row>
-    <row r="771" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A771" s="1"/>
       <c r="B771" s="7"/>
       <c r="C771" s="7"/>
@@ -20517,7 +20693,7 @@
       <c r="V771" s="7"/>
       <c r="W771" s="7"/>
     </row>
-    <row r="772" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A772" s="1"/>
       <c r="B772" s="7"/>
       <c r="C772" s="7"/>
@@ -20542,7 +20718,7 @@
       <c r="V772" s="7"/>
       <c r="W772" s="7"/>
     </row>
-    <row r="773" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A773" s="1"/>
       <c r="B773" s="7"/>
       <c r="C773" s="7"/>
@@ -20567,7 +20743,7 @@
       <c r="V773" s="7"/>
       <c r="W773" s="7"/>
     </row>
-    <row r="774" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A774" s="1"/>
       <c r="B774" s="7"/>
       <c r="C774" s="7"/>
@@ -20592,7 +20768,7 @@
       <c r="V774" s="7"/>
       <c r="W774" s="7"/>
     </row>
-    <row r="775" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A775" s="1"/>
       <c r="B775" s="7"/>
       <c r="C775" s="7"/>
@@ -20617,7 +20793,7 @@
       <c r="V775" s="7"/>
       <c r="W775" s="7"/>
     </row>
-    <row r="776" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A776" s="1"/>
       <c r="B776" s="7"/>
       <c r="C776" s="7"/>
@@ -20642,7 +20818,7 @@
       <c r="V776" s="7"/>
       <c r="W776" s="7"/>
     </row>
-    <row r="777" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A777" s="1"/>
       <c r="B777" s="7"/>
       <c r="C777" s="7"/>
@@ -20667,7 +20843,7 @@
       <c r="V777" s="7"/>
       <c r="W777" s="7"/>
     </row>
-    <row r="778" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A778" s="1"/>
       <c r="B778" s="7"/>
       <c r="C778" s="7"/>
@@ -20692,7 +20868,7 @@
       <c r="V778" s="7"/>
       <c r="W778" s="7"/>
     </row>
-    <row r="779" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A779" s="1"/>
       <c r="B779" s="7"/>
       <c r="C779" s="7"/>
@@ -20717,7 +20893,7 @@
       <c r="V779" s="7"/>
       <c r="W779" s="7"/>
     </row>
-    <row r="780" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A780" s="1"/>
       <c r="B780" s="7"/>
       <c r="C780" s="7"/>
@@ -20742,7 +20918,7 @@
       <c r="V780" s="7"/>
       <c r="W780" s="7"/>
     </row>
-    <row r="781" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A781" s="1"/>
       <c r="B781" s="7"/>
       <c r="C781" s="7"/>
@@ -20767,7 +20943,7 @@
       <c r="V781" s="7"/>
       <c r="W781" s="7"/>
     </row>
-    <row r="782" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A782" s="1"/>
       <c r="B782" s="7"/>
       <c r="C782" s="7"/>
@@ -20792,7 +20968,7 @@
       <c r="V782" s="7"/>
       <c r="W782" s="7"/>
     </row>
-    <row r="783" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A783" s="1"/>
       <c r="B783" s="7"/>
       <c r="C783" s="7"/>
@@ -20817,7 +20993,7 @@
       <c r="V783" s="7"/>
       <c r="W783" s="7"/>
     </row>
-    <row r="784" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A784" s="1"/>
       <c r="B784" s="7"/>
       <c r="C784" s="7"/>
@@ -20842,7 +21018,7 @@
       <c r="V784" s="7"/>
       <c r="W784" s="7"/>
     </row>
-    <row r="785" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A785" s="1"/>
       <c r="B785" s="7"/>
       <c r="C785" s="7"/>
@@ -20867,7 +21043,7 @@
       <c r="V785" s="7"/>
       <c r="W785" s="7"/>
     </row>
-    <row r="786" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A786" s="1"/>
       <c r="B786" s="7"/>
       <c r="C786" s="7"/>
@@ -20892,7 +21068,7 @@
       <c r="V786" s="7"/>
       <c r="W786" s="7"/>
     </row>
-    <row r="787" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A787" s="1"/>
       <c r="B787" s="7"/>
       <c r="C787" s="7"/>
@@ -20917,7 +21093,7 @@
       <c r="V787" s="7"/>
       <c r="W787" s="7"/>
     </row>
-    <row r="788" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A788" s="1"/>
       <c r="B788" s="7"/>
       <c r="C788" s="7"/>
@@ -20942,7 +21118,7 @@
       <c r="V788" s="7"/>
       <c r="W788" s="7"/>
     </row>
-    <row r="789" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A789" s="1"/>
       <c r="B789" s="7"/>
       <c r="C789" s="7"/>
@@ -20967,7 +21143,7 @@
       <c r="V789" s="7"/>
       <c r="W789" s="7"/>
     </row>
-    <row r="790" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A790" s="1"/>
       <c r="B790" s="7"/>
       <c r="C790" s="7"/>
@@ -20992,7 +21168,7 @@
       <c r="V790" s="7"/>
       <c r="W790" s="7"/>
     </row>
-    <row r="791" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A791" s="1"/>
       <c r="B791" s="7"/>
       <c r="C791" s="7"/>
@@ -21017,7 +21193,7 @@
       <c r="V791" s="7"/>
       <c r="W791" s="7"/>
     </row>
-    <row r="792" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A792" s="1"/>
       <c r="B792" s="7"/>
       <c r="C792" s="7"/>
@@ -21042,7 +21218,7 @@
       <c r="V792" s="7"/>
       <c r="W792" s="7"/>
     </row>
-    <row r="793" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A793" s="1"/>
       <c r="B793" s="7"/>
       <c r="C793" s="7"/>
@@ -21067,7 +21243,7 @@
       <c r="V793" s="7"/>
       <c r="W793" s="7"/>
     </row>
-    <row r="794" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A794" s="1"/>
       <c r="B794" s="7"/>
       <c r="C794" s="7"/>
@@ -21092,7 +21268,7 @@
       <c r="V794" s="7"/>
       <c r="W794" s="7"/>
     </row>
-    <row r="795" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A795" s="1"/>
       <c r="B795" s="7"/>
       <c r="C795" s="7"/>
@@ -21117,7 +21293,7 @@
       <c r="V795" s="7"/>
       <c r="W795" s="7"/>
     </row>
-    <row r="796" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A796" s="1"/>
       <c r="B796" s="7"/>
       <c r="C796" s="7"/>
@@ -21142,7 +21318,7 @@
       <c r="V796" s="7"/>
       <c r="W796" s="7"/>
     </row>
-    <row r="797" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A797" s="1"/>
       <c r="B797" s="7"/>
       <c r="C797" s="7"/>
@@ -21167,7 +21343,7 @@
       <c r="V797" s="7"/>
       <c r="W797" s="7"/>
     </row>
-    <row r="798" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A798" s="1"/>
       <c r="B798" s="7"/>
       <c r="C798" s="7"/>
@@ -21192,7 +21368,7 @@
       <c r="V798" s="7"/>
       <c r="W798" s="7"/>
     </row>
-    <row r="799" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A799" s="1"/>
       <c r="B799" s="7"/>
       <c r="C799" s="7"/>
@@ -21217,7 +21393,7 @@
       <c r="V799" s="7"/>
       <c r="W799" s="7"/>
     </row>
-    <row r="800" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A800" s="1"/>
       <c r="B800" s="7"/>
       <c r="C800" s="7"/>
@@ -21242,7 +21418,7 @@
       <c r="V800" s="7"/>
       <c r="W800" s="7"/>
     </row>
-    <row r="801" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A801" s="1"/>
       <c r="B801" s="7"/>
       <c r="C801" s="7"/>
@@ -21267,7 +21443,7 @@
       <c r="V801" s="7"/>
       <c r="W801" s="7"/>
     </row>
-    <row r="802" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A802" s="1"/>
       <c r="B802" s="7"/>
       <c r="C802" s="7"/>
@@ -21292,7 +21468,7 @@
       <c r="V802" s="7"/>
       <c r="W802" s="7"/>
     </row>
-    <row r="803" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A803" s="1"/>
       <c r="B803" s="7"/>
       <c r="C803" s="7"/>
@@ -21317,7 +21493,7 @@
       <c r="V803" s="7"/>
       <c r="W803" s="7"/>
     </row>
-    <row r="804" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A804" s="1"/>
       <c r="B804" s="7"/>
       <c r="C804" s="7"/>
@@ -21342,7 +21518,7 @@
       <c r="V804" s="7"/>
       <c r="W804" s="7"/>
     </row>
-    <row r="805" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A805" s="1"/>
       <c r="B805" s="7"/>
       <c r="C805" s="7"/>
@@ -21367,7 +21543,7 @@
       <c r="V805" s="7"/>
       <c r="W805" s="7"/>
     </row>
-    <row r="806" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A806" s="1"/>
       <c r="B806" s="7"/>
       <c r="C806" s="7"/>
@@ -21392,7 +21568,7 @@
       <c r="V806" s="7"/>
       <c r="W806" s="7"/>
     </row>
-    <row r="807" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A807" s="1"/>
       <c r="B807" s="7"/>
       <c r="C807" s="7"/>
@@ -21417,7 +21593,7 @@
       <c r="V807" s="7"/>
       <c r="W807" s="7"/>
     </row>
-    <row r="808" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A808" s="1"/>
       <c r="B808" s="7"/>
       <c r="C808" s="7"/>
@@ -21442,7 +21618,7 @@
       <c r="V808" s="7"/>
       <c r="W808" s="7"/>
     </row>
-    <row r="809" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A809" s="1"/>
       <c r="B809" s="7"/>
       <c r="C809" s="7"/>
@@ -21467,7 +21643,7 @@
       <c r="V809" s="7"/>
       <c r="W809" s="7"/>
     </row>
-    <row r="810" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A810" s="1"/>
       <c r="B810" s="7"/>
       <c r="C810" s="7"/>
@@ -21492,7 +21668,7 @@
       <c r="V810" s="7"/>
       <c r="W810" s="7"/>
     </row>
-    <row r="811" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A811" s="1"/>
       <c r="B811" s="7"/>
       <c r="C811" s="7"/>
@@ -21517,7 +21693,7 @@
       <c r="V811" s="7"/>
       <c r="W811" s="7"/>
     </row>
-    <row r="812" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A812" s="1"/>
       <c r="B812" s="7"/>
       <c r="C812" s="7"/>
@@ -21542,7 +21718,7 @@
       <c r="V812" s="7"/>
       <c r="W812" s="7"/>
     </row>
-    <row r="813" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A813" s="1"/>
       <c r="B813" s="7"/>
       <c r="C813" s="7"/>
@@ -21567,7 +21743,7 @@
       <c r="V813" s="7"/>
       <c r="W813" s="7"/>
     </row>
-    <row r="814" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A814" s="1"/>
       <c r="B814" s="7"/>
       <c r="C814" s="7"/>
@@ -21592,7 +21768,7 @@
       <c r="V814" s="7"/>
       <c r="W814" s="7"/>
     </row>
-    <row r="815" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A815" s="1"/>
       <c r="B815" s="7"/>
       <c r="C815" s="7"/>
@@ -21617,7 +21793,7 @@
       <c r="V815" s="7"/>
       <c r="W815" s="7"/>
     </row>
-    <row r="816" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A816" s="1"/>
       <c r="B816" s="7"/>
       <c r="C816" s="7"/>
@@ -21642,7 +21818,7 @@
       <c r="V816" s="7"/>
       <c r="W816" s="7"/>
     </row>
-    <row r="817" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A817" s="1"/>
       <c r="B817" s="7"/>
       <c r="C817" s="7"/>
@@ -21667,7 +21843,7 @@
       <c r="V817" s="7"/>
       <c r="W817" s="7"/>
     </row>
-    <row r="818" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A818" s="1"/>
       <c r="B818" s="7"/>
       <c r="C818" s="7"/>
@@ -21692,7 +21868,7 @@
       <c r="V818" s="7"/>
       <c r="W818" s="7"/>
     </row>
-    <row r="819" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A819" s="1"/>
       <c r="B819" s="7"/>
       <c r="C819" s="7"/>
@@ -21717,7 +21893,7 @@
       <c r="V819" s="7"/>
       <c r="W819" s="7"/>
     </row>
-    <row r="820" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A820" s="1"/>
       <c r="B820" s="7"/>
       <c r="C820" s="7"/>
@@ -21742,7 +21918,7 @@
       <c r="V820" s="7"/>
       <c r="W820" s="7"/>
     </row>
-    <row r="821" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A821" s="1"/>
       <c r="B821" s="7"/>
       <c r="C821" s="7"/>
@@ -21767,7 +21943,7 @@
       <c r="V821" s="7"/>
       <c r="W821" s="7"/>
     </row>
-    <row r="822" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A822" s="1"/>
       <c r="B822" s="7"/>
       <c r="C822" s="7"/>
@@ -21792,7 +21968,7 @@
       <c r="V822" s="7"/>
       <c r="W822" s="7"/>
     </row>
-    <row r="823" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A823" s="1"/>
       <c r="B823" s="7"/>
       <c r="C823" s="7"/>
@@ -21817,7 +21993,7 @@
       <c r="V823" s="7"/>
       <c r="W823" s="7"/>
     </row>
-    <row r="824" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A824" s="1"/>
       <c r="B824" s="7"/>
       <c r="C824" s="7"/>
@@ -21842,7 +22018,7 @@
       <c r="V824" s="7"/>
       <c r="W824" s="7"/>
     </row>
-    <row r="825" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A825" s="1"/>
       <c r="B825" s="7"/>
       <c r="C825" s="7"/>
@@ -21867,7 +22043,7 @@
       <c r="V825" s="7"/>
       <c r="W825" s="7"/>
     </row>
-    <row r="826" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A826" s="1"/>
       <c r="B826" s="7"/>
       <c r="C826" s="7"/>
@@ -21892,7 +22068,7 @@
       <c r="V826" s="7"/>
       <c r="W826" s="7"/>
     </row>
-    <row r="827" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A827" s="1"/>
       <c r="B827" s="7"/>
       <c r="C827" s="7"/>
@@ -21917,7 +22093,7 @@
       <c r="V827" s="7"/>
       <c r="W827" s="7"/>
     </row>
-    <row r="828" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A828" s="1"/>
       <c r="B828" s="7"/>
       <c r="C828" s="7"/>
@@ -21942,7 +22118,7 @@
       <c r="V828" s="7"/>
       <c r="W828" s="7"/>
     </row>
-    <row r="829" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A829" s="1"/>
       <c r="B829" s="7"/>
       <c r="C829" s="7"/>
@@ -21967,7 +22143,7 @@
       <c r="V829" s="7"/>
       <c r="W829" s="7"/>
     </row>
-    <row r="830" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A830" s="1"/>
       <c r="B830" s="7"/>
       <c r="C830" s="7"/>
@@ -21992,7 +22168,7 @@
       <c r="V830" s="7"/>
       <c r="W830" s="7"/>
     </row>
-    <row r="831" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A831" s="1"/>
       <c r="B831" s="7"/>
       <c r="C831" s="7"/>
@@ -22017,7 +22193,7 @@
       <c r="V831" s="7"/>
       <c r="W831" s="7"/>
     </row>
-    <row r="832" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A832" s="1"/>
       <c r="B832" s="7"/>
       <c r="C832" s="7"/>
@@ -22042,7 +22218,7 @@
       <c r="V832" s="7"/>
       <c r="W832" s="7"/>
     </row>
-    <row r="833" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A833" s="1"/>
       <c r="B833" s="7"/>
       <c r="C833" s="7"/>
@@ -22067,7 +22243,7 @@
       <c r="V833" s="7"/>
       <c r="W833" s="7"/>
     </row>
-    <row r="834" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A834" s="1"/>
       <c r="B834" s="7"/>
       <c r="C834" s="7"/>
@@ -22092,7 +22268,7 @@
       <c r="V834" s="7"/>
       <c r="W834" s="7"/>
     </row>
-    <row r="835" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A835" s="1"/>
       <c r="B835" s="7"/>
       <c r="C835" s="7"/>
@@ -22117,7 +22293,7 @@
       <c r="V835" s="7"/>
       <c r="W835" s="7"/>
     </row>
-    <row r="836" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A836" s="1"/>
       <c r="B836" s="7"/>
       <c r="C836" s="7"/>
@@ -22142,7 +22318,7 @@
       <c r="V836" s="7"/>
       <c r="W836" s="7"/>
     </row>
-    <row r="837" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A837" s="1"/>
       <c r="B837" s="7"/>
       <c r="C837" s="7"/>
@@ -22167,7 +22343,7 @@
       <c r="V837" s="7"/>
       <c r="W837" s="7"/>
     </row>
-    <row r="838" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A838" s="1"/>
       <c r="B838" s="7"/>
       <c r="C838" s="7"/>
@@ -22192,7 +22368,7 @@
       <c r="V838" s="7"/>
       <c r="W838" s="7"/>
     </row>
-    <row r="839" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A839" s="1"/>
       <c r="B839" s="7"/>
       <c r="C839" s="7"/>
@@ -22217,7 +22393,7 @@
       <c r="V839" s="7"/>
       <c r="W839" s="7"/>
     </row>
-    <row r="840" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A840" s="1"/>
       <c r="B840" s="7"/>
       <c r="C840" s="7"/>
@@ -22242,7 +22418,7 @@
       <c r="V840" s="7"/>
       <c r="W840" s="7"/>
     </row>
-    <row r="841" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A841" s="1"/>
       <c r="B841" s="7"/>
       <c r="C841" s="7"/>
@@ -22267,7 +22443,7 @@
       <c r="V841" s="7"/>
       <c r="W841" s="7"/>
     </row>
-    <row r="842" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A842" s="1"/>
       <c r="B842" s="7"/>
       <c r="C842" s="7"/>
@@ -22292,7 +22468,7 @@
       <c r="V842" s="7"/>
       <c r="W842" s="7"/>
     </row>
-    <row r="843" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A843" s="1"/>
       <c r="B843" s="7"/>
       <c r="C843" s="7"/>
@@ -22317,7 +22493,7 @@
       <c r="V843" s="7"/>
       <c r="W843" s="7"/>
     </row>
-    <row r="844" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A844" s="1"/>
       <c r="B844" s="7"/>
       <c r="C844" s="7"/>
@@ -22342,7 +22518,7 @@
       <c r="V844" s="7"/>
       <c r="W844" s="7"/>
     </row>
-    <row r="845" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A845" s="1"/>
       <c r="B845" s="7"/>
       <c r="C845" s="7"/>
@@ -22367,7 +22543,7 @@
       <c r="V845" s="7"/>
       <c r="W845" s="7"/>
     </row>
-    <row r="846" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A846" s="1"/>
       <c r="B846" s="7"/>
       <c r="C846" s="7"/>
@@ -22392,7 +22568,7 @@
       <c r="V846" s="7"/>
       <c r="W846" s="7"/>
     </row>
-    <row r="847" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A847" s="1"/>
       <c r="B847" s="7"/>
       <c r="C847" s="7"/>
@@ -22417,7 +22593,7 @@
       <c r="V847" s="7"/>
       <c r="W847" s="7"/>
     </row>
-    <row r="848" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A848" s="1"/>
       <c r="B848" s="7"/>
       <c r="C848" s="7"/>
@@ -22442,7 +22618,7 @@
       <c r="V848" s="7"/>
       <c r="W848" s="7"/>
     </row>
-    <row r="849" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A849" s="1"/>
       <c r="B849" s="7"/>
       <c r="C849" s="7"/>
@@ -22467,7 +22643,7 @@
       <c r="V849" s="7"/>
       <c r="W849" s="7"/>
     </row>
-    <row r="850" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A850" s="1"/>
       <c r="B850" s="7"/>
       <c r="C850" s="7"/>
@@ -22492,7 +22668,7 @@
       <c r="V850" s="7"/>
       <c r="W850" s="7"/>
     </row>
-    <row r="851" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A851" s="1"/>
       <c r="B851" s="7"/>
       <c r="C851" s="7"/>
@@ -22517,7 +22693,7 @@
       <c r="V851" s="7"/>
       <c r="W851" s="7"/>
     </row>
-    <row r="852" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A852" s="1"/>
       <c r="B852" s="7"/>
       <c r="C852" s="7"/>
@@ -22542,7 +22718,7 @@
       <c r="V852" s="7"/>
       <c r="W852" s="7"/>
     </row>
-    <row r="853" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A853" s="1"/>
       <c r="B853" s="7"/>
       <c r="C853" s="7"/>
@@ -22567,7 +22743,7 @@
       <c r="V853" s="7"/>
       <c r="W853" s="7"/>
     </row>
-    <row r="854" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A854" s="1"/>
       <c r="B854" s="7"/>
       <c r="C854" s="7"/>
@@ -22592,7 +22768,7 @@
       <c r="V854" s="7"/>
       <c r="W854" s="7"/>
     </row>
-    <row r="855" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A855" s="1"/>
       <c r="B855" s="7"/>
       <c r="C855" s="7"/>
@@ -22617,7 +22793,7 @@
       <c r="V855" s="7"/>
       <c r="W855" s="7"/>
     </row>
-    <row r="856" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A856" s="1"/>
       <c r="B856" s="7"/>
       <c r="C856" s="7"/>
@@ -22642,7 +22818,7 @@
       <c r="V856" s="7"/>
       <c r="W856" s="7"/>
     </row>
-    <row r="857" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A857" s="1"/>
       <c r="B857" s="7"/>
       <c r="C857" s="7"/>
@@ -22667,7 +22843,7 @@
       <c r="V857" s="7"/>
       <c r="W857" s="7"/>
     </row>
-    <row r="858" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A858" s="1"/>
       <c r="B858" s="7"/>
       <c r="C858" s="7"/>
@@ -22692,7 +22868,7 @@
       <c r="V858" s="7"/>
       <c r="W858" s="7"/>
     </row>
-    <row r="859" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A859" s="1"/>
       <c r="B859" s="7"/>
       <c r="C859" s="7"/>
@@ -22717,7 +22893,7 @@
       <c r="V859" s="7"/>
       <c r="W859" s="7"/>
     </row>
-    <row r="860" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A860" s="1"/>
       <c r="B860" s="7"/>
       <c r="C860" s="7"/>
@@ -22742,7 +22918,7 @@
       <c r="V860" s="7"/>
       <c r="W860" s="7"/>
     </row>
-    <row r="861" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A861" s="1"/>
       <c r="B861" s="7"/>
       <c r="C861" s="7"/>
@@ -22767,7 +22943,7 @@
       <c r="V861" s="7"/>
       <c r="W861" s="7"/>
     </row>
-    <row r="862" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A862" s="1"/>
       <c r="B862" s="7"/>
       <c r="C862" s="7"/>
@@ -22792,7 +22968,7 @@
       <c r="V862" s="7"/>
       <c r="W862" s="7"/>
     </row>
-    <row r="863" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A863" s="1"/>
       <c r="B863" s="7"/>
       <c r="C863" s="7"/>
@@ -22817,7 +22993,7 @@
       <c r="V863" s="7"/>
       <c r="W863" s="7"/>
     </row>
-    <row r="864" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A864" s="1"/>
       <c r="B864" s="7"/>
       <c r="C864" s="7"/>
@@ -22842,7 +23018,7 @@
       <c r="V864" s="7"/>
       <c r="W864" s="7"/>
     </row>
-    <row r="865" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A865" s="1"/>
       <c r="B865" s="7"/>
       <c r="C865" s="7"/>
@@ -22867,7 +23043,7 @@
       <c r="V865" s="7"/>
       <c r="W865" s="7"/>
     </row>
-    <row r="866" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A866" s="1"/>
       <c r="B866" s="7"/>
       <c r="C866" s="7"/>
@@ -22892,7 +23068,7 @@
       <c r="V866" s="7"/>
       <c r="W866" s="7"/>
     </row>
-    <row r="867" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A867" s="1"/>
       <c r="B867" s="7"/>
       <c r="C867" s="7"/>
@@ -22917,7 +23093,7 @@
       <c r="V867" s="7"/>
       <c r="W867" s="7"/>
     </row>
-    <row r="868" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A868" s="1"/>
       <c r="B868" s="7"/>
       <c r="C868" s="7"/>
@@ -22942,7 +23118,7 @@
       <c r="V868" s="7"/>
       <c r="W868" s="7"/>
     </row>
-    <row r="869" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A869" s="1"/>
       <c r="B869" s="7"/>
       <c r="C869" s="7"/>
@@ -22967,7 +23143,7 @@
       <c r="V869" s="7"/>
       <c r="W869" s="7"/>
     </row>
-    <row r="870" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A870" s="1"/>
       <c r="B870" s="7"/>
       <c r="C870" s="7"/>
@@ -22992,7 +23168,7 @@
       <c r="V870" s="7"/>
       <c r="W870" s="7"/>
     </row>
-    <row r="871" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A871" s="1"/>
       <c r="B871" s="7"/>
       <c r="C871" s="7"/>
@@ -23017,7 +23193,7 @@
       <c r="V871" s="7"/>
       <c r="W871" s="7"/>
     </row>
-    <row r="872" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A872" s="1"/>
       <c r="B872" s="7"/>
       <c r="C872" s="7"/>
@@ -23042,7 +23218,7 @@
       <c r="V872" s="7"/>
       <c r="W872" s="7"/>
     </row>
-    <row r="873" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A873" s="1"/>
       <c r="B873" s="7"/>
       <c r="C873" s="7"/>
@@ -23067,7 +23243,7 @@
       <c r="V873" s="7"/>
       <c r="W873" s="7"/>
     </row>
-    <row r="874" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A874" s="1"/>
       <c r="B874" s="7"/>
       <c r="C874" s="7"/>
@@ -23092,7 +23268,7 @@
       <c r="V874" s="7"/>
       <c r="W874" s="7"/>
     </row>
-    <row r="875" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A875" s="1"/>
       <c r="B875" s="7"/>
       <c r="C875" s="7"/>
@@ -23117,7 +23293,7 @@
       <c r="V875" s="7"/>
       <c r="W875" s="7"/>
     </row>
-    <row r="876" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A876" s="1"/>
       <c r="B876" s="7"/>
       <c r="C876" s="7"/>
@@ -23142,7 +23318,7 @@
       <c r="V876" s="7"/>
       <c r="W876" s="7"/>
     </row>
-    <row r="877" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A877" s="1"/>
       <c r="B877" s="7"/>
       <c r="C877" s="7"/>
@@ -23167,7 +23343,7 @@
       <c r="V877" s="7"/>
       <c r="W877" s="7"/>
     </row>
-    <row r="878" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A878" s="1"/>
       <c r="B878" s="7"/>
       <c r="C878" s="7"/>
@@ -23192,7 +23368,7 @@
       <c r="V878" s="7"/>
       <c r="W878" s="7"/>
     </row>
-    <row r="879" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A879" s="1"/>
       <c r="B879" s="7"/>
       <c r="C879" s="7"/>
@@ -23217,7 +23393,7 @@
       <c r="V879" s="7"/>
       <c r="W879" s="7"/>
     </row>
-    <row r="880" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A880" s="1"/>
       <c r="B880" s="7"/>
       <c r="C880" s="7"/>
@@ -23242,7 +23418,7 @@
       <c r="V880" s="7"/>
       <c r="W880" s="7"/>
     </row>
-    <row r="881" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A881" s="1"/>
       <c r="B881" s="7"/>
       <c r="C881" s="7"/>
@@ -23267,7 +23443,7 @@
       <c r="V881" s="7"/>
       <c r="W881" s="7"/>
     </row>
-    <row r="882" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A882" s="1"/>
       <c r="B882" s="7"/>
       <c r="C882" s="7"/>
@@ -23292,7 +23468,7 @@
       <c r="V882" s="7"/>
       <c r="W882" s="7"/>
     </row>
-    <row r="883" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A883" s="1"/>
       <c r="B883" s="7"/>
       <c r="C883" s="7"/>
@@ -23317,7 +23493,7 @@
       <c r="V883" s="7"/>
       <c r="W883" s="7"/>
     </row>
-    <row r="884" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A884" s="1"/>
       <c r="B884" s="7"/>
       <c r="C884" s="7"/>
@@ -23342,7 +23518,7 @@
       <c r="V884" s="7"/>
       <c r="W884" s="7"/>
     </row>
-    <row r="885" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A885" s="1"/>
       <c r="B885" s="7"/>
       <c r="C885" s="7"/>
@@ -23367,7 +23543,7 @@
       <c r="V885" s="7"/>
       <c r="W885" s="7"/>
     </row>
-    <row r="886" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A886" s="1"/>
       <c r="B886" s="7"/>
       <c r="C886" s="7"/>
@@ -23392,7 +23568,7 @@
       <c r="V886" s="7"/>
       <c r="W886" s="7"/>
     </row>
-    <row r="887" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A887" s="1"/>
       <c r="B887" s="7"/>
       <c r="C887" s="7"/>
@@ -23417,7 +23593,7 @@
       <c r="V887" s="7"/>
       <c r="W887" s="7"/>
     </row>
-    <row r="888" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A888" s="1"/>
       <c r="B888" s="7"/>
       <c r="C888" s="7"/>
@@ -23442,7 +23618,7 @@
       <c r="V888" s="7"/>
       <c r="W888" s="7"/>
     </row>
-    <row r="889" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A889" s="1"/>
       <c r="B889" s="7"/>
       <c r="C889" s="7"/>
@@ -23467,7 +23643,7 @@
       <c r="V889" s="7"/>
       <c r="W889" s="7"/>
     </row>
-    <row r="890" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A890" s="1"/>
       <c r="B890" s="7"/>
       <c r="C890" s="7"/>
@@ -23492,7 +23668,7 @@
       <c r="V890" s="7"/>
       <c r="W890" s="7"/>
     </row>
-    <row r="891" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A891" s="1"/>
       <c r="B891" s="7"/>
       <c r="C891" s="7"/>
@@ -23517,7 +23693,7 @@
       <c r="V891" s="7"/>
       <c r="W891" s="7"/>
     </row>
-    <row r="892" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A892" s="1"/>
       <c r="B892" s="7"/>
       <c r="C892" s="7"/>
@@ -23542,7 +23718,7 @@
       <c r="V892" s="7"/>
       <c r="W892" s="7"/>
     </row>
-    <row r="893" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A893" s="1"/>
       <c r="B893" s="7"/>
       <c r="C893" s="7"/>
@@ -23567,7 +23743,7 @@
       <c r="V893" s="7"/>
       <c r="W893" s="7"/>
     </row>
-    <row r="894" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A894" s="1"/>
       <c r="B894" s="7"/>
       <c r="C894" s="7"/>
@@ -23592,7 +23768,7 @@
       <c r="V894" s="7"/>
       <c r="W894" s="7"/>
     </row>
-    <row r="895" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A895" s="1"/>
       <c r="B895" s="7"/>
       <c r="C895" s="7"/>
@@ -23617,7 +23793,7 @@
       <c r="V895" s="7"/>
       <c r="W895" s="7"/>
     </row>
-    <row r="896" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A896" s="1"/>
       <c r="B896" s="7"/>
       <c r="C896" s="7"/>
@@ -23642,7 +23818,7 @@
       <c r="V896" s="7"/>
       <c r="W896" s="7"/>
     </row>
-    <row r="897" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A897" s="1"/>
       <c r="B897" s="7"/>
       <c r="C897" s="7"/>
@@ -23667,7 +23843,7 @@
       <c r="V897" s="7"/>
       <c r="W897" s="7"/>
     </row>
-    <row r="898" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A898" s="1"/>
       <c r="B898" s="7"/>
       <c r="C898" s="7"/>
@@ -23692,7 +23868,7 @@
       <c r="V898" s="7"/>
       <c r="W898" s="7"/>
     </row>
-    <row r="899" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A899" s="1"/>
       <c r="B899" s="7"/>
       <c r="C899" s="7"/>
@@ -23717,7 +23893,7 @@
       <c r="V899" s="7"/>
       <c r="W899" s="7"/>
     </row>
-    <row r="900" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A900" s="1"/>
       <c r="B900" s="7"/>
       <c r="C900" s="7"/>
@@ -23742,7 +23918,7 @@
       <c r="V900" s="7"/>
       <c r="W900" s="7"/>
     </row>
-    <row r="901" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A901" s="1"/>
       <c r="B901" s="7"/>
       <c r="C901" s="7"/>
@@ -23767,7 +23943,7 @@
       <c r="V901" s="7"/>
       <c r="W901" s="7"/>
     </row>
-    <row r="902" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A902" s="1"/>
       <c r="B902" s="7"/>
       <c r="C902" s="7"/>
@@ -23792,7 +23968,7 @@
       <c r="V902" s="7"/>
       <c r="W902" s="7"/>
     </row>
-    <row r="903" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A903" s="1"/>
       <c r="B903" s="7"/>
       <c r="C903" s="7"/>
@@ -23817,7 +23993,7 @@
       <c r="V903" s="7"/>
       <c r="W903" s="7"/>
     </row>
-    <row r="904" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A904" s="1"/>
       <c r="B904" s="7"/>
       <c r="C904" s="7"/>
@@ -23842,7 +24018,7 @@
       <c r="V904" s="7"/>
       <c r="W904" s="7"/>
     </row>
-    <row r="905" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A905" s="1"/>
       <c r="B905" s="7"/>
       <c r="C905" s="7"/>
@@ -23867,7 +24043,7 @@
       <c r="V905" s="7"/>
       <c r="W905" s="7"/>
     </row>
-    <row r="906" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A906" s="1"/>
       <c r="B906" s="7"/>
       <c r="C906" s="7"/>
@@ -23892,7 +24068,7 @@
       <c r="V906" s="7"/>
       <c r="W906" s="7"/>
     </row>
-    <row r="907" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A907" s="1"/>
       <c r="B907" s="7"/>
       <c r="C907" s="7"/>
@@ -23917,7 +24093,7 @@
       <c r="V907" s="7"/>
       <c r="W907" s="7"/>
     </row>
-    <row r="908" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A908" s="1"/>
       <c r="B908" s="7"/>
       <c r="C908" s="7"/>
@@ -23942,7 +24118,7 @@
       <c r="V908" s="7"/>
       <c r="W908" s="7"/>
     </row>
-    <row r="909" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A909" s="1"/>
       <c r="B909" s="7"/>
       <c r="C909" s="7"/>
@@ -23967,7 +24143,7 @@
       <c r="V909" s="7"/>
       <c r="W909" s="7"/>
     </row>
-    <row r="910" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A910" s="1"/>
       <c r="B910" s="7"/>
       <c r="C910" s="7"/>
@@ -23992,7 +24168,7 @@
       <c r="V910" s="7"/>
       <c r="W910" s="7"/>
     </row>
-    <row r="911" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A911" s="1"/>
       <c r="B911" s="7"/>
       <c r="C911" s="7"/>
@@ -24017,7 +24193,7 @@
       <c r="V911" s="7"/>
       <c r="W911" s="7"/>
     </row>
-    <row r="912" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A912" s="1"/>
       <c r="B912" s="7"/>
       <c r="C912" s="7"/>
@@ -24042,7 +24218,7 @@
       <c r="V912" s="7"/>
       <c r="W912" s="7"/>
     </row>
-    <row r="913" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A913" s="1"/>
       <c r="B913" s="7"/>
       <c r="C913" s="7"/>
@@ -24067,7 +24243,7 @@
       <c r="V913" s="7"/>
       <c r="W913" s="7"/>
     </row>
-    <row r="914" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A914" s="1"/>
       <c r="B914" s="7"/>
       <c r="C914" s="7"/>
@@ -24092,7 +24268,7 @@
       <c r="V914" s="7"/>
       <c r="W914" s="7"/>
     </row>
-    <row r="915" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A915" s="1"/>
       <c r="B915" s="7"/>
       <c r="C915" s="7"/>
@@ -24117,7 +24293,7 @@
       <c r="V915" s="7"/>
       <c r="W915" s="7"/>
     </row>
-    <row r="916" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A916" s="1"/>
       <c r="B916" s="7"/>
       <c r="C916" s="7"/>
@@ -24142,7 +24318,7 @@
       <c r="V916" s="7"/>
       <c r="W916" s="7"/>
     </row>
-    <row r="917" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A917" s="1"/>
       <c r="B917" s="7"/>
       <c r="C917" s="7"/>
@@ -24167,7 +24343,7 @@
       <c r="V917" s="7"/>
       <c r="W917" s="7"/>
     </row>
-    <row r="918" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A918" s="1"/>
       <c r="B918" s="7"/>
       <c r="C918" s="7"/>
@@ -24192,7 +24368,7 @@
       <c r="V918" s="7"/>
       <c r="W918" s="7"/>
     </row>
-    <row r="919" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A919" s="1"/>
       <c r="B919" s="7"/>
       <c r="C919" s="7"/>
@@ -24217,7 +24393,7 @@
       <c r="V919" s="7"/>
       <c r="W919" s="7"/>
     </row>
-    <row r="920" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A920" s="1"/>
       <c r="B920" s="7"/>
       <c r="C920" s="7"/>
@@ -24242,7 +24418,7 @@
       <c r="V920" s="7"/>
       <c r="W920" s="7"/>
     </row>
-    <row r="921" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A921" s="1"/>
       <c r="B921" s="7"/>
       <c r="C921" s="7"/>
@@ -24267,7 +24443,7 @@
       <c r="V921" s="7"/>
       <c r="W921" s="7"/>
     </row>
-    <row r="922" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A922" s="1"/>
       <c r="B922" s="7"/>
       <c r="C922" s="7"/>
@@ -24292,7 +24468,7 @@
       <c r="V922" s="7"/>
       <c r="W922" s="7"/>
     </row>
-    <row r="923" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A923" s="1"/>
       <c r="B923" s="7"/>
       <c r="C923" s="7"/>
@@ -24317,7 +24493,7 @@
       <c r="V923" s="7"/>
       <c r="W923" s="7"/>
     </row>
-    <row r="924" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A924" s="1"/>
       <c r="B924" s="7"/>
       <c r="C924" s="7"/>
@@ -24342,7 +24518,7 @@
       <c r="V924" s="7"/>
       <c r="W924" s="7"/>
     </row>
-    <row r="925" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A925" s="1"/>
       <c r="B925" s="7"/>
       <c r="C925" s="7"/>
@@ -24367,7 +24543,7 @@
       <c r="V925" s="7"/>
       <c r="W925" s="7"/>
     </row>
-    <row r="926" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A926" s="1"/>
       <c r="B926" s="7"/>
       <c r="C926" s="7"/>
@@ -24392,7 +24568,7 @@
       <c r="V926" s="7"/>
       <c r="W926" s="7"/>
     </row>
-    <row r="927" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A927" s="1"/>
       <c r="B927" s="7"/>
       <c r="C927" s="7"/>
@@ -24417,7 +24593,7 @@
       <c r="V927" s="7"/>
       <c r="W927" s="7"/>
     </row>
-    <row r="928" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A928" s="1"/>
       <c r="B928" s="7"/>
       <c r="C928" s="7"/>
@@ -24442,7 +24618,7 @@
       <c r="V928" s="7"/>
       <c r="W928" s="7"/>
     </row>
-    <row r="929" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A929" s="1"/>
       <c r="B929" s="7"/>
       <c r="C929" s="7"/>
@@ -24467,7 +24643,7 @@
       <c r="V929" s="7"/>
       <c r="W929" s="7"/>
     </row>
-    <row r="930" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A930" s="1"/>
       <c r="B930" s="7"/>
       <c r="C930" s="7"/>
@@ -24492,7 +24668,7 @@
       <c r="V930" s="7"/>
       <c r="W930" s="7"/>
     </row>
-    <row r="931" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A931" s="1"/>
       <c r="B931" s="7"/>
       <c r="C931" s="7"/>
@@ -24517,7 +24693,7 @@
       <c r="V931" s="7"/>
       <c r="W931" s="7"/>
     </row>
-    <row r="932" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A932" s="1"/>
       <c r="B932" s="7"/>
       <c r="C932" s="7"/>
@@ -24542,7 +24718,7 @@
       <c r="V932" s="7"/>
       <c r="W932" s="7"/>
     </row>
-    <row r="933" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A933" s="1"/>
       <c r="B933" s="7"/>
       <c r="C933" s="7"/>
@@ -24567,7 +24743,7 @@
       <c r="V933" s="7"/>
       <c r="W933" s="7"/>
     </row>
-    <row r="934" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A934" s="1"/>
       <c r="B934" s="7"/>
       <c r="C934" s="7"/>
@@ -24592,7 +24768,7 @@
       <c r="V934" s="7"/>
       <c r="W934" s="7"/>
     </row>
-    <row r="935" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A935" s="1"/>
       <c r="B935" s="7"/>
       <c r="C935" s="7"/>
@@ -24617,7 +24793,7 @@
       <c r="V935" s="7"/>
       <c r="W935" s="7"/>
     </row>
-    <row r="936" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A936" s="1"/>
       <c r="B936" s="7"/>
       <c r="C936" s="7"/>
@@ -24642,7 +24818,7 @@
       <c r="V936" s="7"/>
       <c r="W936" s="7"/>
     </row>
-    <row r="937" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A937" s="1"/>
       <c r="B937" s="7"/>
       <c r="C937" s="7"/>
@@ -24667,7 +24843,7 @@
       <c r="V937" s="7"/>
       <c r="W937" s="7"/>
     </row>
-    <row r="938" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A938" s="1"/>
       <c r="B938" s="7"/>
       <c r="C938" s="7"/>
@@ -24692,7 +24868,7 @@
       <c r="V938" s="7"/>
       <c r="W938" s="7"/>
     </row>
-    <row r="939" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A939" s="1"/>
       <c r="B939" s="7"/>
       <c r="C939" s="7"/>
@@ -24717,7 +24893,7 @@
       <c r="V939" s="7"/>
       <c r="W939" s="7"/>
     </row>
-    <row r="940" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A940" s="1"/>
       <c r="B940" s="7"/>
       <c r="C940" s="7"/>
@@ -24742,7 +24918,7 @@
       <c r="V940" s="7"/>
       <c r="W940" s="7"/>
     </row>
-    <row r="941" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A941" s="1"/>
       <c r="B941" s="7"/>
       <c r="C941" s="7"/>
@@ -24767,7 +24943,7 @@
       <c r="V941" s="7"/>
       <c r="W941" s="7"/>
     </row>
-    <row r="942" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A942" s="1"/>
       <c r="B942" s="7"/>
       <c r="C942" s="7"/>
@@ -24792,7 +24968,7 @@
       <c r="V942" s="7"/>
       <c r="W942" s="7"/>
     </row>
-    <row r="943" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A943" s="1"/>
       <c r="B943" s="7"/>
       <c r="C943" s="7"/>
@@ -24817,7 +24993,7 @@
       <c r="V943" s="7"/>
       <c r="W943" s="7"/>
     </row>
-    <row r="944" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A944" s="1"/>
       <c r="B944" s="7"/>
       <c r="C944" s="7"/>
@@ -24842,7 +25018,7 @@
       <c r="V944" s="7"/>
       <c r="W944" s="7"/>
     </row>
-    <row r="945" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A945" s="1"/>
       <c r="B945" s="7"/>
       <c r="C945" s="7"/>
@@ -24867,7 +25043,7 @@
       <c r="V945" s="7"/>
       <c r="W945" s="7"/>
     </row>
-    <row r="946" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A946" s="1"/>
       <c r="B946" s="7"/>
       <c r="C946" s="7"/>
@@ -24892,7 +25068,7 @@
       <c r="V946" s="7"/>
       <c r="W946" s="7"/>
     </row>
-    <row r="947" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A947" s="1"/>
       <c r="B947" s="7"/>
       <c r="C947" s="7"/>
@@ -24917,7 +25093,7 @@
       <c r="V947" s="7"/>
       <c r="W947" s="7"/>
     </row>
-    <row r="948" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A948" s="1"/>
       <c r="B948" s="7"/>
       <c r="C948" s="7"/>
@@ -24942,7 +25118,7 @@
       <c r="V948" s="7"/>
       <c r="W948" s="7"/>
     </row>
-    <row r="949" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A949" s="1"/>
       <c r="B949" s="7"/>
       <c r="C949" s="7"/>
@@ -24967,7 +25143,7 @@
       <c r="V949" s="7"/>
       <c r="W949" s="7"/>
     </row>
-    <row r="950" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A950" s="1"/>
       <c r="B950" s="7"/>
       <c r="C950" s="7"/>
@@ -24992,7 +25168,7 @@
       <c r="V950" s="7"/>
       <c r="W950" s="7"/>
     </row>
-    <row r="951" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A951" s="1"/>
       <c r="B951" s="7"/>
       <c r="C951" s="7"/>
@@ -25017,7 +25193,7 @@
       <c r="V951" s="7"/>
       <c r="W951" s="7"/>
     </row>
-    <row r="952" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A952" s="1"/>
       <c r="B952" s="7"/>
       <c r="C952" s="7"/>
@@ -25042,7 +25218,7 @@
       <c r="V952" s="7"/>
       <c r="W952" s="7"/>
     </row>
-    <row r="953" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A953" s="1"/>
       <c r="B953" s="7"/>
       <c r="C953" s="7"/>
@@ -25067,7 +25243,7 @@
       <c r="V953" s="7"/>
       <c r="W953" s="7"/>
     </row>
-    <row r="954" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A954" s="1"/>
       <c r="B954" s="7"/>
       <c r="C954" s="7"/>
@@ -25092,7 +25268,7 @@
       <c r="V954" s="7"/>
       <c r="W954" s="7"/>
     </row>
-    <row r="955" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A955" s="1"/>
       <c r="B955" s="7"/>
       <c r="C955" s="7"/>
@@ -25117,7 +25293,7 @@
       <c r="V955" s="7"/>
       <c r="W955" s="7"/>
     </row>
-    <row r="956" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A956" s="1"/>
       <c r="B956" s="7"/>
       <c r="C956" s="7"/>
@@ -25142,7 +25318,7 @@
       <c r="V956" s="7"/>
       <c r="W956" s="7"/>
     </row>
-    <row r="957" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A957" s="1"/>
       <c r="B957" s="7"/>
       <c r="C957" s="7"/>
@@ -25167,7 +25343,7 @@
       <c r="V957" s="7"/>
       <c r="W957" s="7"/>
     </row>
-    <row r="958" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A958" s="1"/>
       <c r="B958" s="7"/>
       <c r="C958" s="7"/>
@@ -25192,7 +25368,7 @@
       <c r="V958" s="7"/>
       <c r="W958" s="7"/>
     </row>
-    <row r="959" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A959" s="1"/>
       <c r="B959" s="7"/>
       <c r="C959" s="7"/>
@@ -25217,7 +25393,7 @@
       <c r="V959" s="7"/>
       <c r="W959" s="7"/>
     </row>
-    <row r="960" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A960" s="1"/>
       <c r="B960" s="7"/>
       <c r="C960" s="7"/>
@@ -25242,7 +25418,7 @@
       <c r="V960" s="7"/>
       <c r="W960" s="7"/>
     </row>
-    <row r="961" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A961" s="1"/>
       <c r="B961" s="7"/>
       <c r="C961" s="7"/>
@@ -25267,7 +25443,7 @@
       <c r="V961" s="7"/>
       <c r="W961" s="7"/>
     </row>
-    <row r="962" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A962" s="1"/>
       <c r="B962" s="7"/>
       <c r="C962" s="7"/>
@@ -25292,7 +25468,7 @@
       <c r="V962" s="7"/>
       <c r="W962" s="7"/>
     </row>
-    <row r="963" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A963" s="1"/>
       <c r="B963" s="7"/>
       <c r="C963" s="7"/>
@@ -25317,7 +25493,7 @@
       <c r="V963" s="7"/>
       <c r="W963" s="7"/>
     </row>
-    <row r="964" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A964" s="1"/>
       <c r="B964" s="7"/>
       <c r="C964" s="7"/>
@@ -25342,7 +25518,7 @@
       <c r="V964" s="7"/>
       <c r="W964" s="7"/>
     </row>
-    <row r="965" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A965" s="1"/>
       <c r="B965" s="7"/>
       <c r="C965" s="7"/>
@@ -25367,7 +25543,7 @@
       <c r="V965" s="7"/>
       <c r="W965" s="7"/>
     </row>
-    <row r="966" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A966" s="1"/>
       <c r="B966" s="7"/>
       <c r="C966" s="7"/>
@@ -25392,7 +25568,7 @@
       <c r="V966" s="7"/>
       <c r="W966" s="7"/>
     </row>
-    <row r="967" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A967" s="1"/>
       <c r="B967" s="7"/>
       <c r="C967" s="7"/>
@@ -25417,7 +25593,7 @@
       <c r="V967" s="7"/>
       <c r="W967" s="7"/>
     </row>
-    <row r="968" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A968" s="1"/>
       <c r="B968" s="7"/>
       <c r="C968" s="7"/>
@@ -25442,7 +25618,7 @@
       <c r="V968" s="7"/>
       <c r="W968" s="7"/>
     </row>
-    <row r="969" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A969" s="1"/>
       <c r="B969" s="7"/>
       <c r="C969" s="7"/>
@@ -25467,7 +25643,7 @@
       <c r="V969" s="7"/>
       <c r="W969" s="7"/>
     </row>
-    <row r="970" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A970" s="1"/>
       <c r="B970" s="7"/>
       <c r="C970" s="7"/>
@@ -25492,7 +25668,7 @@
       <c r="V970" s="7"/>
       <c r="W970" s="7"/>
     </row>
-    <row r="971" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A971" s="1"/>
       <c r="B971" s="7"/>
       <c r="C971" s="7"/>
@@ -25517,7 +25693,7 @@
       <c r="V971" s="7"/>
       <c r="W971" s="7"/>
     </row>
-    <row r="972" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A972" s="1"/>
       <c r="B972" s="7"/>
       <c r="C972" s="7"/>
@@ -25542,7 +25718,7 @@
       <c r="V972" s="7"/>
       <c r="W972" s="7"/>
     </row>
-    <row r="973" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A973" s="1"/>
       <c r="B973" s="7"/>
       <c r="C973" s="7"/>
@@ -25567,7 +25743,7 @@
       <c r="V973" s="7"/>
       <c r="W973" s="7"/>
     </row>
-    <row r="974" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A974" s="1"/>
       <c r="B974" s="7"/>
       <c r="C974" s="7"/>
@@ -25592,7 +25768,7 @@
       <c r="V974" s="7"/>
       <c r="W974" s="7"/>
     </row>
-    <row r="975" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A975" s="1"/>
       <c r="B975" s="7"/>
       <c r="C975" s="7"/>
@@ -25617,7 +25793,7 @@
       <c r="V975" s="7"/>
       <c r="W975" s="7"/>
     </row>
-    <row r="976" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A976" s="1"/>
       <c r="B976" s="7"/>
       <c r="C976" s="7"/>
@@ -25642,7 +25818,7 @@
       <c r="V976" s="7"/>
       <c r="W976" s="7"/>
     </row>
-    <row r="977" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A977" s="1"/>
       <c r="B977" s="7"/>
       <c r="C977" s="7"/>
@@ -25667,7 +25843,7 @@
       <c r="V977" s="7"/>
       <c r="W977" s="7"/>
     </row>
-    <row r="978" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A978" s="1"/>
       <c r="B978" s="7"/>
       <c r="C978" s="7"/>
@@ -25692,7 +25868,7 @@
       <c r="V978" s="7"/>
       <c r="W978" s="7"/>
     </row>
-    <row r="979" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A979" s="1"/>
       <c r="B979" s="7"/>
       <c r="C979" s="7"/>
@@ -25717,7 +25893,7 @@
       <c r="V979" s="7"/>
       <c r="W979" s="7"/>
     </row>
-    <row r="980" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A980" s="1"/>
       <c r="B980" s="7"/>
       <c r="C980" s="7"/>
@@ -25742,7 +25918,7 @@
       <c r="V980" s="7"/>
       <c r="W980" s="7"/>
     </row>
-    <row r="981" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A981" s="1"/>
       <c r="B981" s="7"/>
       <c r="C981" s="7"/>
@@ -25767,7 +25943,7 @@
       <c r="V981" s="7"/>
       <c r="W981" s="7"/>
     </row>
-    <row r="982" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A982" s="1"/>
       <c r="B982" s="7"/>
       <c r="C982" s="7"/>
@@ -25792,7 +25968,7 @@
       <c r="V982" s="7"/>
       <c r="W982" s="7"/>
     </row>
-    <row r="983" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A983" s="1"/>
       <c r="B983" s="7"/>
       <c r="C983" s="7"/>
@@ -25817,7 +25993,7 @@
       <c r="V983" s="7"/>
       <c r="W983" s="7"/>
     </row>
-    <row r="984" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A984" s="1"/>
       <c r="B984" s="7"/>
       <c r="C984" s="7"/>
@@ -25842,7 +26018,7 @@
       <c r="V984" s="7"/>
       <c r="W984" s="7"/>
     </row>
-    <row r="985" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A985" s="1"/>
       <c r="B985" s="7"/>
       <c r="C985" s="7"/>
@@ -25867,7 +26043,7 @@
       <c r="V985" s="7"/>
       <c r="W985" s="7"/>
     </row>
-    <row r="986" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A986" s="1"/>
       <c r="B986" s="7"/>
       <c r="C986" s="7"/>
@@ -25892,7 +26068,7 @@
       <c r="V986" s="7"/>
       <c r="W986" s="7"/>
     </row>
-    <row r="987" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A987" s="1"/>
       <c r="B987" s="7"/>
       <c r="C987" s="7"/>
@@ -25917,7 +26093,7 @@
       <c r="V987" s="7"/>
       <c r="W987" s="7"/>
     </row>
-    <row r="988" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A988" s="1"/>
       <c r="B988" s="7"/>
       <c r="C988" s="7"/>
@@ -25942,7 +26118,7 @@
       <c r="V988" s="7"/>
       <c r="W988" s="7"/>
     </row>
-    <row r="989" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A989" s="1"/>
       <c r="B989" s="7"/>
       <c r="C989" s="7"/>
@@ -25967,7 +26143,7 @@
       <c r="V989" s="7"/>
       <c r="W989" s="7"/>
     </row>
-    <row r="990" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A990" s="1"/>
       <c r="B990" s="7"/>
       <c r="C990" s="7"/>
@@ -25992,7 +26168,7 @@
       <c r="V990" s="7"/>
       <c r="W990" s="7"/>
     </row>
-    <row r="991" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A991" s="1"/>
       <c r="B991" s="7"/>
       <c r="C991" s="7"/>
@@ -26017,7 +26193,7 @@
       <c r="V991" s="7"/>
       <c r="W991" s="7"/>
     </row>
-    <row r="992" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A992" s="1"/>
       <c r="B992" s="7"/>
       <c r="C992" s="7"/>
@@ -26042,7 +26218,7 @@
       <c r="V992" s="7"/>
       <c r="W992" s="7"/>
     </row>
-    <row r="993" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A993" s="1"/>
       <c r="B993" s="7"/>
       <c r="C993" s="7"/>
@@ -26067,7 +26243,7 @@
       <c r="V993" s="7"/>
       <c r="W993" s="7"/>
     </row>
-    <row r="994" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A994" s="1"/>
       <c r="B994" s="7"/>
       <c r="C994" s="7"/>
@@ -26092,7 +26268,7 @@
       <c r="V994" s="7"/>
       <c r="W994" s="7"/>
     </row>
-    <row r="995" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A995" s="1"/>
       <c r="B995" s="7"/>
       <c r="C995" s="7"/>
@@ -26117,7 +26293,7 @@
       <c r="V995" s="7"/>
       <c r="W995" s="7"/>
     </row>
-    <row r="996" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A996" s="1"/>
       <c r="B996" s="7"/>
       <c r="C996" s="7"/>
@@ -26142,7 +26318,7 @@
       <c r="V996" s="7"/>
       <c r="W996" s="7"/>
     </row>
-    <row r="997" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A997" s="1"/>
       <c r="B997" s="7"/>
       <c r="C997" s="7"/>
@@ -26167,7 +26343,7 @@
       <c r="V997" s="7"/>
       <c r="W997" s="7"/>
     </row>
-    <row r="998" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A998" s="1"/>
       <c r="B998" s="7"/>
       <c r="C998" s="7"/>
@@ -26192,7 +26368,7 @@
       <c r="V998" s="7"/>
       <c r="W998" s="7"/>
     </row>
-    <row r="999" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A999" s="1"/>
       <c r="B999" s="7"/>
       <c r="C999" s="7"/>
@@ -26217,7 +26393,7 @@
       <c r="V999" s="7"/>
       <c r="W999" s="7"/>
     </row>
-    <row r="1000" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1000" s="1"/>
       <c r="B1000" s="7"/>
       <c r="C1000" s="7"/>
@@ -26247,4 +26423,367 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C64CD2-FE83-4E4E-A362-95128DA86769}">
+  <dimension ref="A2:G28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.54296875" customWidth="1"/>
+    <col min="3" max="3" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.36328125" customWidth="1"/>
+    <col min="5" max="5" width="25.453125" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" customWidth="1"/>
+    <col min="7" max="7" width="38" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:7" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="45"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="31"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TEST CASE - FLIPKART.xlsx
+++ b/TEST CASE - FLIPKART.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="SIGN UP" sheetId="2" r:id="rId1"/>
     <sheet name="LOG IN" sheetId="1" r:id="rId2"/>
     <sheet name="HOME PAGE" sheetId="3" r:id="rId3"/>
+    <sheet name="SEARCH" sheetId="4" r:id="rId4"/>
+    <sheet name="SHOPPING CART" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="185">
   <si>
     <t>Test Scenario Description</t>
   </si>
@@ -257,16 +259,10 @@
     <t xml:space="preserve">It shows fields Add to cart, search product, user profile, wish list, all products list  </t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Verify that the all products listing page get displayed in proper format with the product name and price</t>
   </si>
   <si>
     <t>To check the product list see the Homepage of the Site</t>
-  </si>
-  <si>
-    <t>Product lists should present at page</t>
   </si>
   <si>
     <t>It shows all products list with its Proper Name and Price</t>
@@ -472,6 +468,126 @@
   <si>
     <t>It shows "Your profile is updated"</t>
   </si>
+  <si>
+    <t xml:space="preserve">Login with Id &amp; Password </t>
+  </si>
+  <si>
+    <t>Homepage of Flipkart</t>
+  </si>
+  <si>
+    <t>Product lists should present at Homepage</t>
+  </si>
+  <si>
+    <t>Product List of Homepage</t>
+  </si>
+  <si>
+    <t>Images of the Products</t>
+  </si>
+  <si>
+    <t>Verify that the search bar accepts the data entered by user</t>
+  </si>
+  <si>
+    <t>Search bar should present at homepage</t>
+  </si>
+  <si>
+    <t>To check the Data can be entered in search bar</t>
+  </si>
+  <si>
+    <t>Enter different product name</t>
+  </si>
+  <si>
+    <t>It shows data can be entered in search bar</t>
+  </si>
+  <si>
+    <t>It shows data cannot be entered in search bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify that the search button is working and redirects to the desired page</t>
+  </si>
+  <si>
+    <t>To check the search button click button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search button should present </t>
+  </si>
+  <si>
+    <t>Click on Search</t>
+  </si>
+  <si>
+    <t>It redirects to the appropriate page which searched for</t>
+  </si>
+  <si>
+    <t>It shows Search button is not working</t>
+  </si>
+  <si>
+    <t>It redirects to the different page which is not searched for</t>
+  </si>
+  <si>
+    <t>Verify that the user can find all valid products by their name through Search</t>
+  </si>
+  <si>
+    <t>To check enter products name in search bar</t>
+  </si>
+  <si>
+    <t>Search Option should present at page</t>
+  </si>
+  <si>
+    <t>Enter valid product name</t>
+  </si>
+  <si>
+    <t>It shows the valid products list related to search</t>
+  </si>
+  <si>
+    <t>It shows " Entered Product doesn’t match with Search "</t>
+  </si>
+  <si>
+    <t>Enter invalid product name</t>
+  </si>
+  <si>
+    <t>It shows different products list than actual searched product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the user can find the products through category </t>
+  </si>
+  <si>
+    <t>To check Search product via Category</t>
+  </si>
+  <si>
+    <t>Category list should present at Homepage</t>
+  </si>
+  <si>
+    <t>Click Category from Category list</t>
+  </si>
+  <si>
+    <t>It Displays Products List relevant to searched category</t>
+  </si>
+  <si>
+    <t>It Displays the Products List which not relevant to category</t>
+  </si>
+  <si>
+    <t>Verify that the error message gets displayed if user tries to search with empty field</t>
+  </si>
+  <si>
+    <t>Click on search with empty field</t>
+  </si>
+  <si>
+    <t>To check search with empty field</t>
+  </si>
+  <si>
+    <t>It shows "Please enter something to Search"</t>
+  </si>
+  <si>
+    <t>Verify that the searched product page get displayed in proper format with its product detail</t>
+  </si>
+  <si>
+    <t>To check search product via search option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search product </t>
+  </si>
+  <si>
+    <t>It redirects to the searched product page which shows its relevant details with proper format</t>
+  </si>
 </sst>
 </file>
 
@@ -558,7 +674,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -718,12 +834,96 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -854,11 +1054,42 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1133,7 +1364,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1143,8 +1374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1408,7 +1639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1634,7 +1865,7 @@
       <c r="E7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="44" t="s">
         <v>31</v>
       </c>
       <c r="G7" s="14" t="s">
@@ -1669,7 +1900,7 @@
       <c r="E8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="45" t="s">
+      <c r="F8" s="44" t="s">
         <v>34</v>
       </c>
       <c r="G8" s="13" t="s">
@@ -1704,7 +1935,7 @@
       <c r="E9" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="45" t="s">
+      <c r="F9" s="44" t="s">
         <v>37</v>
       </c>
       <c r="G9" s="13" t="s">
@@ -26542,25 +26773,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G29"/>
+  <dimension ref="A2:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="43.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
     <col min="5" max="5" width="28.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
     <col min="7" max="7" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>6</v>
       </c>
@@ -26583,7 +26814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>4</v>
       </c>
@@ -26600,151 +26831,151 @@
         <v>72</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="G4" s="23" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="43" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" s="43"/>
       <c r="C6" s="43" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="44.45" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:7" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="43"/>
       <c r="B7" s="43"/>
       <c r="C7" s="43" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E7" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="G7" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="43"/>
       <c r="B8" s="43"/>
       <c r="C8" s="43" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="G8" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="47.45" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:7" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="43"/>
       <c r="B9" s="43"/>
       <c r="C9" s="43" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="F9" s="43" t="s">
-        <v>75</v>
+        <v>92</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>148</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="40.5" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C10" s="43" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G10" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="40.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A11" s="43"/>
       <c r="B11" s="43"/>
       <c r="C11" s="43" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11" s="30" t="s">
         <v>88</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -26752,22 +26983,22 @@
         <v>20</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C12" s="43" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="G12" s="30" t="s">
         <v>99</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -26777,16 +27008,16 @@
         <v>16</v>
       </c>
       <c r="D13" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="F13" s="43" t="s">
+      <c r="G13" s="30" t="s">
         <v>100</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -26794,220 +27025,220 @@
         <v>57</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C14" s="43" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="G14" s="30" t="s">
         <v>105</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="43"/>
       <c r="B15" s="43"/>
       <c r="C15" s="43" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D15" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>106</v>
-      </c>
       <c r="G15" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
       <c r="B16" s="30"/>
       <c r="C16" s="30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D16" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>106</v>
-      </c>
       <c r="G16" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="C17" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" s="42" t="s">
+      <c r="F17" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="G17" s="30" t="s">
         <v>116</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" s="30" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30"/>
       <c r="B18" s="30"/>
       <c r="C18" s="30" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D18" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="E18" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>117</v>
-      </c>
       <c r="G18" s="30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="30"/>
       <c r="B19" s="30"/>
       <c r="C19" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="D19" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="F19" s="30" t="s">
+      <c r="G19" s="30" t="s">
         <v>123</v>
-      </c>
-      <c r="G19" s="30" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30"/>
       <c r="B20" s="30"/>
       <c r="C20" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" s="30" t="s">
         <v>124</v>
-      </c>
-      <c r="D20" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="G20" s="30" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="D21" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="E21" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="F21" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="E21" s="30" t="s">
+      <c r="G21" s="30" t="s">
         <v>133</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="G21" s="30" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30"/>
       <c r="B22" s="30"/>
       <c r="C22" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="D22" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="E22" s="30" t="s">
+      <c r="G22" s="30" t="s">
         <v>137</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="G22" s="30" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="30"/>
       <c r="B23" s="30"/>
       <c r="C23" s="30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G23" s="30" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="30"/>
       <c r="B24" s="30"/>
       <c r="C24" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="D24" s="42" t="s">
+      <c r="F24" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="E24" s="30" t="s">
+      <c r="G24" s="30" t="s">
         <v>144</v>
-      </c>
-      <c r="F24" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="G24" s="30" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -27028,36 +27259,538 @@
       <c r="F26" s="30"/>
       <c r="G26" s="30"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="42.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:7" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="43"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="43"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="43"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="43"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="43"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="45" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:7" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="47"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TEST CASE - FLIPKART.xlsx
+++ b/TEST CASE - FLIPKART.xlsx
@@ -4,14 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" activeTab="4"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="SIGN UP" sheetId="2" r:id="rId1"/>
     <sheet name="LOG IN" sheetId="1" r:id="rId2"/>
     <sheet name="HOME PAGE" sheetId="3" r:id="rId3"/>
     <sheet name="SEARCH" sheetId="4" r:id="rId4"/>
-    <sheet name="SHOPPING CART" sheetId="5" r:id="rId5"/>
+    <sheet name="SHOPPING " sheetId="5" r:id="rId5"/>
+    <sheet name="PLACE ORDER" sheetId="6" r:id="rId6"/>
+    <sheet name="PAYMENT" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="284">
   <si>
     <t>Test Scenario Description</t>
   </si>
@@ -588,6 +590,303 @@
   <si>
     <t>It redirects to the searched product page which shows its relevant details with proper format</t>
   </si>
+  <si>
+    <t>Verify that there is add to cart, quantity, size, color options are present at product detail page at shopping time</t>
+  </si>
+  <si>
+    <t>To check the product page search any product</t>
+  </si>
+  <si>
+    <t>Click on any product from product list</t>
+  </si>
+  <si>
+    <t>It redirects to the searched product page which shows all options add to cart, size, color, quantity</t>
+  </si>
+  <si>
+    <t>  Verify that on product page the user can select the different options size, colour, quantity</t>
+  </si>
+  <si>
+    <t>To check quantity option for product increase product quantity</t>
+  </si>
+  <si>
+    <t>quantity field should present at product page</t>
+  </si>
+  <si>
+    <t>All options for product should present at product page</t>
+  </si>
+  <si>
+    <t>Set quantity to 2</t>
+  </si>
+  <si>
+    <t>It shows quantity field is working and Product is set to 2-quantity</t>
+  </si>
+  <si>
+    <t>To check Size option for product select the size from list</t>
+  </si>
+  <si>
+    <t>Size field should present at product page</t>
+  </si>
+  <si>
+    <t>Select Size to "M"</t>
+  </si>
+  <si>
+    <t>It shows Size field is working and size is selected to "M"</t>
+  </si>
+  <si>
+    <t>To check Color option for product Select the Color from List</t>
+  </si>
+  <si>
+    <t>Color option should present at product page</t>
+  </si>
+  <si>
+    <t>Select Color - Blue</t>
+  </si>
+  <si>
+    <t>It shows Color option is working and Color is set to "Blue"</t>
+  </si>
+  <si>
+    <t>Add to cart option should present at product page</t>
+  </si>
+  <si>
+    <t>To check Product can be added to cart</t>
+  </si>
+  <si>
+    <t>Click - Add to Cart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It shows " Your Item is added to the Cart" </t>
+  </si>
+  <si>
+    <t>Verify that the error message gets displayed if user try to add empty quantity of product</t>
+  </si>
+  <si>
+    <t>To check Set Quantity field for product to empty</t>
+  </si>
+  <si>
+    <t>Set quantity to "0"</t>
+  </si>
+  <si>
+    <t>It shows "Please Select atleast one quantity to proceed"</t>
+  </si>
+  <si>
+    <t>Verify that the user get displayed with “out of stock product” if products goes out from stock</t>
+  </si>
+  <si>
+    <t>To check Product list for out of stock product</t>
+  </si>
+  <si>
+    <t>Product should marked with "Not in stock" for out of stock product</t>
+  </si>
+  <si>
+    <t>Search Product list</t>
+  </si>
+  <si>
+    <t>It shows message If products goes out of stock</t>
+  </si>
+  <si>
+    <t>Verify that the Product is reflecting in Cart added by the user</t>
+  </si>
+  <si>
+    <t>To check add the product to cart</t>
+  </si>
+  <si>
+    <t>It shows product added to cart and in cart product is reflecting</t>
+  </si>
+  <si>
+    <t>It shows "product added to cart" but product doesn’t reflecting in cart</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify that the user can remove the product from cart</t>
+  </si>
+  <si>
+    <t>To check remove the added product from cart</t>
+  </si>
+  <si>
+    <t>Remove button should present at cart</t>
+  </si>
+  <si>
+    <t>Click Remove button</t>
+  </si>
+  <si>
+    <t>It shows Product is removed from the cart</t>
+  </si>
+  <si>
+    <t>It shows Product doesnt removed from the cart</t>
+  </si>
+  <si>
+    <t>Verify that the user gets the accurate total price amount of products which added to the cart</t>
+  </si>
+  <si>
+    <t>Price indicator should present at cart</t>
+  </si>
+  <si>
+    <t>To check see the total amount displayed by the cart for added product</t>
+  </si>
+  <si>
+    <t>See the price indicator</t>
+  </si>
+  <si>
+    <t>It showing the accurate price amount related to the product in cart</t>
+  </si>
+  <si>
+    <t>It showing mismatched price amount related to the product in cart</t>
+  </si>
+  <si>
+    <t>TS_08</t>
+  </si>
+  <si>
+    <t>Verify that the total price amount of cart is increasing as per quantity of product is increasing in cart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To check increase the quantity of product </t>
+  </si>
+  <si>
+    <t>Set quantity to "3"</t>
+  </si>
+  <si>
+    <t>It shows the total price amount of cart is increasing as quantity is increasing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It shows the total price amount of cart is not increased  </t>
+  </si>
+  <si>
+    <t>quantity field should present at Cart</t>
+  </si>
+  <si>
+    <t>TS_09</t>
+  </si>
+  <si>
+    <t>Verify that the user can place order of the products which added to the cart</t>
+  </si>
+  <si>
+    <t>Click Place Order</t>
+  </si>
+  <si>
+    <t>It redirects to the further Place Order page</t>
+  </si>
+  <si>
+    <t>To check Place the order for product in cart</t>
+  </si>
+  <si>
+    <t>Place order Link should present at cart</t>
+  </si>
+  <si>
+    <t>Verify that the after buying desired quantity user get redirected to the place order page</t>
+  </si>
+  <si>
+    <t>To check product details see the place order page</t>
+  </si>
+  <si>
+    <t>All product related details should present at Place order page</t>
+  </si>
+  <si>
+    <t>See place order page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It showing the all product related same details which user selected </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veirfy that the redirected place order page showing the products with all detail like same quantity, size, color which user selected </t>
+  </si>
+  <si>
+    <t>To check all fields see the Place order page</t>
+  </si>
+  <si>
+    <t>Verify that the user can fill up the all details required to place the order like enter full name, delivery address, pincode, mobile no etc</t>
+  </si>
+  <si>
+    <t>To check Enter the Full name for order</t>
+  </si>
+  <si>
+    <t>Enter full name field should present at page</t>
+  </si>
+  <si>
+    <t>Name: Dhruvin Sathwara</t>
+  </si>
+  <si>
+    <t>It shows Field is accepting data and displaying full name of user</t>
+  </si>
+  <si>
+    <t>To check Enter the Full Address for order</t>
+  </si>
+  <si>
+    <t>Enter Address field should present at page</t>
+  </si>
+  <si>
+    <t>Address: 1, Xyz appartment, manekchowk, ahmedabad</t>
+  </si>
+  <si>
+    <t>To check enter mobile number for order</t>
+  </si>
+  <si>
+    <t>Enter mob no field should present at page</t>
+  </si>
+  <si>
+    <t>Mob no: 9898981234</t>
+  </si>
+  <si>
+    <t>It shows field is accepting data and displaying address of user</t>
+  </si>
+  <si>
+    <t>It shows field is accepting data and displaying Mob no of user</t>
+  </si>
+  <si>
+    <t>Verify that the place order page have the required fields to fill up like add address, personal information, payment detail</t>
+  </si>
+  <si>
+    <t>All fields Address, Personal Info, payment detail should present at Place order page</t>
+  </si>
+  <si>
+    <t>It showing the all fields like Personal info, add address, payment detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the user can get the alert message before submitting data </t>
+  </si>
+  <si>
+    <t>To check Submit the data entered by user</t>
+  </si>
+  <si>
+    <t>Submit Button should present at page</t>
+  </si>
+  <si>
+    <t>Click Submit Button</t>
+  </si>
+  <si>
+    <t>It shows the alert message like " Are you sure want to go further with this detail or not"</t>
+  </si>
+  <si>
+    <t>To check select yes for confirmation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirm Button should present in Alert message </t>
+  </si>
+  <si>
+    <t>Click on Confirm</t>
+  </si>
+  <si>
+    <t>It redirects to the further Payment Page</t>
+  </si>
+  <si>
+    <t>To check select no to re-enter details</t>
+  </si>
+  <si>
+    <t>No button should present in Alert message</t>
+  </si>
+  <si>
+    <t>Click on No</t>
+  </si>
+  <si>
+    <t>It goes again to enter detail section where you can change details for order</t>
+  </si>
+  <si>
+    <t>Verify that the User redirected to the Payment option after confirm submitting the details by submit button</t>
+  </si>
+  <si>
+    <t>To check click the submit button and confirm the alert</t>
+  </si>
+  <si>
+    <t>Click on Submit</t>
+  </si>
 </sst>
 </file>
 
@@ -674,7 +973,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -918,12 +1217,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1090,6 +1404,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1364,7 +1681,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2167,7 +2484,7 @@
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
     </row>
-    <row r="16" spans="1:23" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -2185,7 +2502,7 @@
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
     </row>
-    <row r="17" spans="1:23" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -26775,7 +27092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -26978,7 +27295,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
         <v>20</v>
       </c>
@@ -27270,8 +27587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27587,20 +27904,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G21"/>
+  <dimension ref="A2:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.28515625" customWidth="1"/>
+    <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.7109375" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="45" customWidth="1"/>
   </cols>
   <sheetData>
@@ -27628,169 +27945,640 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>187</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="30"/>
       <c r="B6" s="30"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30"/>
       <c r="B7" s="30"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
+      <c r="C8" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="54"/>
       <c r="B12" s="30"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="G13" s="43" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30"/>
       <c r="B14" s="30"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
       <c r="B16" s="30"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="54" t="s">
+        <v>232</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>235</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30"/>
       <c r="B18" s="30"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
+      <c r="C18" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>235</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="F19" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="30"/>
       <c r="B20" s="30"/>
-      <c r="C20" s="43"/>
+      <c r="C20" s="48"/>
       <c r="D20" s="42"/>
       <c r="E20" s="43"/>
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="47"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="46.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A7" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>253</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A8" s="43"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>257</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="43"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>260</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>269</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>271</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="43"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>275</v>
+      </c>
+      <c r="G11" s="43" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="43"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>277</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>282</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>283</v>
+      </c>
+      <c r="G13" s="43" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="43"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TEST CASE - FLIPKART.xlsx
+++ b/TEST CASE - FLIPKART.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" activeTab="5"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SIGN UP" sheetId="2" r:id="rId1"/>
@@ -13,7 +13,6 @@
     <sheet name="SEARCH" sheetId="4" r:id="rId4"/>
     <sheet name="SHOPPING " sheetId="5" r:id="rId5"/>
     <sheet name="PLACE ORDER" sheetId="6" r:id="rId6"/>
-    <sheet name="PAYMENT" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="298">
   <si>
     <t>Test Scenario Description</t>
   </si>
@@ -886,13 +885,55 @@
   </si>
   <si>
     <t>Click on Submit</t>
+  </si>
+  <si>
+    <t>Browser Name: Chrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Website Name: Flipkart    </t>
+  </si>
+  <si>
+    <t>Tester Name : Dhruvin</t>
+  </si>
+  <si>
+    <t>Module: Sign up</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> URL : https://www.flipkart.com/Signup/</t>
+  </si>
+  <si>
+    <t>Module: Log In</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> URL : https://www.flipkart.com/Login/</t>
+  </si>
+  <si>
+    <t>Module: Homepage</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> URL : https://www.flipkart.com/Homepage/</t>
+  </si>
+  <si>
+    <t>Module: Search</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> URL : https://www.flipkart.com/Cart/</t>
+  </si>
+  <si>
+    <t>Module: Cart</t>
+  </si>
+  <si>
+    <t>Module: Place Order</t>
+  </si>
+  <si>
+    <t>URL : https://www.flipkart.com/Place order/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -952,8 +993,14 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -970,6 +1017,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1237,7 +1296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1408,6 +1467,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1681,7 +1744,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1689,10 +1752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G22"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1706,191 +1769,133 @@
     <col min="7" max="7" width="41.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:7" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="19" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="58" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="59"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
+        <v>287</v>
+      </c>
+      <c r="B2" s="59"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="58" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" s="59"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="58" t="s">
+        <v>288</v>
+      </c>
+      <c r="B4" s="59"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="58" t="s">
+        <v>286</v>
+      </c>
+      <c r="B5" s="59"/>
+    </row>
+    <row r="6" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B7" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D7" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E7" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F7" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G7" s="20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+    <row r="8" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B8" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D8" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E8" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F8" s="4">
         <v>9898981234</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G8" s="14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="24" t="s">
+    <row r="9" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D9" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E9" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F9" s="4">
         <v>98989812</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G9" s="14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="22"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="25" t="s">
+    <row r="10" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D10" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E10" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F10" s="29">
         <v>9898981111</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G10" s="23" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="31" t="s">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B11" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C11" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D11" s="34" t="s">
         <v>65</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="33"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>53</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>54</v>
@@ -1899,44 +1904,96 @@
         <v>55</v>
       </c>
       <c r="G11" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="33"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="13" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
@@ -1947,17 +2004,54 @@
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
     </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W1000"/>
+  <dimension ref="A1:W1004"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1972,9 +2066,11 @@
     <col min="8" max="16384" width="12.5703125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
-      <c r="B1" s="7"/>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="58" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="59"/>
       <c r="C1" s="7"/>
       <c r="D1" s="2"/>
       <c r="E1" s="1"/>
@@ -1997,92 +2093,70 @@
       <c r="V1" s="7"/>
       <c r="W1" s="7"/>
     </row>
-    <row r="2" spans="1:23" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="1"/>
-      <c r="B2" s="7"/>
+    <row r="2" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
+        <v>289</v>
+      </c>
+      <c r="B2" s="59"/>
       <c r="C2" s="7"/>
       <c r="D2" s="2"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-    </row>
-    <row r="3" spans="1:23" s="11" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-    </row>
-    <row r="4" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="4">
-        <v>9898981234</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>27</v>
-      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="58" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="58" t="s">
+        <v>290</v>
+      </c>
+      <c r="B4" s="59"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -2100,59 +2174,41 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="6">
-        <v>9898123456</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-    </row>
-    <row r="6" spans="1:23" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="6">
-        <v>98989812</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>29</v>
-      </c>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="58" t="s">
+        <v>286</v>
+      </c>
+      <c r="B5" s="59"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+    </row>
+    <row r="6" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -2170,23 +2226,27 @@
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
     </row>
-    <row r="7" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>32</v>
+    <row r="7" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>3</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -2205,23 +2265,27 @@
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
     </row>
-    <row r="8" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="9"/>
+    <row r="8" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="C8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>33</v>
+        <v>7</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>35</v>
+      <c r="F8" s="4">
+        <v>9898981234</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -2240,23 +2304,23 @@
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
     </row>
-    <row r="9" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="9"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>69</v>
+      <c r="F9" s="6">
+        <v>9898123456</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -2275,27 +2339,23 @@
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
     </row>
-    <row r="10" spans="1:23" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>42</v>
-      </c>
+    <row r="10" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>45</v>
+        <v>24</v>
+      </c>
+      <c r="F10" s="6">
+        <v>98989812</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -2314,23 +2374,23 @@
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
     </row>
-    <row r="11" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>47</v>
+        <v>24</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -2349,27 +2409,23 @@
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
     </row>
-    <row r="12" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>48</v>
-      </c>
+    <row r="12" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>40</v>
+        <v>33</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>34</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -2388,27 +2444,23 @@
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
     </row>
-    <row r="13" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>52</v>
-      </c>
+    <row r="13" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>55</v>
+        <v>38</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>37</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -2419,35 +2471,28 @@
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-    </row>
-    <row r="14" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="18" t="s">
-        <v>57</v>
+    </row>
+    <row r="14" spans="1:23" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>50</v>
+        <v>44</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -2458,22 +2503,25 @@
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-    </row>
-    <row r="15" spans="1:23" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -2484,14 +2532,28 @@
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+    <row r="16" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>51</v>
+      </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -2502,14 +2564,28 @@
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+    <row r="17" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -2520,14 +2596,28 @@
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+    <row r="18" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -2537,6 +2627,13 @@
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
@@ -2555,15 +2652,22 @@
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -2582,13 +2686,13 @@
       <c r="W20" s="7"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+      <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
@@ -2607,13 +2711,13 @@
       <c r="W21" s="7"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -2632,13 +2736,13 @@
       <c r="W22" s="7"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -27039,22 +27143,6 @@
       <c r="E999" s="1"/>
       <c r="F999" s="1"/>
       <c r="G999" s="1"/>
-      <c r="H999" s="7"/>
-      <c r="I999" s="7"/>
-      <c r="J999" s="7"/>
-      <c r="K999" s="7"/>
-      <c r="L999" s="7"/>
-      <c r="M999" s="7"/>
-      <c r="N999" s="7"/>
-      <c r="O999" s="7"/>
-      <c r="P999" s="7"/>
-      <c r="Q999" s="7"/>
-      <c r="R999" s="7"/>
-      <c r="S999" s="7"/>
-      <c r="T999" s="7"/>
-      <c r="U999" s="7"/>
-      <c r="V999" s="7"/>
-      <c r="W999" s="7"/>
     </row>
     <row r="1000" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1000" s="1"/>
@@ -27064,22 +27152,42 @@
       <c r="E1000" s="1"/>
       <c r="F1000" s="1"/>
       <c r="G1000" s="1"/>
-      <c r="H1000" s="7"/>
-      <c r="I1000" s="7"/>
-      <c r="J1000" s="7"/>
-      <c r="K1000" s="7"/>
-      <c r="L1000" s="7"/>
-      <c r="M1000" s="7"/>
-      <c r="N1000" s="7"/>
-      <c r="O1000" s="7"/>
-      <c r="P1000" s="7"/>
-      <c r="Q1000" s="7"/>
-      <c r="R1000" s="7"/>
-      <c r="S1000" s="7"/>
-      <c r="T1000" s="7"/>
-      <c r="U1000" s="7"/>
-      <c r="V1000" s="7"/>
-      <c r="W1000" s="7"/>
+    </row>
+    <row r="1001" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1001" s="1"/>
+      <c r="B1001" s="7"/>
+      <c r="C1001" s="7"/>
+      <c r="D1001" s="2"/>
+      <c r="E1001" s="1"/>
+      <c r="F1001" s="1"/>
+      <c r="G1001" s="1"/>
+    </row>
+    <row r="1002" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1002" s="1"/>
+      <c r="B1002" s="7"/>
+      <c r="C1002" s="7"/>
+      <c r="D1002" s="2"/>
+      <c r="E1002" s="1"/>
+      <c r="F1002" s="1"/>
+      <c r="G1002" s="1"/>
+    </row>
+    <row r="1003" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1003" s="1"/>
+      <c r="B1003" s="7"/>
+      <c r="C1003" s="7"/>
+      <c r="D1003" s="2"/>
+      <c r="E1003" s="1"/>
+      <c r="F1003" s="1"/>
+      <c r="G1003" s="1"/>
+    </row>
+    <row r="1004" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1004" s="1"/>
+      <c r="B1004" s="7"/>
+      <c r="C1004" s="7"/>
+      <c r="D1004" s="2"/>
+      <c r="E1004" s="1"/>
+      <c r="F1004" s="1"/>
+      <c r="G1004" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -27090,10 +27198,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G26"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27107,474 +27215,504 @@
     <col min="7" max="7" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="58" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="59"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2" s="59"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="58" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" s="59"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="58" t="s">
+        <v>292</v>
+      </c>
+      <c r="B4" s="59"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="58" t="s">
+        <v>286</v>
+      </c>
+      <c r="B5" s="59"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B7" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D7" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E7" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F7" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G7" s="20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+    <row r="8" spans="1:7" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B8" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C8" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D8" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E8" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F8" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G8" s="23" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+    <row r="9" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B9" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C9" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D9" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E9" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F9" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G9" s="30" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43" t="s">
+    <row r="10" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D10" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E10" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F10" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G10" s="30" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="G9" s="30" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="43"/>
       <c r="B11" s="43"/>
       <c r="C11" s="43" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>149</v>
+        <v>79</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>148</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>95</v>
-      </c>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="43" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>98</v>
+        <v>90</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>148</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="43"/>
       <c r="B13" s="43"/>
       <c r="C13" s="43" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="F13" s="43" t="s">
-        <v>98</v>
+        <v>92</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>148</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="43"/>
       <c r="B15" s="43"/>
       <c r="C15" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D19" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E19" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F19" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G19" s="30" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="G16" s="30" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="G17" s="30" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="D18" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="G18" s="30" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="G19" s="30" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30"/>
       <c r="B20" s="30"/>
       <c r="C20" s="30" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>128</v>
+        <v>110</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>112</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="D21" s="42" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30"/>
       <c r="B22" s="30"/>
       <c r="C22" s="30" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="30"/>
       <c r="B23" s="30"/>
       <c r="C23" s="30" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="G23" s="30" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="30"/>
       <c r="B24" s="30"/>
       <c r="C24" s="30" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="30"/>
       <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
+      <c r="C26" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28" s="30" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -27585,10 +27723,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G17"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27602,299 +27740,329 @@
     <col min="7" max="7" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:7" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="58" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="59"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2" s="59"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="58" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" s="59"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="58" t="s">
+        <v>292</v>
+      </c>
+      <c r="B4" s="59"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="58" t="s">
+        <v>286</v>
+      </c>
+      <c r="B5" s="59"/>
+    </row>
+    <row r="6" spans="1:7" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B7" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C7" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D7" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E7" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F7" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="53" t="s">
+      <c r="G7" s="53" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+    <row r="8" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B8" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C8" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D8" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E8" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F8" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G8" s="48" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="48" t="s">
+    <row r="9" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="43"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D9" s="55" t="s">
         <v>152</v>
-      </c>
-      <c r="E5" s="54" t="s">
-        <v>151</v>
-      </c>
-      <c r="F5" s="54" t="s">
-        <v>153</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="F6" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="F7" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="G7" s="43" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="C9" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>179</v>
       </c>
       <c r="E9" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="F9" s="30" t="s">
-        <v>178</v>
+      <c r="F9" s="54" t="s">
+        <v>153</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>166</v>
+        <v>158</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>159</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="43"/>
       <c r="B11" s="30"/>
       <c r="C11" s="48" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>168</v>
+        <v>158</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="G11" s="43" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="43"/>
       <c r="B12" s="30"/>
       <c r="C12" s="48" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>166</v>
+        <v>158</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>159</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>171</v>
+        <v>19</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>177</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>172</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>173</v>
+        <v>179</v>
+      </c>
+      <c r="E13" s="54" t="s">
+        <v>151</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
+      <c r="A14" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>163</v>
+      </c>
       <c r="C14" s="48" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>181</v>
-      </c>
+      <c r="A15" s="43"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="48" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="E15" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="43"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="F19" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G19" s="30" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="47"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="47"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27904,10 +28072,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G20"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:G19"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27921,210 +28089,152 @@
     <col min="7" max="7" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:7" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="58" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="59"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2" s="59"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="58" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" s="59"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="58" t="s">
+        <v>294</v>
+      </c>
+      <c r="B4" s="59"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="58" t="s">
+        <v>286</v>
+      </c>
+      <c r="B5" s="59"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B7" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C7" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D7" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E7" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F7" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="53" t="s">
+      <c r="G7" s="53" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+    <row r="8" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B8" s="57" t="s">
         <v>185</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C8" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D8" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E8" s="54" t="s">
         <v>192</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F8" s="54" t="s">
         <v>187</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G8" s="30" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>190</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="F5" s="43" t="s">
-        <v>193</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="F6" s="43" t="s">
-        <v>197</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>199</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="F7" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>205</v>
-      </c>
-      <c r="G8" s="43" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>191</v>
       </c>
       <c r="F9" s="43" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>211</v>
-      </c>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="48" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="F10" s="43" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>216</v>
-      </c>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="48" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F11" s="43" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="30"/>
       <c r="C12" s="48" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>203</v>
@@ -28132,167 +28242,255 @@
       <c r="F12" s="43" t="s">
         <v>205</v>
       </c>
-      <c r="G12" s="30" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="43" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>223</v>
-      </c>
-      <c r="G13" s="43" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
+        <v>209</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>211</v>
+      </c>
       <c r="C14" s="48" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="F14" s="43" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>226</v>
+        <v>57</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>216</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>229</v>
+        <v>203</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>205</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="30"/>
       <c r="C16" s="48" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>229</v>
+        <v>203</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>205</v>
       </c>
       <c r="G16" s="30" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="54" t="s">
-        <v>232</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>233</v>
+        <v>110</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>220</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="F17" s="43" t="s">
-        <v>235</v>
-      </c>
-      <c r="G17" s="30" t="s">
-        <v>236</v>
+        <v>223</v>
+      </c>
+      <c r="G17" s="43" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30"/>
       <c r="B18" s="30"/>
       <c r="C18" s="48" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="F18" s="43" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A19" s="54" t="s">
-        <v>239</v>
+        <v>127</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="F19" s="43" t="s">
-        <v>241</v>
+        <v>227</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>229</v>
       </c>
       <c r="G19" s="30" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A20" s="30"/>
       <c r="B20" s="30"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
+      <c r="C20" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="54" t="s">
+        <v>232</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>235</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>235</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28302,10 +28500,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G14"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28319,266 +28517,287 @@
     <col min="7" max="7" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="58" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="59"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
+        <v>296</v>
+      </c>
+      <c r="B2" s="59"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="58" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" s="59"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="58" t="s">
+        <v>297</v>
+      </c>
+      <c r="B4" s="59"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="58" t="s">
+        <v>286</v>
+      </c>
+      <c r="B5" s="59"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="60"/>
+      <c r="B6" s="61"/>
+    </row>
+    <row r="7" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B7" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C7" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D7" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E7" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F7" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="53" t="s">
+      <c r="G7" s="53" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+    <row r="8" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B8" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C8" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D8" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E8" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F8" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G8" s="30" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+    <row r="9" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A9" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B9" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C9" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D9" s="42" t="s">
         <v>246</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E9" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F9" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G9" s="30" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+    <row r="10" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B10" s="30" t="s">
         <v>265</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C10" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D10" s="42" t="s">
         <v>251</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E10" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F10" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G10" s="30" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+    <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A11" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B11" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C11" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D11" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E11" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F11" s="30" t="s">
         <v>255</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G11" s="30" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>257</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>259</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>260</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>261</v>
-      </c>
-      <c r="F9" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="G9" s="30" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>268</v>
-      </c>
-      <c r="C10" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>269</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>271</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>273</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="F11" s="43" t="s">
-        <v>275</v>
-      </c>
-      <c r="G11" s="43" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="A12" s="43"/>
       <c r="B12" s="30"/>
       <c r="C12" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>257</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="43"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>260</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>269</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>271</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="43"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>275</v>
+      </c>
+      <c r="G15" s="43" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="43"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D16" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E16" s="30" t="s">
         <v>278</v>
       </c>
-      <c r="F12" s="43" t="s">
+      <c r="F16" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G16" s="30" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
+    <row r="17" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B17" s="30" t="s">
         <v>281</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C17" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D17" s="42" t="s">
         <v>282</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E17" s="30" t="s">
         <v>270</v>
       </c>
-      <c r="F13" s="43" t="s">
+      <c r="F17" s="43" t="s">
         <v>283</v>
       </c>
-      <c r="G13" s="43" t="s">
+      <c r="G17" s="43" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="43"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>